--- a/Sprint 1, 2, 3 UserStories.xlsx
+++ b/Sprint 1, 2, 3 UserStories.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="256">
   <si>
     <t>As a team member, I want to design the interface for the game through pictures</t>
   </si>
@@ -734,6 +734,72 @@
   </si>
   <si>
     <t>Sprint 2 Allocation</t>
+  </si>
+  <si>
+    <t>As a player, I want to have an easy to navigate menu system with all options available</t>
+  </si>
+  <si>
+    <t>As a player, I want a screen that I have to press start to continue</t>
+  </si>
+  <si>
+    <t>As a player, I want a summary of my accomplishments of the level</t>
+  </si>
+  <si>
+    <t>As a player, I want to be able to save my progress in separate profiles so I may load them up later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a player, I want to be able to use the in game interface effectively </t>
+  </si>
+  <si>
+    <t>As a player, I want to be able to use the full range of attacks available to me</t>
+  </si>
+  <si>
+    <t>As a player, I want to be able to control all of the types of units available to me</t>
+  </si>
+  <si>
+    <t>As a player, I want to be able to collect and use all of the powerups available to me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a player, I want to be able to change the full range of hotkeys </t>
+  </si>
+  <si>
+    <t>As a player, I want to be able to use the mouse to select and control the units, pick up items and control the camera</t>
+  </si>
+  <si>
+    <t>As a player, I want to be able play all of the levels</t>
+  </si>
+  <si>
+    <t>As a programmer, I want to have a system to play dialogue at the right time</t>
+  </si>
+  <si>
+    <t>As a tester, I want to be able to enter a cheat code to further me in the game</t>
+  </si>
+  <si>
+    <t>As a player, I want to be able to complete levels or be able to die and have to start over</t>
+  </si>
+  <si>
+    <t>As a developer, I want characters to behave differently using different states to control them</t>
+  </si>
+  <si>
+    <t>As a player, I want enemies to make informed decisions</t>
+  </si>
+  <si>
+    <t>As a player, when I'm not controlling the survivors, I want them to make basic decisions based on their type</t>
+  </si>
+  <si>
+    <t>As a player, I want bosses to use their abilities to make challenging battles</t>
+  </si>
+  <si>
+    <t>As a player, I want all units to avoid solid objects in order to reach their destination</t>
+  </si>
+  <si>
+    <t>As a player, I want to hear background music and sound effects all throughout the game</t>
+  </si>
+  <si>
+    <t>As a player, I want to be able to save progress throughout the levels</t>
+  </si>
+  <si>
+    <t>As a developer, I want to have all of my assets in place</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1171,7 @@
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1268,6 +1334,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1283,40 +1388,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1328,13 +1406,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1345,12 +1423,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2579,14 +2651,14 @@
       <c r="B23" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="103" t="s">
+      <c r="C23" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="105"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="97"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="25" t="s">
@@ -2595,48 +2667,48 @@
       <c r="B24" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="100"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="102"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="100"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="97" t="s">
+      <c r="C25" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="99"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="103"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="97" t="s">
+      <c r="C26" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="99"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="103"/>
     </row>
     <row r="27" spans="1:11" ht="13.5" thickBot="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="97" t="s">
+      <c r="C27" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="99"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="103"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="25" t="s">
@@ -2645,48 +2717,48 @@
       <c r="B28" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="100"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="102"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="100"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="97" t="s">
+      <c r="C29" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="99"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="103"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="97" t="s">
+      <c r="C30" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="99"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="103"/>
     </row>
     <row r="31" spans="1:11" ht="13.5" thickBot="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="97" t="s">
+      <c r="C31" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="99"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="103"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="25" t="s">
@@ -2695,36 +2767,36 @@
       <c r="B32" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="100"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="102"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="100"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="97" t="s">
+      <c r="C33" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="99"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="103"/>
     </row>
     <row r="34" spans="1:8" ht="13.5" thickBot="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="97" t="s">
+      <c r="C34" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="99"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="103"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="25" t="s">
@@ -2733,24 +2805,24 @@
       <c r="B35" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="100"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="102"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="100"/>
     </row>
     <row r="36" spans="1:8" ht="13.5" thickBot="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="97" t="s">
+      <c r="C36" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="99"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="103"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="25" t="s">
@@ -2759,48 +2831,48 @@
       <c r="B37" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="100"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="102"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="100"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="97" t="s">
+      <c r="C38" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="98"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="98"/>
-      <c r="H38" s="99"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="103"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="97" t="s">
+      <c r="C39" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="98"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="99"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="103"/>
     </row>
     <row r="40" spans="1:8" ht="13.5" thickBot="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="97" t="s">
+      <c r="C40" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="98"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="99"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="103"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="21" t="s">
@@ -2809,72 +2881,72 @@
       <c r="B41" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="100"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="102"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="100"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="97" t="s">
+      <c r="C42" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="98"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="98"/>
-      <c r="H42" s="99"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="103"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="97" t="s">
+      <c r="C43" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="98"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="98"/>
-      <c r="H43" s="99"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="103"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="97" t="s">
+      <c r="C44" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="99"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="103"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="97" t="s">
+      <c r="C45" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="98"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="98"/>
-      <c r="G45" s="98"/>
-      <c r="H45" s="99"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="103"/>
     </row>
     <row r="46" spans="1:8" ht="13.5" thickBot="1">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="97" t="s">
+      <c r="C46" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="98"/>
-      <c r="E46" s="98"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="98"/>
-      <c r="H46" s="99"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="102"/>
+      <c r="H46" s="103"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="21" t="s">
@@ -2883,96 +2955,96 @@
       <c r="B47" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="100"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="102"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="100"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="97" t="s">
+      <c r="C48" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="98"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="99"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="102"/>
+      <c r="H48" s="103"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="97" t="s">
+      <c r="C49" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="98"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="98"/>
-      <c r="G49" s="98"/>
-      <c r="H49" s="99"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="103"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="97" t="s">
+      <c r="C50" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="98"/>
-      <c r="E50" s="98"/>
-      <c r="F50" s="98"/>
-      <c r="G50" s="98"/>
-      <c r="H50" s="99"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="103"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="97" t="s">
+      <c r="C51" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="98"/>
-      <c r="E51" s="98"/>
-      <c r="F51" s="98"/>
-      <c r="G51" s="98"/>
-      <c r="H51" s="99"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="103"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="97" t="s">
+      <c r="C52" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="99"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="103"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="97" t="s">
+      <c r="C53" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="98"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="98"/>
-      <c r="H53" s="99"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="103"/>
     </row>
     <row r="54" spans="1:8" ht="13.5" thickBot="1">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="97" t="s">
+      <c r="C54" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="98"/>
-      <c r="E54" s="98"/>
-      <c r="F54" s="98"/>
-      <c r="G54" s="98"/>
-      <c r="H54" s="99"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="102"/>
+      <c r="F54" s="102"/>
+      <c r="G54" s="102"/>
+      <c r="H54" s="103"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="25" t="s">
@@ -2981,48 +3053,48 @@
       <c r="B55" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="100"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="101"/>
-      <c r="H55" s="102"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="99"/>
+      <c r="H55" s="100"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="97" t="s">
+      <c r="C56" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="D56" s="98"/>
-      <c r="E56" s="98"/>
-      <c r="F56" s="98"/>
-      <c r="G56" s="98"/>
-      <c r="H56" s="99"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="102"/>
+      <c r="F56" s="102"/>
+      <c r="G56" s="102"/>
+      <c r="H56" s="103"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="97" t="s">
+      <c r="C57" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="98"/>
-      <c r="E57" s="98"/>
-      <c r="F57" s="98"/>
-      <c r="G57" s="98"/>
-      <c r="H57" s="99"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="102"/>
+      <c r="F57" s="102"/>
+      <c r="G57" s="102"/>
+      <c r="H57" s="103"/>
     </row>
     <row r="58" spans="1:8" ht="13.5" thickBot="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="97" t="s">
+      <c r="C58" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="98"/>
-      <c r="E58" s="98"/>
-      <c r="F58" s="98"/>
-      <c r="G58" s="98"/>
-      <c r="H58" s="99"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="102"/>
+      <c r="H58" s="103"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="21" t="s">
@@ -3031,48 +3103,48 @@
       <c r="B59" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="100"/>
-      <c r="D59" s="101"/>
-      <c r="E59" s="101"/>
-      <c r="F59" s="101"/>
-      <c r="G59" s="101"/>
-      <c r="H59" s="102"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="99"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="99"/>
+      <c r="H59" s="100"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="97" t="s">
+      <c r="C60" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="98"/>
-      <c r="E60" s="98"/>
-      <c r="F60" s="98"/>
-      <c r="G60" s="98"/>
-      <c r="H60" s="99"/>
+      <c r="D60" s="102"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="102"/>
+      <c r="G60" s="102"/>
+      <c r="H60" s="103"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
-      <c r="C61" s="97" t="s">
+      <c r="C61" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="D61" s="98"/>
-      <c r="E61" s="98"/>
-      <c r="F61" s="98"/>
-      <c r="G61" s="98"/>
-      <c r="H61" s="99"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="102"/>
+      <c r="H61" s="103"/>
     </row>
     <row r="62" spans="1:8" ht="13.5" thickBot="1">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="97" t="s">
+      <c r="C62" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="98"/>
-      <c r="E62" s="98"/>
-      <c r="F62" s="98"/>
-      <c r="G62" s="98"/>
-      <c r="H62" s="99"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="102"/>
+      <c r="F62" s="102"/>
+      <c r="G62" s="102"/>
+      <c r="H62" s="103"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="21" t="s">
@@ -3081,24 +3153,24 @@
       <c r="B63" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="100"/>
-      <c r="D63" s="101"/>
-      <c r="E63" s="101"/>
-      <c r="F63" s="101"/>
-      <c r="G63" s="101"/>
-      <c r="H63" s="102"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="99"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="99"/>
+      <c r="H63" s="100"/>
     </row>
     <row r="64" spans="1:8" ht="13.5" thickBot="1">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="C64" s="97" t="s">
+      <c r="C64" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="98"/>
-      <c r="E64" s="98"/>
-      <c r="F64" s="98"/>
-      <c r="G64" s="98"/>
-      <c r="H64" s="99"/>
+      <c r="D64" s="102"/>
+      <c r="E64" s="102"/>
+      <c r="F64" s="102"/>
+      <c r="G64" s="102"/>
+      <c r="H64" s="103"/>
     </row>
     <row r="65" spans="1:8" ht="25.5" customHeight="1">
       <c r="A65" s="21" t="s">
@@ -3107,48 +3179,48 @@
       <c r="B65" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="100"/>
-      <c r="D65" s="101"/>
-      <c r="E65" s="101"/>
-      <c r="F65" s="101"/>
-      <c r="G65" s="101"/>
-      <c r="H65" s="102"/>
+      <c r="C65" s="98"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="99"/>
+      <c r="F65" s="99"/>
+      <c r="G65" s="99"/>
+      <c r="H65" s="100"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="97" t="s">
+      <c r="C66" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="98"/>
-      <c r="E66" s="98"/>
-      <c r="F66" s="98"/>
-      <c r="G66" s="98"/>
-      <c r="H66" s="99"/>
+      <c r="D66" s="102"/>
+      <c r="E66" s="102"/>
+      <c r="F66" s="102"/>
+      <c r="G66" s="102"/>
+      <c r="H66" s="103"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="97" t="s">
+      <c r="C67" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="D67" s="98"/>
-      <c r="E67" s="98"/>
-      <c r="F67" s="98"/>
-      <c r="G67" s="98"/>
-      <c r="H67" s="99"/>
+      <c r="D67" s="102"/>
+      <c r="E67" s="102"/>
+      <c r="F67" s="102"/>
+      <c r="G67" s="102"/>
+      <c r="H67" s="103"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" thickBot="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="97" t="s">
+      <c r="C68" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="D68" s="98"/>
-      <c r="E68" s="98"/>
-      <c r="F68" s="98"/>
-      <c r="G68" s="98"/>
-      <c r="H68" s="99"/>
+      <c r="D68" s="102"/>
+      <c r="E68" s="102"/>
+      <c r="F68" s="102"/>
+      <c r="G68" s="102"/>
+      <c r="H68" s="103"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="21" t="s">
@@ -3157,48 +3229,48 @@
       <c r="B69" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="100"/>
-      <c r="D69" s="101"/>
-      <c r="E69" s="101"/>
-      <c r="F69" s="101"/>
-      <c r="G69" s="101"/>
-      <c r="H69" s="102"/>
+      <c r="C69" s="98"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
+      <c r="G69" s="99"/>
+      <c r="H69" s="100"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="97" t="s">
+      <c r="C70" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="D70" s="98"/>
-      <c r="E70" s="98"/>
-      <c r="F70" s="98"/>
-      <c r="G70" s="98"/>
-      <c r="H70" s="99"/>
+      <c r="D70" s="102"/>
+      <c r="E70" s="102"/>
+      <c r="F70" s="102"/>
+      <c r="G70" s="102"/>
+      <c r="H70" s="103"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="97" t="s">
+      <c r="C71" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="D71" s="98"/>
-      <c r="E71" s="98"/>
-      <c r="F71" s="98"/>
-      <c r="G71" s="98"/>
-      <c r="H71" s="99"/>
+      <c r="D71" s="102"/>
+      <c r="E71" s="102"/>
+      <c r="F71" s="102"/>
+      <c r="G71" s="102"/>
+      <c r="H71" s="103"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" thickBot="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="97" t="s">
+      <c r="C72" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="D72" s="98"/>
-      <c r="E72" s="98"/>
-      <c r="F72" s="98"/>
-      <c r="G72" s="98"/>
-      <c r="H72" s="99"/>
+      <c r="D72" s="102"/>
+      <c r="E72" s="102"/>
+      <c r="F72" s="102"/>
+      <c r="G72" s="102"/>
+      <c r="H72" s="103"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="21" t="s">
@@ -3207,48 +3279,48 @@
       <c r="B73" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="100"/>
-      <c r="D73" s="101"/>
-      <c r="E73" s="101"/>
-      <c r="F73" s="101"/>
-      <c r="G73" s="101"/>
-      <c r="H73" s="102"/>
+      <c r="C73" s="98"/>
+      <c r="D73" s="99"/>
+      <c r="E73" s="99"/>
+      <c r="F73" s="99"/>
+      <c r="G73" s="99"/>
+      <c r="H73" s="100"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="97" t="s">
+      <c r="C74" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="D74" s="98"/>
-      <c r="E74" s="98"/>
-      <c r="F74" s="98"/>
-      <c r="G74" s="98"/>
-      <c r="H74" s="99"/>
+      <c r="D74" s="102"/>
+      <c r="E74" s="102"/>
+      <c r="F74" s="102"/>
+      <c r="G74" s="102"/>
+      <c r="H74" s="103"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="97" t="s">
+      <c r="C75" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="D75" s="98"/>
-      <c r="E75" s="98"/>
-      <c r="F75" s="98"/>
-      <c r="G75" s="98"/>
-      <c r="H75" s="99"/>
+      <c r="D75" s="102"/>
+      <c r="E75" s="102"/>
+      <c r="F75" s="102"/>
+      <c r="G75" s="102"/>
+      <c r="H75" s="103"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" thickBot="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="97" t="s">
+      <c r="C76" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="D76" s="98"/>
-      <c r="E76" s="98"/>
-      <c r="F76" s="98"/>
-      <c r="G76" s="98"/>
-      <c r="H76" s="99"/>
+      <c r="D76" s="102"/>
+      <c r="E76" s="102"/>
+      <c r="F76" s="102"/>
+      <c r="G76" s="102"/>
+      <c r="H76" s="103"/>
     </row>
     <row r="77" spans="1:8" ht="25.5">
       <c r="A77" s="21" t="s">
@@ -3257,36 +3329,36 @@
       <c r="B77" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="100"/>
-      <c r="D77" s="101"/>
-      <c r="E77" s="101"/>
-      <c r="F77" s="101"/>
-      <c r="G77" s="101"/>
-      <c r="H77" s="102"/>
+      <c r="C77" s="98"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="99"/>
+      <c r="F77" s="99"/>
+      <c r="G77" s="99"/>
+      <c r="H77" s="100"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
-      <c r="C78" s="97" t="s">
+      <c r="C78" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="D78" s="98"/>
-      <c r="E78" s="98"/>
-      <c r="F78" s="98"/>
-      <c r="G78" s="98"/>
-      <c r="H78" s="99"/>
+      <c r="D78" s="102"/>
+      <c r="E78" s="102"/>
+      <c r="F78" s="102"/>
+      <c r="G78" s="102"/>
+      <c r="H78" s="103"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" thickBot="1">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
-      <c r="C79" s="97" t="s">
+      <c r="C79" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="D79" s="98"/>
-      <c r="E79" s="98"/>
-      <c r="F79" s="98"/>
-      <c r="G79" s="98"/>
-      <c r="H79" s="99"/>
+      <c r="D79" s="102"/>
+      <c r="E79" s="102"/>
+      <c r="F79" s="102"/>
+      <c r="G79" s="102"/>
+      <c r="H79" s="103"/>
     </row>
     <row r="80" spans="1:8" ht="25.5">
       <c r="A80" s="21" t="s">
@@ -3295,56 +3367,95 @@
       <c r="B80" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="100"/>
-      <c r="D80" s="101"/>
-      <c r="E80" s="101"/>
-      <c r="F80" s="101"/>
-      <c r="G80" s="101"/>
-      <c r="H80" s="102"/>
+      <c r="C80" s="98"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="99"/>
+      <c r="F80" s="99"/>
+      <c r="G80" s="99"/>
+      <c r="H80" s="100"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="26"/>
       <c r="B81" s="26"/>
-      <c r="C81" s="91" t="s">
+      <c r="C81" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="D81" s="92"/>
-      <c r="E81" s="92"/>
-      <c r="F81" s="92"/>
-      <c r="G81" s="92"/>
-      <c r="H81" s="93"/>
+      <c r="D81" s="105"/>
+      <c r="E81" s="105"/>
+      <c r="F81" s="105"/>
+      <c r="G81" s="105"/>
+      <c r="H81" s="106"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="26"/>
       <c r="B82" s="26"/>
-      <c r="C82" s="91" t="s">
+      <c r="C82" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D82" s="92"/>
-      <c r="E82" s="92"/>
-      <c r="F82" s="92"/>
-      <c r="G82" s="92"/>
-      <c r="H82" s="93"/>
+      <c r="D82" s="105"/>
+      <c r="E82" s="105"/>
+      <c r="F82" s="105"/>
+      <c r="G82" s="105"/>
+      <c r="H82" s="106"/>
     </row>
     <row r="83" spans="1:8" ht="13.5" thickBot="1">
       <c r="A83" s="24"/>
       <c r="B83" s="24"/>
-      <c r="C83" s="94" t="s">
+      <c r="C83" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="D83" s="95"/>
-      <c r="E83" s="95"/>
-      <c r="F83" s="95"/>
-      <c r="G83" s="95"/>
-      <c r="H83" s="96"/>
+      <c r="D83" s="108"/>
+      <c r="E83" s="108"/>
+      <c r="F83" s="108"/>
+      <c r="G83" s="108"/>
+      <c r="H83" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
     <mergeCell ref="C39:H39"/>
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="C29:H29"/>
@@ -3357,50 +3468,11 @@
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C37:H37"/>
     <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A24">
@@ -3433,8 +3505,8 @@
   </sheetPr>
   <dimension ref="A1:K140"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4252,14 +4324,14 @@
       <c r="B33" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="115" t="s">
+      <c r="C33" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="117"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="121"/>
     </row>
     <row r="34" spans="1:8" s="40" customFormat="1">
       <c r="A34" s="69" t="s">
@@ -4268,134 +4340,134 @@
       <c r="B34" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="112"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="114"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="112"/>
     </row>
     <row r="35" spans="1:8" s="40" customFormat="1">
       <c r="A35" s="68"/>
       <c r="B35" s="68"/>
-      <c r="C35" s="109" t="s">
+      <c r="C35" s="113" t="s">
         <v>231</v>
       </c>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="111"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="115"/>
     </row>
     <row r="36" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1">
       <c r="A36" s="68"/>
       <c r="B36" s="68"/>
-      <c r="C36" s="106" t="s">
+      <c r="C36" s="116" t="s">
         <v>230</v>
       </c>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="108"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="118"/>
     </row>
     <row r="37" spans="1:8" s="40" customFormat="1" ht="25.5">
       <c r="A37" s="70" t="s">
         <v>229</v>
       </c>
       <c r="B37" s="69"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="114"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="112"/>
     </row>
     <row r="38" spans="1:8" s="40" customFormat="1">
       <c r="A38" s="68"/>
       <c r="B38" s="68"/>
-      <c r="C38" s="109" t="s">
+      <c r="C38" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="D38" s="110" t="s">
+      <c r="D38" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="E38" s="110" t="s">
+      <c r="E38" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="F38" s="110" t="s">
+      <c r="F38" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="G38" s="110" t="s">
+      <c r="G38" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="H38" s="111" t="s">
+      <c r="H38" s="115" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A39" s="68"/>
       <c r="B39" s="68"/>
-      <c r="C39" s="109" t="s">
+      <c r="C39" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="D39" s="110" t="s">
+      <c r="D39" s="114" t="s">
         <v>227</v>
       </c>
-      <c r="E39" s="110" t="s">
+      <c r="E39" s="114" t="s">
         <v>227</v>
       </c>
-      <c r="F39" s="110" t="s">
+      <c r="F39" s="114" t="s">
         <v>227</v>
       </c>
-      <c r="G39" s="110" t="s">
+      <c r="G39" s="114" t="s">
         <v>227</v>
       </c>
-      <c r="H39" s="111" t="s">
+      <c r="H39" s="115" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A40" s="68"/>
       <c r="B40" s="68"/>
-      <c r="C40" s="109" t="s">
+      <c r="C40" s="113" t="s">
         <v>226</v>
       </c>
-      <c r="D40" s="110" t="s">
+      <c r="D40" s="114" t="s">
         <v>226</v>
       </c>
-      <c r="E40" s="110" t="s">
+      <c r="E40" s="114" t="s">
         <v>226</v>
       </c>
-      <c r="F40" s="110" t="s">
+      <c r="F40" s="114" t="s">
         <v>226</v>
       </c>
-      <c r="G40" s="110" t="s">
+      <c r="G40" s="114" t="s">
         <v>226</v>
       </c>
-      <c r="H40" s="111" t="s">
+      <c r="H40" s="115" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A41" s="68"/>
       <c r="B41" s="68"/>
-      <c r="C41" s="106" t="s">
+      <c r="C41" s="116" t="s">
         <v>225</v>
       </c>
-      <c r="D41" s="107" t="s">
+      <c r="D41" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="E41" s="107" t="s">
+      <c r="E41" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="F41" s="107" t="s">
+      <c r="F41" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="G41" s="107" t="s">
+      <c r="G41" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="H41" s="108" t="s">
+      <c r="H41" s="118" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4404,120 +4476,120 @@
         <v>224</v>
       </c>
       <c r="B42" s="69"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="114"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="112"/>
     </row>
     <row r="43" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A43" s="68"/>
       <c r="B43" s="68"/>
-      <c r="C43" s="109" t="s">
+      <c r="C43" s="113" t="s">
         <v>223</v>
       </c>
-      <c r="D43" s="110" t="s">
+      <c r="D43" s="114" t="s">
         <v>223</v>
       </c>
-      <c r="E43" s="110" t="s">
+      <c r="E43" s="114" t="s">
         <v>223</v>
       </c>
-      <c r="F43" s="110" t="s">
+      <c r="F43" s="114" t="s">
         <v>223</v>
       </c>
-      <c r="G43" s="110" t="s">
+      <c r="G43" s="114" t="s">
         <v>223</v>
       </c>
-      <c r="H43" s="111" t="s">
+      <c r="H43" s="115" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A44" s="68"/>
       <c r="B44" s="68"/>
-      <c r="C44" s="109" t="s">
+      <c r="C44" s="113" t="s">
         <v>222</v>
       </c>
-      <c r="D44" s="110" t="s">
+      <c r="D44" s="114" t="s">
         <v>222</v>
       </c>
-      <c r="E44" s="110" t="s">
+      <c r="E44" s="114" t="s">
         <v>222</v>
       </c>
-      <c r="F44" s="110" t="s">
+      <c r="F44" s="114" t="s">
         <v>222</v>
       </c>
-      <c r="G44" s="110" t="s">
+      <c r="G44" s="114" t="s">
         <v>222</v>
       </c>
-      <c r="H44" s="111" t="s">
+      <c r="H44" s="115" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A45" s="68"/>
       <c r="B45" s="68"/>
-      <c r="C45" s="109" t="s">
+      <c r="C45" s="113" t="s">
         <v>221</v>
       </c>
-      <c r="D45" s="110" t="s">
+      <c r="D45" s="114" t="s">
         <v>221</v>
       </c>
-      <c r="E45" s="110" t="s">
+      <c r="E45" s="114" t="s">
         <v>221</v>
       </c>
-      <c r="F45" s="110" t="s">
+      <c r="F45" s="114" t="s">
         <v>221</v>
       </c>
-      <c r="G45" s="110" t="s">
+      <c r="G45" s="114" t="s">
         <v>221</v>
       </c>
-      <c r="H45" s="111" t="s">
+      <c r="H45" s="115" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A46" s="68"/>
       <c r="B46" s="68"/>
-      <c r="C46" s="109" t="s">
+      <c r="C46" s="113" t="s">
         <v>220</v>
       </c>
-      <c r="D46" s="110" t="s">
+      <c r="D46" s="114" t="s">
         <v>220</v>
       </c>
-      <c r="E46" s="110" t="s">
+      <c r="E46" s="114" t="s">
         <v>220</v>
       </c>
-      <c r="F46" s="110" t="s">
+      <c r="F46" s="114" t="s">
         <v>220</v>
       </c>
-      <c r="G46" s="110" t="s">
+      <c r="G46" s="114" t="s">
         <v>220</v>
       </c>
-      <c r="H46" s="111" t="s">
+      <c r="H46" s="115" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A47" s="68"/>
       <c r="B47" s="68"/>
-      <c r="C47" s="106" t="s">
+      <c r="C47" s="116" t="s">
         <v>217</v>
       </c>
-      <c r="D47" s="107" t="s">
+      <c r="D47" s="117" t="s">
         <v>217</v>
       </c>
-      <c r="E47" s="107" t="s">
+      <c r="E47" s="117" t="s">
         <v>217</v>
       </c>
-      <c r="F47" s="107" t="s">
+      <c r="F47" s="117" t="s">
         <v>217</v>
       </c>
-      <c r="G47" s="107" t="s">
+      <c r="G47" s="117" t="s">
         <v>217</v>
       </c>
-      <c r="H47" s="108" t="s">
+      <c r="H47" s="118" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4526,32 +4598,32 @@
         <v>219</v>
       </c>
       <c r="B48" s="69"/>
-      <c r="C48" s="112"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="113"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="114"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="111"/>
+      <c r="F48" s="111"/>
+      <c r="G48" s="111"/>
+      <c r="H48" s="112"/>
     </row>
     <row r="49" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1">
       <c r="A49" s="68"/>
       <c r="B49" s="68"/>
-      <c r="C49" s="106" t="s">
+      <c r="C49" s="116" t="s">
         <v>218</v>
       </c>
-      <c r="D49" s="107" t="s">
+      <c r="D49" s="117" t="s">
         <v>217</v>
       </c>
-      <c r="E49" s="107" t="s">
+      <c r="E49" s="117" t="s">
         <v>217</v>
       </c>
-      <c r="F49" s="107" t="s">
+      <c r="F49" s="117" t="s">
         <v>217</v>
       </c>
-      <c r="G49" s="107" t="s">
+      <c r="G49" s="117" t="s">
         <v>217</v>
       </c>
-      <c r="H49" s="108" t="s">
+      <c r="H49" s="118" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4560,114 +4632,114 @@
         <v>216</v>
       </c>
       <c r="B50" s="69"/>
-      <c r="C50" s="112"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="113"/>
-      <c r="F50" s="113"/>
-      <c r="G50" s="113"/>
-      <c r="H50" s="114"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="112"/>
     </row>
     <row r="51" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A51" s="68"/>
       <c r="B51" s="68"/>
-      <c r="C51" s="109" t="s">
+      <c r="C51" s="113" t="s">
         <v>215</v>
       </c>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="111"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="115"/>
     </row>
     <row r="52" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A52" s="68"/>
       <c r="B52" s="68"/>
-      <c r="C52" s="109" t="s">
+      <c r="C52" s="113" t="s">
         <v>214</v>
       </c>
-      <c r="D52" s="110"/>
-      <c r="E52" s="110"/>
-      <c r="F52" s="110"/>
-      <c r="G52" s="110"/>
-      <c r="H52" s="111"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="114"/>
+      <c r="G52" s="114"/>
+      <c r="H52" s="115"/>
     </row>
     <row r="53" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A53" s="68"/>
       <c r="B53" s="68"/>
-      <c r="C53" s="109" t="s">
+      <c r="C53" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="D53" s="110"/>
-      <c r="E53" s="110"/>
-      <c r="F53" s="110"/>
-      <c r="G53" s="110"/>
-      <c r="H53" s="111"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="114"/>
+      <c r="G53" s="114"/>
+      <c r="H53" s="115"/>
     </row>
     <row r="54" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A54" s="68"/>
       <c r="B54" s="68"/>
-      <c r="C54" s="109" t="s">
+      <c r="C54" s="113" t="s">
         <v>212</v>
       </c>
-      <c r="D54" s="110"/>
-      <c r="E54" s="110"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="110"/>
-      <c r="H54" s="111"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="114"/>
+      <c r="H54" s="115"/>
     </row>
     <row r="55" spans="1:8" s="40" customFormat="1">
       <c r="A55" s="69" t="s">
         <v>211</v>
       </c>
       <c r="B55" s="69"/>
-      <c r="C55" s="112"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="113"/>
-      <c r="F55" s="113"/>
-      <c r="G55" s="113"/>
-      <c r="H55" s="114"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="111"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="112"/>
     </row>
     <row r="56" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A56" s="68"/>
       <c r="B56" s="68"/>
-      <c r="C56" s="109" t="s">
+      <c r="C56" s="113" t="s">
         <v>210</v>
       </c>
-      <c r="D56" s="110" t="s">
+      <c r="D56" s="114" t="s">
         <v>210</v>
       </c>
-      <c r="E56" s="110" t="s">
+      <c r="E56" s="114" t="s">
         <v>210</v>
       </c>
-      <c r="F56" s="110" t="s">
+      <c r="F56" s="114" t="s">
         <v>210</v>
       </c>
-      <c r="G56" s="110" t="s">
+      <c r="G56" s="114" t="s">
         <v>210</v>
       </c>
-      <c r="H56" s="111" t="s">
+      <c r="H56" s="115" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A57" s="68"/>
       <c r="B57" s="68"/>
-      <c r="C57" s="109" t="s">
+      <c r="C57" s="113" t="s">
         <v>209</v>
       </c>
-      <c r="D57" s="110" t="s">
+      <c r="D57" s="114" t="s">
         <v>209</v>
       </c>
-      <c r="E57" s="110" t="s">
+      <c r="E57" s="114" t="s">
         <v>209</v>
       </c>
-      <c r="F57" s="110" t="s">
+      <c r="F57" s="114" t="s">
         <v>209</v>
       </c>
-      <c r="G57" s="110" t="s">
+      <c r="G57" s="114" t="s">
         <v>209</v>
       </c>
-      <c r="H57" s="111" t="s">
+      <c r="H57" s="115" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4676,142 +4748,142 @@
         <v>208</v>
       </c>
       <c r="B58" s="69"/>
-      <c r="C58" s="112"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="113"/>
-      <c r="F58" s="113"/>
-      <c r="G58" s="113"/>
-      <c r="H58" s="114"/>
+      <c r="C58" s="110"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="111"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="111"/>
+      <c r="H58" s="112"/>
     </row>
     <row r="59" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A59" s="68"/>
       <c r="B59" s="68"/>
-      <c r="C59" s="109" t="s">
+      <c r="C59" s="113" t="s">
         <v>207</v>
       </c>
-      <c r="D59" s="110" t="s">
+      <c r="D59" s="114" t="s">
         <v>207</v>
       </c>
-      <c r="E59" s="110" t="s">
+      <c r="E59" s="114" t="s">
         <v>207</v>
       </c>
-      <c r="F59" s="110" t="s">
+      <c r="F59" s="114" t="s">
         <v>207</v>
       </c>
-      <c r="G59" s="110" t="s">
+      <c r="G59" s="114" t="s">
         <v>207</v>
       </c>
-      <c r="H59" s="111" t="s">
+      <c r="H59" s="115" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A60" s="68"/>
       <c r="B60" s="68"/>
-      <c r="C60" s="109" t="s">
+      <c r="C60" s="113" t="s">
         <v>206</v>
       </c>
-      <c r="D60" s="110" t="s">
+      <c r="D60" s="114" t="s">
         <v>206</v>
       </c>
-      <c r="E60" s="110" t="s">
+      <c r="E60" s="114" t="s">
         <v>206</v>
       </c>
-      <c r="F60" s="110" t="s">
+      <c r="F60" s="114" t="s">
         <v>206</v>
       </c>
-      <c r="G60" s="110" t="s">
+      <c r="G60" s="114" t="s">
         <v>206</v>
       </c>
-      <c r="H60" s="111" t="s">
+      <c r="H60" s="115" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A61" s="68"/>
       <c r="B61" s="68"/>
-      <c r="C61" s="109" t="s">
+      <c r="C61" s="113" t="s">
         <v>205</v>
       </c>
-      <c r="D61" s="110" t="s">
+      <c r="D61" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="E61" s="110" t="s">
+      <c r="E61" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="F61" s="110" t="s">
+      <c r="F61" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="G61" s="110" t="s">
+      <c r="G61" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="H61" s="111" t="s">
+      <c r="H61" s="115" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A62" s="68"/>
       <c r="B62" s="68"/>
-      <c r="C62" s="109" t="s">
+      <c r="C62" s="113" t="s">
         <v>204</v>
       </c>
-      <c r="D62" s="110" t="s">
+      <c r="D62" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="E62" s="110" t="s">
+      <c r="E62" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="F62" s="110" t="s">
+      <c r="F62" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="G62" s="110" t="s">
+      <c r="G62" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="H62" s="111" t="s">
+      <c r="H62" s="115" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A63" s="68"/>
       <c r="B63" s="68"/>
-      <c r="C63" s="109" t="s">
+      <c r="C63" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="D63" s="110" t="s">
+      <c r="D63" s="114" t="s">
         <v>203</v>
       </c>
-      <c r="E63" s="110" t="s">
+      <c r="E63" s="114" t="s">
         <v>203</v>
       </c>
-      <c r="F63" s="110" t="s">
+      <c r="F63" s="114" t="s">
         <v>203</v>
       </c>
-      <c r="G63" s="110" t="s">
+      <c r="G63" s="114" t="s">
         <v>203</v>
       </c>
-      <c r="H63" s="111" t="s">
+      <c r="H63" s="115" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A64" s="68"/>
       <c r="B64" s="68"/>
-      <c r="C64" s="106" t="s">
+      <c r="C64" s="116" t="s">
         <v>202</v>
       </c>
-      <c r="D64" s="107" t="s">
+      <c r="D64" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="E64" s="107" t="s">
+      <c r="E64" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="F64" s="107" t="s">
+      <c r="F64" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="G64" s="107" t="s">
+      <c r="G64" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="H64" s="108" t="s">
+      <c r="H64" s="118" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4820,76 +4892,76 @@
         <v>201</v>
       </c>
       <c r="B65" s="69"/>
-      <c r="C65" s="112"/>
-      <c r="D65" s="113"/>
-      <c r="E65" s="113"/>
-      <c r="F65" s="113"/>
-      <c r="G65" s="113"/>
-      <c r="H65" s="114"/>
+      <c r="C65" s="110"/>
+      <c r="D65" s="111"/>
+      <c r="E65" s="111"/>
+      <c r="F65" s="111"/>
+      <c r="G65" s="111"/>
+      <c r="H65" s="112"/>
     </row>
     <row r="66" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A66" s="68"/>
       <c r="B66" s="68"/>
-      <c r="C66" s="109" t="s">
+      <c r="C66" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="D66" s="110" t="s">
+      <c r="D66" s="114" t="s">
         <v>200</v>
       </c>
-      <c r="E66" s="110" t="s">
+      <c r="E66" s="114" t="s">
         <v>200</v>
       </c>
-      <c r="F66" s="110" t="s">
+      <c r="F66" s="114" t="s">
         <v>200</v>
       </c>
-      <c r="G66" s="110" t="s">
+      <c r="G66" s="114" t="s">
         <v>200</v>
       </c>
-      <c r="H66" s="111" t="s">
+      <c r="H66" s="115" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A67" s="68"/>
       <c r="B67" s="68"/>
-      <c r="C67" s="109" t="s">
+      <c r="C67" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="D67" s="110" t="s">
+      <c r="D67" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="E67" s="110" t="s">
+      <c r="E67" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="F67" s="110" t="s">
+      <c r="F67" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="G67" s="110" t="s">
+      <c r="G67" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="H67" s="111" t="s">
+      <c r="H67" s="115" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A68" s="68"/>
       <c r="B68" s="68"/>
-      <c r="C68" s="106" t="s">
+      <c r="C68" s="116" t="s">
         <v>198</v>
       </c>
-      <c r="D68" s="107" t="s">
+      <c r="D68" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="E68" s="107" t="s">
+      <c r="E68" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="F68" s="107" t="s">
+      <c r="F68" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="G68" s="107" t="s">
+      <c r="G68" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="H68" s="108" t="s">
+      <c r="H68" s="118" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4898,132 +4970,132 @@
         <v>197</v>
       </c>
       <c r="B69" s="69"/>
-      <c r="C69" s="112"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
-      <c r="G69" s="113"/>
-      <c r="H69" s="114"/>
+      <c r="C69" s="110"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="111"/>
+      <c r="F69" s="111"/>
+      <c r="G69" s="111"/>
+      <c r="H69" s="112"/>
     </row>
     <row r="70" spans="1:8" s="40" customFormat="1">
       <c r="A70" s="69" t="s">
         <v>196</v>
       </c>
       <c r="B70" s="69"/>
-      <c r="C70" s="112"/>
-      <c r="D70" s="113"/>
-      <c r="E70" s="113"/>
-      <c r="F70" s="113"/>
-      <c r="G70" s="113"/>
-      <c r="H70" s="114"/>
+      <c r="C70" s="110"/>
+      <c r="D70" s="111"/>
+      <c r="E70" s="111"/>
+      <c r="F70" s="111"/>
+      <c r="G70" s="111"/>
+      <c r="H70" s="112"/>
     </row>
     <row r="71" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A71" s="68"/>
       <c r="B71" s="68"/>
-      <c r="C71" s="109" t="s">
+      <c r="C71" s="113" t="s">
         <v>195</v>
       </c>
-      <c r="D71" s="110" t="s">
+      <c r="D71" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="E71" s="110" t="s">
+      <c r="E71" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="F71" s="110" t="s">
+      <c r="F71" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="G71" s="110" t="s">
+      <c r="G71" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="H71" s="111" t="s">
+      <c r="H71" s="115" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A72" s="68"/>
       <c r="B72" s="68"/>
-      <c r="C72" s="109" t="s">
+      <c r="C72" s="113" t="s">
         <v>194</v>
       </c>
-      <c r="D72" s="110" t="s">
+      <c r="D72" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="E72" s="110" t="s">
+      <c r="E72" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="F72" s="110" t="s">
+      <c r="F72" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="G72" s="110" t="s">
+      <c r="G72" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="H72" s="111" t="s">
+      <c r="H72" s="115" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A73" s="68"/>
       <c r="B73" s="68"/>
-      <c r="C73" s="109" t="s">
+      <c r="C73" s="113" t="s">
         <v>193</v>
       </c>
-      <c r="D73" s="110" t="s">
+      <c r="D73" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="E73" s="110" t="s">
+      <c r="E73" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="F73" s="110" t="s">
+      <c r="F73" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="G73" s="110" t="s">
+      <c r="G73" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="H73" s="111" t="s">
+      <c r="H73" s="115" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A74" s="68"/>
       <c r="B74" s="68"/>
-      <c r="C74" s="109" t="s">
+      <c r="C74" s="113" t="s">
         <v>192</v>
       </c>
-      <c r="D74" s="110" t="s">
+      <c r="D74" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="E74" s="110" t="s">
+      <c r="E74" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="F74" s="110" t="s">
+      <c r="F74" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="G74" s="110" t="s">
+      <c r="G74" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="H74" s="111" t="s">
+      <c r="H74" s="115" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A75" s="68"/>
       <c r="B75" s="68"/>
-      <c r="C75" s="106" t="s">
+      <c r="C75" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="D75" s="107" t="s">
+      <c r="D75" s="117" t="s">
         <v>191</v>
       </c>
-      <c r="E75" s="107" t="s">
+      <c r="E75" s="117" t="s">
         <v>191</v>
       </c>
-      <c r="F75" s="107" t="s">
+      <c r="F75" s="117" t="s">
         <v>191</v>
       </c>
-      <c r="G75" s="107" t="s">
+      <c r="G75" s="117" t="s">
         <v>191</v>
       </c>
-      <c r="H75" s="108" t="s">
+      <c r="H75" s="118" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5032,54 +5104,54 @@
         <v>190</v>
       </c>
       <c r="B76" s="69"/>
-      <c r="C76" s="112"/>
-      <c r="D76" s="113"/>
-      <c r="E76" s="113"/>
-      <c r="F76" s="113"/>
-      <c r="G76" s="113"/>
-      <c r="H76" s="114"/>
+      <c r="C76" s="110"/>
+      <c r="D76" s="111"/>
+      <c r="E76" s="111"/>
+      <c r="F76" s="111"/>
+      <c r="G76" s="111"/>
+      <c r="H76" s="112"/>
     </row>
     <row r="77" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A77" s="68"/>
       <c r="B77" s="68"/>
-      <c r="C77" s="109" t="s">
+      <c r="C77" s="113" t="s">
         <v>189</v>
       </c>
-      <c r="D77" s="110" t="s">
+      <c r="D77" s="114" t="s">
         <v>189</v>
       </c>
-      <c r="E77" s="110" t="s">
+      <c r="E77" s="114" t="s">
         <v>189</v>
       </c>
-      <c r="F77" s="110" t="s">
+      <c r="F77" s="114" t="s">
         <v>189</v>
       </c>
-      <c r="G77" s="110" t="s">
+      <c r="G77" s="114" t="s">
         <v>189</v>
       </c>
-      <c r="H77" s="111" t="s">
+      <c r="H77" s="115" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A78" s="68"/>
       <c r="B78" s="68"/>
-      <c r="C78" s="106" t="s">
+      <c r="C78" s="116" t="s">
         <v>188</v>
       </c>
-      <c r="D78" s="107" t="s">
+      <c r="D78" s="117" t="s">
         <v>188</v>
       </c>
-      <c r="E78" s="107" t="s">
+      <c r="E78" s="117" t="s">
         <v>188</v>
       </c>
-      <c r="F78" s="107" t="s">
+      <c r="F78" s="117" t="s">
         <v>188</v>
       </c>
-      <c r="G78" s="107" t="s">
+      <c r="G78" s="117" t="s">
         <v>188</v>
       </c>
-      <c r="H78" s="108" t="s">
+      <c r="H78" s="118" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5088,120 +5160,120 @@
         <v>187</v>
       </c>
       <c r="B79" s="69"/>
-      <c r="C79" s="112"/>
-      <c r="D79" s="113"/>
-      <c r="E79" s="113"/>
-      <c r="F79" s="113"/>
-      <c r="G79" s="113"/>
-      <c r="H79" s="114"/>
+      <c r="C79" s="110"/>
+      <c r="D79" s="111"/>
+      <c r="E79" s="111"/>
+      <c r="F79" s="111"/>
+      <c r="G79" s="111"/>
+      <c r="H79" s="112"/>
     </row>
     <row r="80" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A80" s="68"/>
       <c r="B80" s="68"/>
-      <c r="C80" s="109" t="s">
+      <c r="C80" s="113" t="s">
         <v>186</v>
       </c>
-      <c r="D80" s="110" t="s">
+      <c r="D80" s="114" t="s">
         <v>186</v>
       </c>
-      <c r="E80" s="110" t="s">
+      <c r="E80" s="114" t="s">
         <v>186</v>
       </c>
-      <c r="F80" s="110" t="s">
+      <c r="F80" s="114" t="s">
         <v>186</v>
       </c>
-      <c r="G80" s="110" t="s">
+      <c r="G80" s="114" t="s">
         <v>186</v>
       </c>
-      <c r="H80" s="111" t="s">
+      <c r="H80" s="115" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A81" s="68"/>
       <c r="B81" s="68"/>
-      <c r="C81" s="109" t="s">
+      <c r="C81" s="113" t="s">
         <v>185</v>
       </c>
-      <c r="D81" s="110" t="s">
+      <c r="D81" s="114" t="s">
         <v>185</v>
       </c>
-      <c r="E81" s="110" t="s">
+      <c r="E81" s="114" t="s">
         <v>185</v>
       </c>
-      <c r="F81" s="110" t="s">
+      <c r="F81" s="114" t="s">
         <v>185</v>
       </c>
-      <c r="G81" s="110" t="s">
+      <c r="G81" s="114" t="s">
         <v>185</v>
       </c>
-      <c r="H81" s="111" t="s">
+      <c r="H81" s="115" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A82" s="68"/>
       <c r="B82" s="68"/>
-      <c r="C82" s="109" t="s">
+      <c r="C82" s="113" t="s">
         <v>184</v>
       </c>
-      <c r="D82" s="110" t="s">
+      <c r="D82" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="E82" s="110" t="s">
+      <c r="E82" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="F82" s="110" t="s">
+      <c r="F82" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="G82" s="110" t="s">
+      <c r="G82" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="H82" s="111" t="s">
+      <c r="H82" s="115" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A83" s="68"/>
       <c r="B83" s="68"/>
-      <c r="C83" s="109" t="s">
+      <c r="C83" s="113" t="s">
         <v>183</v>
       </c>
-      <c r="D83" s="110" t="s">
+      <c r="D83" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="E83" s="110" t="s">
+      <c r="E83" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="F83" s="110" t="s">
+      <c r="F83" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="G83" s="110" t="s">
+      <c r="G83" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="H83" s="111" t="s">
+      <c r="H83" s="115" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A84" s="68"/>
       <c r="B84" s="68"/>
-      <c r="C84" s="106" t="s">
+      <c r="C84" s="116" t="s">
         <v>182</v>
       </c>
-      <c r="D84" s="107" t="s">
+      <c r="D84" s="117" t="s">
         <v>182</v>
       </c>
-      <c r="E84" s="107" t="s">
+      <c r="E84" s="117" t="s">
         <v>182</v>
       </c>
-      <c r="F84" s="107" t="s">
+      <c r="F84" s="117" t="s">
         <v>182</v>
       </c>
-      <c r="G84" s="107" t="s">
+      <c r="G84" s="117" t="s">
         <v>182</v>
       </c>
-      <c r="H84" s="108" t="s">
+      <c r="H84" s="118" t="s">
         <v>182</v>
       </c>
     </row>
@@ -5210,98 +5282,98 @@
         <v>181</v>
       </c>
       <c r="B85" s="69"/>
-      <c r="C85" s="112"/>
-      <c r="D85" s="113"/>
-      <c r="E85" s="113"/>
-      <c r="F85" s="113"/>
-      <c r="G85" s="113"/>
-      <c r="H85" s="114"/>
+      <c r="C85" s="110"/>
+      <c r="D85" s="111"/>
+      <c r="E85" s="111"/>
+      <c r="F85" s="111"/>
+      <c r="G85" s="111"/>
+      <c r="H85" s="112"/>
     </row>
     <row r="86" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A86" s="68"/>
       <c r="B86" s="68"/>
-      <c r="C86" s="109" t="s">
+      <c r="C86" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="D86" s="110" t="s">
+      <c r="D86" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="E86" s="110" t="s">
+      <c r="E86" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="F86" s="110" t="s">
+      <c r="F86" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="G86" s="110" t="s">
+      <c r="G86" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="H86" s="111" t="s">
+      <c r="H86" s="115" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A87" s="68"/>
       <c r="B87" s="68"/>
-      <c r="C87" s="109" t="s">
+      <c r="C87" s="113" t="s">
         <v>179</v>
       </c>
-      <c r="D87" s="110" t="s">
+      <c r="D87" s="114" t="s">
         <v>179</v>
       </c>
-      <c r="E87" s="110" t="s">
+      <c r="E87" s="114" t="s">
         <v>179</v>
       </c>
-      <c r="F87" s="110" t="s">
+      <c r="F87" s="114" t="s">
         <v>179</v>
       </c>
-      <c r="G87" s="110" t="s">
+      <c r="G87" s="114" t="s">
         <v>179</v>
       </c>
-      <c r="H87" s="111" t="s">
+      <c r="H87" s="115" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A88" s="68"/>
       <c r="B88" s="68"/>
-      <c r="C88" s="109" t="s">
+      <c r="C88" s="113" t="s">
         <v>178</v>
       </c>
-      <c r="D88" s="110" t="s">
+      <c r="D88" s="114" t="s">
         <v>178</v>
       </c>
-      <c r="E88" s="110" t="s">
+      <c r="E88" s="114" t="s">
         <v>178</v>
       </c>
-      <c r="F88" s="110" t="s">
+      <c r="F88" s="114" t="s">
         <v>178</v>
       </c>
-      <c r="G88" s="110" t="s">
+      <c r="G88" s="114" t="s">
         <v>178</v>
       </c>
-      <c r="H88" s="111" t="s">
+      <c r="H88" s="115" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A89" s="68"/>
       <c r="B89" s="68"/>
-      <c r="C89" s="106" t="s">
+      <c r="C89" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="D89" s="107" t="s">
+      <c r="D89" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="E89" s="107" t="s">
+      <c r="E89" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="F89" s="107" t="s">
+      <c r="F89" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="G89" s="107" t="s">
+      <c r="G89" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="H89" s="108" t="s">
+      <c r="H89" s="118" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5310,110 +5382,110 @@
         <v>176</v>
       </c>
       <c r="B90" s="69"/>
-      <c r="C90" s="112"/>
-      <c r="D90" s="113"/>
-      <c r="E90" s="113"/>
-      <c r="F90" s="113"/>
-      <c r="G90" s="113"/>
-      <c r="H90" s="114"/>
+      <c r="C90" s="110"/>
+      <c r="D90" s="111"/>
+      <c r="E90" s="111"/>
+      <c r="F90" s="111"/>
+      <c r="G90" s="111"/>
+      <c r="H90" s="112"/>
     </row>
     <row r="91" spans="1:8" s="40" customFormat="1">
       <c r="A91" s="69" t="s">
         <v>175</v>
       </c>
       <c r="B91" s="69"/>
-      <c r="C91" s="112"/>
-      <c r="D91" s="113"/>
-      <c r="E91" s="113"/>
-      <c r="F91" s="113"/>
-      <c r="G91" s="113"/>
-      <c r="H91" s="114"/>
+      <c r="C91" s="110"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="111"/>
+      <c r="F91" s="111"/>
+      <c r="G91" s="111"/>
+      <c r="H91" s="112"/>
     </row>
     <row r="92" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A92" s="68"/>
       <c r="B92" s="68"/>
-      <c r="C92" s="109" t="s">
+      <c r="C92" s="113" t="s">
         <v>174</v>
       </c>
-      <c r="D92" s="110" t="s">
+      <c r="D92" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="E92" s="110" t="s">
+      <c r="E92" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="F92" s="110" t="s">
+      <c r="F92" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="G92" s="110" t="s">
+      <c r="G92" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="H92" s="111" t="s">
+      <c r="H92" s="115" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A93" s="68"/>
       <c r="B93" s="68"/>
-      <c r="C93" s="109" t="s">
+      <c r="C93" s="113" t="s">
         <v>173</v>
       </c>
-      <c r="D93" s="110" t="s">
+      <c r="D93" s="114" t="s">
         <v>173</v>
       </c>
-      <c r="E93" s="110" t="s">
+      <c r="E93" s="114" t="s">
         <v>173</v>
       </c>
-      <c r="F93" s="110" t="s">
+      <c r="F93" s="114" t="s">
         <v>173</v>
       </c>
-      <c r="G93" s="110" t="s">
+      <c r="G93" s="114" t="s">
         <v>173</v>
       </c>
-      <c r="H93" s="111" t="s">
+      <c r="H93" s="115" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A94" s="68"/>
       <c r="B94" s="68"/>
-      <c r="C94" s="109" t="s">
+      <c r="C94" s="113" t="s">
         <v>172</v>
       </c>
-      <c r="D94" s="110" t="s">
+      <c r="D94" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="E94" s="110" t="s">
+      <c r="E94" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="F94" s="110" t="s">
+      <c r="F94" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="G94" s="110" t="s">
+      <c r="G94" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="H94" s="111" t="s">
+      <c r="H94" s="115" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A95" s="68"/>
       <c r="B95" s="68"/>
-      <c r="C95" s="106" t="s">
+      <c r="C95" s="116" t="s">
         <v>171</v>
       </c>
-      <c r="D95" s="107" t="s">
+      <c r="D95" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="E95" s="107" t="s">
+      <c r="E95" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="F95" s="107" t="s">
+      <c r="F95" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="G95" s="107" t="s">
+      <c r="G95" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="H95" s="108" t="s">
+      <c r="H95" s="118" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5422,142 +5494,142 @@
         <v>170</v>
       </c>
       <c r="B96" s="69"/>
-      <c r="C96" s="112"/>
-      <c r="D96" s="113"/>
-      <c r="E96" s="113"/>
-      <c r="F96" s="113"/>
-      <c r="G96" s="113"/>
-      <c r="H96" s="114"/>
+      <c r="C96" s="110"/>
+      <c r="D96" s="111"/>
+      <c r="E96" s="111"/>
+      <c r="F96" s="111"/>
+      <c r="G96" s="111"/>
+      <c r="H96" s="112"/>
     </row>
     <row r="97" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A97" s="68"/>
       <c r="B97" s="68"/>
-      <c r="C97" s="109" t="s">
+      <c r="C97" s="113" t="s">
         <v>169</v>
       </c>
-      <c r="D97" s="110" t="s">
+      <c r="D97" s="114" t="s">
         <v>169</v>
       </c>
-      <c r="E97" s="110" t="s">
+      <c r="E97" s="114" t="s">
         <v>169</v>
       </c>
-      <c r="F97" s="110" t="s">
+      <c r="F97" s="114" t="s">
         <v>169</v>
       </c>
-      <c r="G97" s="110" t="s">
+      <c r="G97" s="114" t="s">
         <v>169</v>
       </c>
-      <c r="H97" s="111" t="s">
+      <c r="H97" s="115" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A98" s="68"/>
       <c r="B98" s="68"/>
-      <c r="C98" s="109" t="s">
+      <c r="C98" s="113" t="s">
         <v>168</v>
       </c>
-      <c r="D98" s="110" t="s">
+      <c r="D98" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="E98" s="110" t="s">
+      <c r="E98" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="F98" s="110" t="s">
+      <c r="F98" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="G98" s="110" t="s">
+      <c r="G98" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="H98" s="111" t="s">
+      <c r="H98" s="115" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A99" s="68"/>
       <c r="B99" s="68"/>
-      <c r="C99" s="109" t="s">
+      <c r="C99" s="113" t="s">
         <v>167</v>
       </c>
-      <c r="D99" s="110" t="s">
+      <c r="D99" s="114" t="s">
         <v>167</v>
       </c>
-      <c r="E99" s="110" t="s">
+      <c r="E99" s="114" t="s">
         <v>167</v>
       </c>
-      <c r="F99" s="110" t="s">
+      <c r="F99" s="114" t="s">
         <v>167</v>
       </c>
-      <c r="G99" s="110" t="s">
+      <c r="G99" s="114" t="s">
         <v>167</v>
       </c>
-      <c r="H99" s="111" t="s">
+      <c r="H99" s="115" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A100" s="68"/>
       <c r="B100" s="68"/>
-      <c r="C100" s="109" t="s">
+      <c r="C100" s="113" t="s">
         <v>166</v>
       </c>
-      <c r="D100" s="110" t="s">
+      <c r="D100" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="E100" s="110" t="s">
+      <c r="E100" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="F100" s="110" t="s">
+      <c r="F100" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="G100" s="110" t="s">
+      <c r="G100" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="H100" s="111" t="s">
+      <c r="H100" s="115" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A101" s="68"/>
       <c r="B101" s="68"/>
-      <c r="C101" s="109" t="s">
+      <c r="C101" s="113" t="s">
         <v>165</v>
       </c>
-      <c r="D101" s="110" t="s">
+      <c r="D101" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="E101" s="110" t="s">
+      <c r="E101" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="F101" s="110" t="s">
+      <c r="F101" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="G101" s="110" t="s">
+      <c r="G101" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="H101" s="111" t="s">
+      <c r="H101" s="115" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="102" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A102" s="68"/>
       <c r="B102" s="68"/>
-      <c r="C102" s="106" t="s">
+      <c r="C102" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="D102" s="107" t="s">
+      <c r="D102" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="E102" s="107" t="s">
+      <c r="E102" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="F102" s="107" t="s">
+      <c r="F102" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="G102" s="107" t="s">
+      <c r="G102" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="H102" s="108" t="s">
+      <c r="H102" s="118" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5566,76 +5638,76 @@
         <v>163</v>
       </c>
       <c r="B103" s="69"/>
-      <c r="C103" s="112"/>
-      <c r="D103" s="113"/>
-      <c r="E103" s="113"/>
-      <c r="F103" s="113"/>
-      <c r="G103" s="113"/>
-      <c r="H103" s="114"/>
+      <c r="C103" s="110"/>
+      <c r="D103" s="111"/>
+      <c r="E103" s="111"/>
+      <c r="F103" s="111"/>
+      <c r="G103" s="111"/>
+      <c r="H103" s="112"/>
     </row>
     <row r="104" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A104" s="68"/>
       <c r="B104" s="68"/>
-      <c r="C104" s="109" t="s">
+      <c r="C104" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="D104" s="110" t="s">
+      <c r="D104" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="E104" s="110" t="s">
+      <c r="E104" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="F104" s="110" t="s">
+      <c r="F104" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="G104" s="110" t="s">
+      <c r="G104" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="H104" s="111" t="s">
+      <c r="H104" s="115" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="105" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A105" s="68"/>
       <c r="B105" s="68"/>
-      <c r="C105" s="109" t="s">
+      <c r="C105" s="113" t="s">
         <v>161</v>
       </c>
-      <c r="D105" s="110" t="s">
+      <c r="D105" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="E105" s="110" t="s">
+      <c r="E105" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="F105" s="110" t="s">
+      <c r="F105" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="G105" s="110" t="s">
+      <c r="G105" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="H105" s="111" t="s">
+      <c r="H105" s="115" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A106" s="68"/>
       <c r="B106" s="68"/>
-      <c r="C106" s="106" t="s">
+      <c r="C106" s="116" t="s">
         <v>160</v>
       </c>
-      <c r="D106" s="107" t="s">
+      <c r="D106" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="E106" s="107" t="s">
+      <c r="E106" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="F106" s="107" t="s">
+      <c r="F106" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="G106" s="107" t="s">
+      <c r="G106" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="H106" s="108" t="s">
+      <c r="H106" s="118" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5644,98 +5716,98 @@
         <v>159</v>
       </c>
       <c r="B107" s="69"/>
-      <c r="C107" s="112"/>
-      <c r="D107" s="113"/>
-      <c r="E107" s="113"/>
-      <c r="F107" s="113"/>
-      <c r="G107" s="113"/>
-      <c r="H107" s="114"/>
+      <c r="C107" s="110"/>
+      <c r="D107" s="111"/>
+      <c r="E107" s="111"/>
+      <c r="F107" s="111"/>
+      <c r="G107" s="111"/>
+      <c r="H107" s="112"/>
     </row>
     <row r="108" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A108" s="68"/>
       <c r="B108" s="68"/>
-      <c r="C108" s="109" t="s">
+      <c r="C108" s="113" t="s">
         <v>158</v>
       </c>
-      <c r="D108" s="110" t="s">
+      <c r="D108" s="114" t="s">
         <v>158</v>
       </c>
-      <c r="E108" s="110" t="s">
+      <c r="E108" s="114" t="s">
         <v>158</v>
       </c>
-      <c r="F108" s="110" t="s">
+      <c r="F108" s="114" t="s">
         <v>158</v>
       </c>
-      <c r="G108" s="110" t="s">
+      <c r="G108" s="114" t="s">
         <v>158</v>
       </c>
-      <c r="H108" s="111" t="s">
+      <c r="H108" s="115" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A109" s="68"/>
       <c r="B109" s="68"/>
-      <c r="C109" s="109" t="s">
+      <c r="C109" s="113" t="s">
         <v>157</v>
       </c>
-      <c r="D109" s="110" t="s">
+      <c r="D109" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="E109" s="110" t="s">
+      <c r="E109" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="F109" s="110" t="s">
+      <c r="F109" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="G109" s="110" t="s">
+      <c r="G109" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="H109" s="111" t="s">
+      <c r="H109" s="115" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="110" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A110" s="68"/>
       <c r="B110" s="68"/>
-      <c r="C110" s="109" t="s">
+      <c r="C110" s="113" t="s">
         <v>156</v>
       </c>
-      <c r="D110" s="110" t="s">
+      <c r="D110" s="114" t="s">
         <v>156</v>
       </c>
-      <c r="E110" s="110" t="s">
+      <c r="E110" s="114" t="s">
         <v>156</v>
       </c>
-      <c r="F110" s="110" t="s">
+      <c r="F110" s="114" t="s">
         <v>156</v>
       </c>
-      <c r="G110" s="110" t="s">
+      <c r="G110" s="114" t="s">
         <v>156</v>
       </c>
-      <c r="H110" s="111" t="s">
+      <c r="H110" s="115" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A111" s="68"/>
       <c r="B111" s="68"/>
-      <c r="C111" s="106" t="s">
+      <c r="C111" s="116" t="s">
         <v>155</v>
       </c>
-      <c r="D111" s="107" t="s">
+      <c r="D111" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="E111" s="107" t="s">
+      <c r="E111" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="F111" s="107" t="s">
+      <c r="F111" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="G111" s="107" t="s">
+      <c r="G111" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="H111" s="108" t="s">
+      <c r="H111" s="118" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5744,120 +5816,120 @@
         <v>154</v>
       </c>
       <c r="B112" s="69"/>
-      <c r="C112" s="112"/>
-      <c r="D112" s="113"/>
-      <c r="E112" s="113"/>
-      <c r="F112" s="113"/>
-      <c r="G112" s="113"/>
-      <c r="H112" s="114"/>
+      <c r="C112" s="110"/>
+      <c r="D112" s="111"/>
+      <c r="E112" s="111"/>
+      <c r="F112" s="111"/>
+      <c r="G112" s="111"/>
+      <c r="H112" s="112"/>
     </row>
     <row r="113" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A113" s="68"/>
       <c r="B113" s="68"/>
-      <c r="C113" s="109" t="s">
+      <c r="C113" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="D113" s="110" t="s">
+      <c r="D113" s="114" t="s">
         <v>153</v>
       </c>
-      <c r="E113" s="110" t="s">
+      <c r="E113" s="114" t="s">
         <v>153</v>
       </c>
-      <c r="F113" s="110" t="s">
+      <c r="F113" s="114" t="s">
         <v>153</v>
       </c>
-      <c r="G113" s="110" t="s">
+      <c r="G113" s="114" t="s">
         <v>153</v>
       </c>
-      <c r="H113" s="111" t="s">
+      <c r="H113" s="115" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A114" s="68"/>
       <c r="B114" s="68"/>
-      <c r="C114" s="109" t="s">
+      <c r="C114" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="D114" s="110" t="s">
+      <c r="D114" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="E114" s="110" t="s">
+      <c r="E114" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="F114" s="110" t="s">
+      <c r="F114" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="G114" s="110" t="s">
+      <c r="G114" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="H114" s="111" t="s">
+      <c r="H114" s="115" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A115" s="68"/>
       <c r="B115" s="68"/>
-      <c r="C115" s="109" t="s">
+      <c r="C115" s="113" t="s">
         <v>151</v>
       </c>
-      <c r="D115" s="110" t="s">
+      <c r="D115" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="E115" s="110" t="s">
+      <c r="E115" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="F115" s="110" t="s">
+      <c r="F115" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="G115" s="110" t="s">
+      <c r="G115" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="H115" s="111" t="s">
+      <c r="H115" s="115" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A116" s="68"/>
       <c r="B116" s="68"/>
-      <c r="C116" s="109" t="s">
+      <c r="C116" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="D116" s="110" t="s">
+      <c r="D116" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="E116" s="110" t="s">
+      <c r="E116" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="F116" s="110" t="s">
+      <c r="F116" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="G116" s="110" t="s">
+      <c r="G116" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="H116" s="111" t="s">
+      <c r="H116" s="115" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A117" s="68"/>
       <c r="B117" s="68"/>
-      <c r="C117" s="106" t="s">
+      <c r="C117" s="116" t="s">
         <v>149</v>
       </c>
-      <c r="D117" s="107" t="s">
+      <c r="D117" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="E117" s="107" t="s">
+      <c r="E117" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="F117" s="107" t="s">
+      <c r="F117" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="G117" s="107" t="s">
+      <c r="G117" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="H117" s="108" t="s">
+      <c r="H117" s="118" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5866,54 +5938,54 @@
         <v>148</v>
       </c>
       <c r="B118" s="69"/>
-      <c r="C118" s="112"/>
-      <c r="D118" s="113"/>
-      <c r="E118" s="113"/>
-      <c r="F118" s="113"/>
-      <c r="G118" s="113"/>
-      <c r="H118" s="114"/>
+      <c r="C118" s="110"/>
+      <c r="D118" s="111"/>
+      <c r="E118" s="111"/>
+      <c r="F118" s="111"/>
+      <c r="G118" s="111"/>
+      <c r="H118" s="112"/>
     </row>
     <row r="119" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A119" s="68"/>
       <c r="B119" s="68"/>
-      <c r="C119" s="109" t="s">
+      <c r="C119" s="113" t="s">
         <v>147</v>
       </c>
-      <c r="D119" s="110" t="s">
+      <c r="D119" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="E119" s="110" t="s">
+      <c r="E119" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="F119" s="110" t="s">
+      <c r="F119" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="G119" s="110" t="s">
+      <c r="G119" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="H119" s="111" t="s">
+      <c r="H119" s="115" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="120" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A120" s="68"/>
       <c r="B120" s="68"/>
-      <c r="C120" s="106" t="s">
+      <c r="C120" s="116" t="s">
         <v>146</v>
       </c>
-      <c r="D120" s="107" t="s">
+      <c r="D120" s="117" t="s">
         <v>146</v>
       </c>
-      <c r="E120" s="107" t="s">
+      <c r="E120" s="117" t="s">
         <v>146</v>
       </c>
-      <c r="F120" s="107" t="s">
+      <c r="F120" s="117" t="s">
         <v>146</v>
       </c>
-      <c r="G120" s="107" t="s">
+      <c r="G120" s="117" t="s">
         <v>146</v>
       </c>
-      <c r="H120" s="108" t="s">
+      <c r="H120" s="118" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5922,32 +5994,32 @@
         <v>145</v>
       </c>
       <c r="B121" s="69"/>
-      <c r="C121" s="112"/>
-      <c r="D121" s="113"/>
-      <c r="E121" s="113"/>
-      <c r="F121" s="113"/>
-      <c r="G121" s="113"/>
-      <c r="H121" s="114"/>
+      <c r="C121" s="110"/>
+      <c r="D121" s="111"/>
+      <c r="E121" s="111"/>
+      <c r="F121" s="111"/>
+      <c r="G121" s="111"/>
+      <c r="H121" s="112"/>
     </row>
     <row r="122" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1">
       <c r="A122" s="68"/>
       <c r="B122" s="68"/>
-      <c r="C122" s="109" t="s">
+      <c r="C122" s="113" t="s">
         <v>142</v>
       </c>
-      <c r="D122" s="110" t="s">
+      <c r="D122" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="E122" s="110" t="s">
+      <c r="E122" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="F122" s="110" t="s">
+      <c r="F122" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="G122" s="110" t="s">
+      <c r="G122" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="H122" s="111" t="s">
+      <c r="H122" s="115" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5956,32 +6028,32 @@
         <v>144</v>
       </c>
       <c r="B123" s="69"/>
-      <c r="C123" s="112"/>
-      <c r="D123" s="113"/>
-      <c r="E123" s="113"/>
-      <c r="F123" s="113"/>
-      <c r="G123" s="113"/>
-      <c r="H123" s="114"/>
+      <c r="C123" s="110"/>
+      <c r="D123" s="111"/>
+      <c r="E123" s="111"/>
+      <c r="F123" s="111"/>
+      <c r="G123" s="111"/>
+      <c r="H123" s="112"/>
     </row>
     <row r="124" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A124" s="68"/>
       <c r="B124" s="68"/>
-      <c r="C124" s="109" t="s">
+      <c r="C124" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="D124" s="110" t="s">
+      <c r="D124" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="E124" s="110" t="s">
+      <c r="E124" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="F124" s="110" t="s">
+      <c r="F124" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="G124" s="110" t="s">
+      <c r="G124" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="H124" s="111" t="s">
+      <c r="H124" s="115" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5990,120 +6062,120 @@
         <v>141</v>
       </c>
       <c r="B125" s="69"/>
-      <c r="C125" s="112"/>
-      <c r="D125" s="113"/>
-      <c r="E125" s="113"/>
-      <c r="F125" s="113"/>
-      <c r="G125" s="113"/>
-      <c r="H125" s="114"/>
+      <c r="C125" s="110"/>
+      <c r="D125" s="111"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="111"/>
+      <c r="G125" s="111"/>
+      <c r="H125" s="112"/>
     </row>
     <row r="126" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A126" s="68"/>
       <c r="B126" s="68"/>
-      <c r="C126" s="109" t="s">
+      <c r="C126" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="D126" s="110" t="s">
+      <c r="D126" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="E126" s="110" t="s">
+      <c r="E126" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="F126" s="110" t="s">
+      <c r="F126" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="G126" s="110" t="s">
+      <c r="G126" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="H126" s="111" t="s">
+      <c r="H126" s="115" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A127" s="68"/>
       <c r="B127" s="68"/>
-      <c r="C127" s="109" t="s">
+      <c r="C127" s="113" t="s">
         <v>139</v>
       </c>
-      <c r="D127" s="110" t="s">
+      <c r="D127" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="E127" s="110" t="s">
+      <c r="E127" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="F127" s="110" t="s">
+      <c r="F127" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="G127" s="110" t="s">
+      <c r="G127" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="H127" s="111" t="s">
+      <c r="H127" s="115" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A128" s="68"/>
       <c r="B128" s="68"/>
-      <c r="C128" s="109" t="s">
+      <c r="C128" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="D128" s="110" t="s">
+      <c r="D128" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="E128" s="110" t="s">
+      <c r="E128" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="F128" s="110" t="s">
+      <c r="F128" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="G128" s="110" t="s">
+      <c r="G128" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="H128" s="111" t="s">
+      <c r="H128" s="115" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A129" s="68"/>
       <c r="B129" s="68"/>
-      <c r="C129" s="109" t="s">
+      <c r="C129" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="D129" s="110" t="s">
+      <c r="D129" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="E129" s="110" t="s">
+      <c r="E129" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="F129" s="110" t="s">
+      <c r="F129" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="G129" s="110" t="s">
+      <c r="G129" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="H129" s="111" t="s">
+      <c r="H129" s="115" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="130" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A130" s="68"/>
       <c r="B130" s="68"/>
-      <c r="C130" s="106" t="s">
+      <c r="C130" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="D130" s="107" t="s">
+      <c r="D130" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="E130" s="107" t="s">
+      <c r="E130" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="F130" s="107" t="s">
+      <c r="F130" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="G130" s="107" t="s">
+      <c r="G130" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="H130" s="108" t="s">
+      <c r="H130" s="118" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6112,98 +6184,98 @@
         <v>135</v>
       </c>
       <c r="B131" s="69"/>
-      <c r="C131" s="112"/>
-      <c r="D131" s="113"/>
-      <c r="E131" s="113"/>
-      <c r="F131" s="113"/>
-      <c r="G131" s="113"/>
-      <c r="H131" s="114"/>
+      <c r="C131" s="110"/>
+      <c r="D131" s="111"/>
+      <c r="E131" s="111"/>
+      <c r="F131" s="111"/>
+      <c r="G131" s="111"/>
+      <c r="H131" s="112"/>
     </row>
     <row r="132" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A132" s="68"/>
       <c r="B132" s="68"/>
-      <c r="C132" s="109" t="s">
+      <c r="C132" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="D132" s="110" t="s">
+      <c r="D132" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="E132" s="110" t="s">
+      <c r="E132" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="F132" s="110" t="s">
+      <c r="F132" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="G132" s="110" t="s">
+      <c r="G132" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="H132" s="111" t="s">
+      <c r="H132" s="115" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A133" s="68"/>
       <c r="B133" s="68"/>
-      <c r="C133" s="109" t="s">
+      <c r="C133" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="D133" s="110" t="s">
+      <c r="D133" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="E133" s="110" t="s">
+      <c r="E133" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="F133" s="110" t="s">
+      <c r="F133" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="G133" s="110" t="s">
+      <c r="G133" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="H133" s="111" t="s">
+      <c r="H133" s="115" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A134" s="68"/>
       <c r="B134" s="68"/>
-      <c r="C134" s="109" t="s">
+      <c r="C134" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="D134" s="110" t="s">
+      <c r="D134" s="114" t="s">
         <v>132</v>
       </c>
-      <c r="E134" s="110" t="s">
+      <c r="E134" s="114" t="s">
         <v>132</v>
       </c>
-      <c r="F134" s="110" t="s">
+      <c r="F134" s="114" t="s">
         <v>132</v>
       </c>
-      <c r="G134" s="110" t="s">
+      <c r="G134" s="114" t="s">
         <v>132</v>
       </c>
-      <c r="H134" s="111" t="s">
+      <c r="H134" s="115" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A135" s="68"/>
       <c r="B135" s="68"/>
-      <c r="C135" s="106" t="s">
+      <c r="C135" s="116" t="s">
         <v>131</v>
       </c>
-      <c r="D135" s="107" t="s">
+      <c r="D135" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="E135" s="107" t="s">
+      <c r="E135" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="F135" s="107" t="s">
+      <c r="F135" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="G135" s="107" t="s">
+      <c r="G135" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="H135" s="108" t="s">
+      <c r="H135" s="118" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6212,121 +6284,169 @@
         <v>130</v>
       </c>
       <c r="B136" s="69"/>
-      <c r="C136" s="112"/>
-      <c r="D136" s="113"/>
-      <c r="E136" s="113"/>
-      <c r="F136" s="113"/>
-      <c r="G136" s="113"/>
-      <c r="H136" s="114"/>
+      <c r="C136" s="110"/>
+      <c r="D136" s="111"/>
+      <c r="E136" s="111"/>
+      <c r="F136" s="111"/>
+      <c r="G136" s="111"/>
+      <c r="H136" s="112"/>
     </row>
     <row r="137" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A137" s="68"/>
       <c r="B137" s="68"/>
-      <c r="C137" s="109" t="s">
+      <c r="C137" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="D137" s="110" t="s">
+      <c r="D137" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="E137" s="110" t="s">
+      <c r="E137" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="F137" s="110" t="s">
+      <c r="F137" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="G137" s="110" t="s">
+      <c r="G137" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="H137" s="111" t="s">
+      <c r="H137" s="115" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="138" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A138" s="68"/>
       <c r="B138" s="68"/>
-      <c r="C138" s="109" t="s">
+      <c r="C138" s="113" t="s">
         <v>128</v>
       </c>
-      <c r="D138" s="110" t="s">
+      <c r="D138" s="114" t="s">
         <v>128</v>
       </c>
-      <c r="E138" s="110" t="s">
+      <c r="E138" s="114" t="s">
         <v>128</v>
       </c>
-      <c r="F138" s="110" t="s">
+      <c r="F138" s="114" t="s">
         <v>128</v>
       </c>
-      <c r="G138" s="110" t="s">
+      <c r="G138" s="114" t="s">
         <v>128</v>
       </c>
-      <c r="H138" s="111" t="s">
+      <c r="H138" s="115" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="139" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A139" s="68"/>
       <c r="B139" s="68"/>
-      <c r="C139" s="109" t="s">
+      <c r="C139" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="D139" s="110" t="s">
+      <c r="D139" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="E139" s="110" t="s">
+      <c r="E139" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="F139" s="110" t="s">
+      <c r="F139" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="G139" s="110" t="s">
+      <c r="G139" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="H139" s="111" t="s">
+      <c r="H139" s="115" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="140" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A140" s="67"/>
       <c r="B140" s="67"/>
-      <c r="C140" s="106" t="s">
+      <c r="C140" s="116" t="s">
         <v>126</v>
       </c>
-      <c r="D140" s="107" t="s">
+      <c r="D140" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="E140" s="107" t="s">
+      <c r="E140" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="F140" s="107" t="s">
+      <c r="F140" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="G140" s="107" t="s">
+      <c r="G140" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="H140" s="108" t="s">
+      <c r="H140" s="118" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="C125:H125"/>
-    <mergeCell ref="C131:H131"/>
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="C112:H112"/>
-    <mergeCell ref="C118:H118"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C123:H123"/>
-    <mergeCell ref="C119:H119"/>
-    <mergeCell ref="C128:H128"/>
-    <mergeCell ref="C129:H129"/>
-    <mergeCell ref="C130:H130"/>
-    <mergeCell ref="C132:H132"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C122:H122"/>
-    <mergeCell ref="C124:H124"/>
-    <mergeCell ref="C126:H126"/>
-    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C140:H140"/>
+    <mergeCell ref="C134:H134"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="C137:H137"/>
+    <mergeCell ref="C138:H138"/>
+    <mergeCell ref="C139:H139"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="C115:H115"/>
+    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="C117:H117"/>
+    <mergeCell ref="C108:H108"/>
+    <mergeCell ref="C109:H109"/>
+    <mergeCell ref="C110:H110"/>
+    <mergeCell ref="C111:H111"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C85:H85"/>
     <mergeCell ref="C107:H107"/>
     <mergeCell ref="C90:H90"/>
     <mergeCell ref="C91:H91"/>
@@ -6351,72 +6471,24 @@
     <mergeCell ref="C89:H89"/>
     <mergeCell ref="C75:H75"/>
     <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C103:H103"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C140:H140"/>
-    <mergeCell ref="C134:H134"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="C137:H137"/>
-    <mergeCell ref="C138:H138"/>
-    <mergeCell ref="C139:H139"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C114:H114"/>
-    <mergeCell ref="C115:H115"/>
-    <mergeCell ref="C116:H116"/>
-    <mergeCell ref="C117:H117"/>
-    <mergeCell ref="C108:H108"/>
-    <mergeCell ref="C109:H109"/>
-    <mergeCell ref="C110:H110"/>
-    <mergeCell ref="C111:H111"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C125:H125"/>
+    <mergeCell ref="C131:H131"/>
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="C112:H112"/>
+    <mergeCell ref="C118:H118"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C123:H123"/>
+    <mergeCell ref="C119:H119"/>
+    <mergeCell ref="C128:H128"/>
+    <mergeCell ref="C129:H129"/>
+    <mergeCell ref="C130:H130"/>
+    <mergeCell ref="C132:H132"/>
+    <mergeCell ref="C133:H133"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C122:H122"/>
+    <mergeCell ref="C124:H124"/>
+    <mergeCell ref="C126:H126"/>
+    <mergeCell ref="C127:H127"/>
   </mergeCells>
   <conditionalFormatting sqref="A34">
     <cfRule type="dataBar" priority="4">
@@ -6427,7 +6499,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42 A37 A48 A50 A55 A58 A65 A69:A70 A76 A79 A85 A90:A91 A96 A103 A107 A112 A118 A121 A123 A125 A131 A136">
+  <conditionalFormatting sqref="A37 A42 A48 A50 A55 A58 A65 A69:A70 A76 A79 A85 A90:A91 A96 A103 A107 A112 A118 A121 A123 A125 A131 A136">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min" val="0"/>
@@ -6436,7 +6508,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42 B37 B48 B50 B55 B58 B65 B69:B70 B76 B79 B85 B90:B91 B96 B103 B107 B112 B118 B121 B123 B125 B131 B136">
+  <conditionalFormatting sqref="B37 B42 B48 B50 B55 B58 B65 B69:B70 B76 B79 B85 B90:B91 B96 B103 B107 B112 B118 B121 B123 B125 B131 B136">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min" val="0"/>
@@ -6473,10 +6545,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6505,7 +6577,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="94" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8"/>
@@ -6543,9 +6615,9 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="118"/>
+        <v>234</v>
+      </c>
+      <c r="B3" s="93"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -6558,9 +6630,9 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="118"/>
+        <v>235</v>
+      </c>
+      <c r="B4" s="93"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -6573,9 +6645,9 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="118"/>
+        <v>236</v>
+      </c>
+      <c r="B5" s="93"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -6588,36 +6660,24 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5">
-        <v>2</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="B6" s="93"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="18"/>
-      <c r="J6" s="5">
-        <v>2</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>117</v>
-      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="118"/>
+        <v>238</v>
+      </c>
+      <c r="B7" s="93"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -6630,1175 +6690,1360 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="63" t="s">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2</v>
-      </c>
-      <c r="F8" s="5">
-        <v>2</v>
-      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="5">
-        <v>2</v>
-      </c>
-      <c r="K8" s="61" t="s">
-        <v>114</v>
-      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="61"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="6" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="5">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5">
-        <v>4</v>
-      </c>
-      <c r="E9" s="5">
-        <v>4</v>
-      </c>
-      <c r="F9" s="5">
-        <v>4</v>
-      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="5">
-        <v>4</v>
-      </c>
-      <c r="K9" s="61" t="s">
-        <v>116</v>
-      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="61"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="6" t="s">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="5">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2</v>
-      </c>
-      <c r="F10" s="5">
-        <v>2</v>
-      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="5">
-        <v>2</v>
-      </c>
-      <c r="K10" s="61" t="s">
-        <v>117</v>
-      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="61"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="6" t="s">
-        <v>11</v>
+        <v>242</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="5">
-        <v>4</v>
-      </c>
-      <c r="D11" s="5">
-        <v>4</v>
-      </c>
-      <c r="E11" s="5">
-        <v>4</v>
-      </c>
-      <c r="F11" s="5">
-        <v>4</v>
-      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="5">
-        <v>4</v>
-      </c>
-      <c r="K11" s="28" t="s">
-        <v>115</v>
-      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="6" t="s">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="5">
-        <v>2</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2</v>
-      </c>
-      <c r="E12" s="5">
-        <v>2</v>
-      </c>
-      <c r="F12" s="5">
-        <v>2</v>
-      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="5">
-        <v>2</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>117</v>
-      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="28"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
-        <v>6</v>
+        <v>244</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="5">
-        <v>4</v>
-      </c>
-      <c r="D13" s="5">
-        <v>4</v>
-      </c>
-      <c r="E13" s="5">
-        <v>4</v>
-      </c>
-      <c r="F13" s="5">
-        <v>4</v>
-      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="18"/>
-      <c r="J13" s="5">
-        <v>4</v>
-      </c>
-      <c r="K13" s="61" t="s">
-        <v>115</v>
-      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="61"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
-        <v>7</v>
+        <v>245</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="5">
-        <v>4</v>
-      </c>
-      <c r="D14" s="5">
-        <v>4</v>
-      </c>
-      <c r="E14" s="5">
-        <v>4</v>
-      </c>
-      <c r="F14" s="5">
-        <v>4</v>
-      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="18"/>
-      <c r="J14" s="5">
-        <v>4</v>
-      </c>
-      <c r="K14" s="61" t="s">
-        <v>117</v>
-      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="61"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
-        <v>8</v>
+        <v>246</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="5">
-        <v>4</v>
-      </c>
-      <c r="D15" s="5">
-        <v>4</v>
-      </c>
-      <c r="E15" s="5">
-        <v>4</v>
-      </c>
-      <c r="F15" s="5">
-        <v>4</v>
-      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="5">
-        <v>4</v>
-      </c>
-      <c r="K15" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="25.5">
+      <c r="J15" s="5"/>
+      <c r="K15" s="28"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="6" t="s">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="5">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5">
-        <v>2</v>
-      </c>
-      <c r="E16" s="5">
-        <v>2</v>
-      </c>
-      <c r="F16" s="5">
-        <v>2</v>
-      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="18"/>
-      <c r="J16" s="5">
-        <v>2</v>
-      </c>
-      <c r="K16" s="61" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A17" s="7" t="s">
-        <v>21</v>
+      <c r="J16" s="5"/>
+      <c r="K16" s="61"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="2">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2">
-        <v>4</v>
-      </c>
-      <c r="E17" s="2">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2">
-        <v>4</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="18"/>
-      <c r="J17" s="2">
-        <v>4</v>
-      </c>
-      <c r="K17" s="62" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A18" s="55" t="s">
+      <c r="J17" s="5"/>
+      <c r="K17" s="61"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="61"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="61"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="61"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="61"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="61"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="61"/>
+    </row>
+    <row r="24" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A24" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="62"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A25" s="55" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75" thickBot="1">
-      <c r="C19" s="54" t="s">
+    <row r="26" spans="1:11" ht="18.75" thickBot="1">
+      <c r="C26" s="54" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="18.75" thickBot="1">
-      <c r="C20" s="15" t="str">
-        <f t="shared" ref="C20:H20" si="0">C2</f>
+    <row r="27" spans="1:11" ht="18.75" thickBot="1">
+      <c r="C27" s="15" t="str">
+        <f t="shared" ref="C27:H27" si="0">C2</f>
         <v>Charles Stoll</v>
       </c>
-      <c r="D20" s="15" t="str">
+      <c r="D27" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Daniel Makin</v>
       </c>
-      <c r="E20" s="15" t="str">
+      <c r="E27" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Manuel Diaz</v>
       </c>
-      <c r="F20" s="15" t="str">
+      <c r="F27" s="15" t="str">
         <f t="shared" si="0"/>
         <v>Nick Kemner</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="54" t="s">
+      <c r="J27" s="54" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="13.5" thickBot="1">
-      <c r="C21" s="9">
-        <f>SUMIF(K3:K17,C20,J3:J17)</f>
-        <v>10</v>
-      </c>
-      <c r="D21" s="9">
-        <f>SUMIF(K3:K17,D20,J3:J17)</f>
-        <v>8</v>
-      </c>
-      <c r="E21" s="9">
-        <f>SUMIF(K3:K17,E20,J3:J17)</f>
-        <v>8</v>
-      </c>
-      <c r="F21" s="9">
-        <f>SUMIF(K3:K17,F20,J3:J17)</f>
-        <v>8</v>
-      </c>
-      <c r="G21" s="9">
-        <f>SUMIF(K3:K17,G20,J3:J17)</f>
+    <row r="28" spans="1:11" ht="13.5" thickBot="1">
+      <c r="C28" s="9">
+        <f>SUMIF(K3:K24,C27,J3:J24)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="1">
-        <f>SUMIF(K3:K17,H20,J3:J17)</f>
+      <c r="D28" s="9">
+        <f>SUMIF(K3:K24,D27,J3:J24)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="1">
-        <f>SUM(J3:J17)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="13.5" thickBot="1"/>
-    <row r="23" spans="1:11" ht="36.75" thickBot="1">
-      <c r="A23" s="38" t="s">
+      <c r="E28" s="9">
+        <f>SUMIF(K3:K24,E27,J3:J24)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
+        <f>SUMIF(K3:K24,F27,J3:J24)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <f>SUMIF(K3:K24,G27,J3:J24)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <f>SUMIF(K3:K24,H27,J3:J24)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <f>SUM(J3:J24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="13.5" thickBot="1"/>
+    <row r="30" spans="1:11" ht="36.75" thickBot="1">
+      <c r="A30" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B30" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="103" t="s">
+      <c r="C30" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="105"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="100"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="102"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="97" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="99"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="99"/>
-    </row>
-    <row r="27" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="99"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="100"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="102"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="97" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="99"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="99"/>
-    </row>
-    <row r="31" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="97" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="99"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="97"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="21" t="str">
+        <f>A3</f>
+        <v>As a player, I want to have an easy to navigate menu system with all options available</v>
+      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="100"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="100"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="102"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="103"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="99"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="103"/>
     </row>
     <row r="34" spans="1:8" ht="13.5" thickBot="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="97" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="99"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="103"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="100"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="102"/>
-    </row>
-    <row r="36" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A35" s="21" t="str">
+        <f>A4</f>
+        <v>As a player, I want a screen that I have to press start to continue</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="100"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="99"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="103"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="100"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="102"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="103"/>
+    </row>
+    <row r="38" spans="1:8" ht="13.5" thickBot="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="98"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="98"/>
-      <c r="H38" s="99"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="103"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="98"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="99"/>
-    </row>
-    <row r="40" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A39" s="25" t="str">
+        <f>A5</f>
+        <v>As a player, I want a summary of my accomplishments of the level</v>
+      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="100"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="98"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="99"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="100"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="102"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="103"/>
+    </row>
+    <row r="41" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="103"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="98"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="98"/>
-      <c r="H42" s="99"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="98"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="98"/>
-      <c r="H43" s="99"/>
+      <c r="A42" s="25" t="str">
+        <f>A6</f>
+        <v>As a player, I want to be able to save my progress in separate profiles so I may load them up later</v>
+      </c>
+      <c r="B42" s="25"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="100"/>
+    </row>
+    <row r="43" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="103"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="97" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="99"/>
+      <c r="A44" s="25" t="str">
+        <f>A7</f>
+        <v xml:space="preserve">As a player, I want to be able to use the in game interface effectively </v>
+      </c>
+      <c r="B44" s="25"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="100"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="98"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="98"/>
-      <c r="G45" s="98"/>
-      <c r="H45" s="99"/>
-    </row>
-    <row r="46" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="97" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="98"/>
-      <c r="E46" s="98"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="98"/>
-      <c r="H46" s="99"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="100"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="102"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="103"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="102"/>
+      <c r="H46" s="103"/>
+    </row>
+    <row r="47" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="102"/>
+      <c r="H47" s="103"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="98"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="99"/>
+      <c r="A48" s="21" t="str">
+        <f>A8</f>
+        <v>As a player, I want to be able to use the full range of attacks available to me</v>
+      </c>
+      <c r="B48" s="21"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="100"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" s="98"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="98"/>
-      <c r="G49" s="98"/>
-      <c r="H49" s="99"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="103"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" s="98"/>
-      <c r="E50" s="98"/>
-      <c r="F50" s="98"/>
-      <c r="G50" s="98"/>
-      <c r="H50" s="99"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="103"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="98"/>
-      <c r="E51" s="98"/>
-      <c r="F51" s="98"/>
-      <c r="G51" s="98"/>
-      <c r="H51" s="99"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="103"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="99"/>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="C52" s="101"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="103"/>
+    </row>
+    <row r="53" spans="1:8" ht="13.5" thickBot="1">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="98"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="98"/>
-      <c r="H53" s="99"/>
-    </row>
-    <row r="54" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="98"/>
-      <c r="E54" s="98"/>
-      <c r="F54" s="98"/>
-      <c r="G54" s="98"/>
-      <c r="H54" s="99"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="103"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="21" t="str">
+        <f>A9</f>
+        <v>As a player, I want to be able to control all of the types of units available to me</v>
+      </c>
+      <c r="B54" s="21"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="100"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="100"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="101"/>
-      <c r="H55" s="102"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="102"/>
+      <c r="F55" s="102"/>
+      <c r="G55" s="102"/>
+      <c r="H55" s="103"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="97" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" s="98"/>
-      <c r="E56" s="98"/>
-      <c r="F56" s="98"/>
-      <c r="G56" s="98"/>
-      <c r="H56" s="99"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="102"/>
+      <c r="F56" s="102"/>
+      <c r="G56" s="102"/>
+      <c r="H56" s="103"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57" s="98"/>
-      <c r="E57" s="98"/>
-      <c r="F57" s="98"/>
-      <c r="G57" s="98"/>
-      <c r="H57" s="99"/>
-    </row>
-    <row r="58" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58" s="98"/>
-      <c r="E58" s="98"/>
-      <c r="F58" s="98"/>
-      <c r="G58" s="98"/>
-      <c r="H58" s="99"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="102"/>
+      <c r="F57" s="102"/>
+      <c r="G57" s="102"/>
+      <c r="H57" s="103"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="102"/>
+      <c r="H58" s="103"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" s="100"/>
-      <c r="D59" s="101"/>
-      <c r="E59" s="101"/>
-      <c r="F59" s="101"/>
-      <c r="G59" s="101"/>
-      <c r="H59" s="102"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="102"/>
+      <c r="E59" s="102"/>
+      <c r="F59" s="102"/>
+      <c r="G59" s="102"/>
+      <c r="H59" s="103"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" s="98"/>
-      <c r="E60" s="98"/>
-      <c r="F60" s="98"/>
-      <c r="G60" s="98"/>
-      <c r="H60" s="99"/>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="C60" s="101"/>
+      <c r="D60" s="102"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="102"/>
+      <c r="G60" s="102"/>
+      <c r="H60" s="103"/>
+    </row>
+    <row r="61" spans="1:8" ht="13.5" thickBot="1">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
-      <c r="C61" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="D61" s="98"/>
-      <c r="E61" s="98"/>
-      <c r="F61" s="98"/>
-      <c r="G61" s="98"/>
-      <c r="H61" s="99"/>
-    </row>
-    <row r="62" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" s="98"/>
-      <c r="E62" s="98"/>
-      <c r="F62" s="98"/>
-      <c r="G62" s="98"/>
-      <c r="H62" s="99"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="102"/>
+      <c r="H61" s="103"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="25" t="str">
+        <f>A10</f>
+        <v>As a player, I want to be able to collect and use all of the powerups available to me</v>
+      </c>
+      <c r="B62" s="25"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="100"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63" s="100"/>
-      <c r="D63" s="101"/>
-      <c r="E63" s="101"/>
-      <c r="F63" s="101"/>
-      <c r="G63" s="101"/>
-      <c r="H63" s="102"/>
-    </row>
-    <row r="64" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="D64" s="98"/>
-      <c r="E64" s="98"/>
-      <c r="F64" s="98"/>
-      <c r="G64" s="98"/>
-      <c r="H64" s="99"/>
-    </row>
-    <row r="65" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A65" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C65" s="100"/>
-      <c r="D65" s="101"/>
-      <c r="E65" s="101"/>
-      <c r="F65" s="101"/>
-      <c r="G65" s="101"/>
-      <c r="H65" s="102"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="102"/>
+      <c r="E63" s="102"/>
+      <c r="F63" s="102"/>
+      <c r="G63" s="102"/>
+      <c r="H63" s="103"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="102"/>
+      <c r="E64" s="102"/>
+      <c r="F64" s="102"/>
+      <c r="G64" s="102"/>
+      <c r="H64" s="103"/>
+    </row>
+    <row r="65" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="102"/>
+      <c r="E65" s="102"/>
+      <c r="F65" s="102"/>
+      <c r="G65" s="102"/>
+      <c r="H65" s="103"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" s="98"/>
-      <c r="E66" s="98"/>
-      <c r="F66" s="98"/>
-      <c r="G66" s="98"/>
-      <c r="H66" s="99"/>
+      <c r="A66" s="21" t="str">
+        <f>A11</f>
+        <v xml:space="preserve">As a player, I want to be able to change the full range of hotkeys </v>
+      </c>
+      <c r="B66" s="21"/>
+      <c r="C66" s="98"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="99"/>
+      <c r="H66" s="100"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67" s="98"/>
-      <c r="E67" s="98"/>
-      <c r="F67" s="98"/>
-      <c r="G67" s="98"/>
-      <c r="H67" s="99"/>
-    </row>
-    <row r="68" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="97" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" s="98"/>
-      <c r="E68" s="98"/>
-      <c r="F68" s="98"/>
-      <c r="G68" s="98"/>
-      <c r="H68" s="99"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C69" s="100"/>
-      <c r="D69" s="101"/>
-      <c r="E69" s="101"/>
-      <c r="F69" s="101"/>
-      <c r="G69" s="101"/>
-      <c r="H69" s="102"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="101"/>
+      <c r="D67" s="102"/>
+      <c r="E67" s="102"/>
+      <c r="F67" s="102"/>
+      <c r="G67" s="102"/>
+      <c r="H67" s="103"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="101"/>
+      <c r="D68" s="102"/>
+      <c r="E68" s="102"/>
+      <c r="F68" s="102"/>
+      <c r="G68" s="102"/>
+      <c r="H68" s="103"/>
+    </row>
+    <row r="69" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="102"/>
+      <c r="E69" s="102"/>
+      <c r="F69" s="102"/>
+      <c r="G69" s="102"/>
+      <c r="H69" s="103"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="D70" s="98"/>
-      <c r="E70" s="98"/>
-      <c r="F70" s="98"/>
-      <c r="G70" s="98"/>
-      <c r="H70" s="99"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="D71" s="98"/>
-      <c r="E71" s="98"/>
-      <c r="F71" s="98"/>
-      <c r="G71" s="98"/>
-      <c r="H71" s="99"/>
-    </row>
-    <row r="72" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="97" t="s">
-        <v>46</v>
-      </c>
-      <c r="D72" s="98"/>
-      <c r="E72" s="98"/>
-      <c r="F72" s="98"/>
-      <c r="G72" s="98"/>
-      <c r="H72" s="99"/>
+      <c r="A70" s="21" t="str">
+        <f>A12</f>
+        <v>As a player, I want to be able to use the mouse to select and control the units, pick up items and control the camera</v>
+      </c>
+      <c r="B70" s="21"/>
+      <c r="C70" s="98"/>
+      <c r="D70" s="99"/>
+      <c r="E70" s="99"/>
+      <c r="F70" s="99"/>
+      <c r="G70" s="99"/>
+      <c r="H70" s="100"/>
+    </row>
+    <row r="71" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="102"/>
+      <c r="E71" s="102"/>
+      <c r="F71" s="102"/>
+      <c r="G71" s="102"/>
+      <c r="H71" s="103"/>
+    </row>
+    <row r="72" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A72" s="21" t="str">
+        <f>A13</f>
+        <v>As a player, I want to be able play all of the levels</v>
+      </c>
+      <c r="B72" s="21"/>
+      <c r="C72" s="98"/>
+      <c r="D72" s="99"/>
+      <c r="E72" s="99"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="99"/>
+      <c r="H72" s="100"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73" s="100"/>
-      <c r="D73" s="101"/>
-      <c r="E73" s="101"/>
-      <c r="F73" s="101"/>
-      <c r="G73" s="101"/>
-      <c r="H73" s="102"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="101"/>
+      <c r="D73" s="102"/>
+      <c r="E73" s="102"/>
+      <c r="F73" s="102"/>
+      <c r="G73" s="102"/>
+      <c r="H73" s="103"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="D74" s="98"/>
-      <c r="E74" s="98"/>
-      <c r="F74" s="98"/>
-      <c r="G74" s="98"/>
-      <c r="H74" s="99"/>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="C74" s="101"/>
+      <c r="D74" s="102"/>
+      <c r="E74" s="102"/>
+      <c r="F74" s="102"/>
+      <c r="G74" s="102"/>
+      <c r="H74" s="103"/>
+    </row>
+    <row r="75" spans="1:8" ht="13.5" thickBot="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="D75" s="98"/>
-      <c r="E75" s="98"/>
-      <c r="F75" s="98"/>
-      <c r="G75" s="98"/>
-      <c r="H75" s="99"/>
-    </row>
-    <row r="76" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="97" t="s">
-        <v>46</v>
-      </c>
-      <c r="D76" s="98"/>
-      <c r="E76" s="98"/>
-      <c r="F76" s="98"/>
-      <c r="G76" s="98"/>
-      <c r="H76" s="99"/>
-    </row>
-    <row r="77" spans="1:8" ht="25.5">
-      <c r="A77" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" s="100"/>
-      <c r="D77" s="101"/>
-      <c r="E77" s="101"/>
-      <c r="F77" s="101"/>
-      <c r="G77" s="101"/>
-      <c r="H77" s="102"/>
+      <c r="C75" s="101"/>
+      <c r="D75" s="102"/>
+      <c r="E75" s="102"/>
+      <c r="F75" s="102"/>
+      <c r="G75" s="102"/>
+      <c r="H75" s="103"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="21" t="str">
+        <f>A14</f>
+        <v>As a programmer, I want to have a system to play dialogue at the right time</v>
+      </c>
+      <c r="B76" s="21"/>
+      <c r="C76" s="98"/>
+      <c r="D76" s="99"/>
+      <c r="E76" s="99"/>
+      <c r="F76" s="99"/>
+      <c r="G76" s="99"/>
+      <c r="H76" s="100"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="101"/>
+      <c r="D77" s="102"/>
+      <c r="E77" s="102"/>
+      <c r="F77" s="102"/>
+      <c r="G77" s="102"/>
+      <c r="H77" s="103"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="97" t="s">
-        <v>73</v>
-      </c>
-      <c r="D78" s="98"/>
-      <c r="E78" s="98"/>
-      <c r="F78" s="98"/>
-      <c r="G78" s="98"/>
-      <c r="H78" s="99"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="101"/>
+      <c r="D78" s="102"/>
+      <c r="E78" s="102"/>
+      <c r="F78" s="102"/>
+      <c r="G78" s="102"/>
+      <c r="H78" s="103"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="97" t="s">
-        <v>74</v>
-      </c>
-      <c r="D79" s="98"/>
-      <c r="E79" s="98"/>
-      <c r="F79" s="98"/>
-      <c r="G79" s="98"/>
-      <c r="H79" s="99"/>
-    </row>
-    <row r="80" spans="1:8" ht="25.5">
-      <c r="A80" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80" s="100"/>
-      <c r="D80" s="101"/>
-      <c r="E80" s="101"/>
-      <c r="F80" s="101"/>
-      <c r="G80" s="101"/>
-      <c r="H80" s="102"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="101"/>
+      <c r="D79" s="102"/>
+      <c r="E79" s="102"/>
+      <c r="F79" s="102"/>
+      <c r="G79" s="102"/>
+      <c r="H79" s="103"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="21" t="str">
+        <f>A15</f>
+        <v>As a tester, I want to be able to enter a cheat code to further me in the game</v>
+      </c>
+      <c r="B80" s="21"/>
+      <c r="C80" s="98"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="99"/>
+      <c r="F80" s="99"/>
+      <c r="G80" s="99"/>
+      <c r="H80" s="100"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="89"/>
-      <c r="B81" s="89"/>
-      <c r="C81" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="D81" s="92"/>
-      <c r="E81" s="92"/>
-      <c r="F81" s="92"/>
-      <c r="G81" s="92"/>
-      <c r="H81" s="93"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="101"/>
+      <c r="D81" s="102"/>
+      <c r="E81" s="102"/>
+      <c r="F81" s="102"/>
+      <c r="G81" s="102"/>
+      <c r="H81" s="103"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="89"/>
-      <c r="B82" s="89"/>
-      <c r="C82" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="D82" s="92"/>
-      <c r="E82" s="92"/>
-      <c r="F82" s="92"/>
-      <c r="G82" s="92"/>
-      <c r="H82" s="93"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="101"/>
+      <c r="D82" s="102"/>
+      <c r="E82" s="102"/>
+      <c r="F82" s="102"/>
+      <c r="G82" s="102"/>
+      <c r="H82" s="103"/>
     </row>
     <row r="83" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A83" s="90"/>
-      <c r="B83" s="90"/>
-      <c r="C83" s="94" t="s">
-        <v>54</v>
-      </c>
-      <c r="D83" s="95"/>
-      <c r="E83" s="95"/>
-      <c r="F83" s="95"/>
-      <c r="G83" s="95"/>
-      <c r="H83" s="96"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="101"/>
+      <c r="D83" s="102"/>
+      <c r="E83" s="102"/>
+      <c r="F83" s="102"/>
+      <c r="G83" s="102"/>
+      <c r="H83" s="103"/>
+    </row>
+    <row r="84" spans="1:8" ht="25.5">
+      <c r="A84" s="21" t="str">
+        <f>A16</f>
+        <v>As a player, I want to be able to complete levels or be able to die and have to start over</v>
+      </c>
+      <c r="B84" s="21"/>
+      <c r="C84" s="98"/>
+      <c r="D84" s="99"/>
+      <c r="E84" s="99"/>
+      <c r="F84" s="99"/>
+      <c r="G84" s="99"/>
+      <c r="H84" s="100"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="101"/>
+      <c r="D85" s="102"/>
+      <c r="E85" s="102"/>
+      <c r="F85" s="102"/>
+      <c r="G85" s="102"/>
+      <c r="H85" s="103"/>
+    </row>
+    <row r="86" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="101"/>
+      <c r="D86" s="102"/>
+      <c r="E86" s="102"/>
+      <c r="F86" s="102"/>
+      <c r="G86" s="102"/>
+      <c r="H86" s="103"/>
+    </row>
+    <row r="87" spans="1:8" ht="25.5">
+      <c r="A87" s="21" t="str">
+        <f>A17</f>
+        <v>As a developer, I want characters to behave differently using different states to control them</v>
+      </c>
+      <c r="B87" s="21"/>
+      <c r="C87" s="98"/>
+      <c r="D87" s="99"/>
+      <c r="E87" s="99"/>
+      <c r="F87" s="99"/>
+      <c r="G87" s="99"/>
+      <c r="H87" s="100"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="89"/>
+      <c r="B88" s="89"/>
+      <c r="C88" s="104"/>
+      <c r="D88" s="105"/>
+      <c r="E88" s="105"/>
+      <c r="F88" s="105"/>
+      <c r="G88" s="105"/>
+      <c r="H88" s="106"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="89"/>
+      <c r="B89" s="89"/>
+      <c r="C89" s="104"/>
+      <c r="D89" s="105"/>
+      <c r="E89" s="105"/>
+      <c r="F89" s="105"/>
+      <c r="G89" s="105"/>
+      <c r="H89" s="106"/>
+    </row>
+    <row r="90" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A90" s="90"/>
+      <c r="B90" s="90"/>
+      <c r="C90" s="107"/>
+      <c r="D90" s="108"/>
+      <c r="E90" s="108"/>
+      <c r="F90" s="108"/>
+      <c r="G90" s="108"/>
+      <c r="H90" s="109"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="21" t="str">
+        <f>A18</f>
+        <v>As a player, I want enemies to make informed decisions</v>
+      </c>
+      <c r="B91" s="21"/>
+      <c r="C91" s="98"/>
+      <c r="D91" s="99"/>
+      <c r="E91" s="99"/>
+      <c r="F91" s="99"/>
+      <c r="G91" s="99"/>
+      <c r="H91" s="100"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="101"/>
+      <c r="D92" s="102"/>
+      <c r="E92" s="102"/>
+      <c r="F92" s="102"/>
+      <c r="G92" s="102"/>
+      <c r="H92" s="103"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="101"/>
+      <c r="D93" s="102"/>
+      <c r="E93" s="102"/>
+      <c r="F93" s="102"/>
+      <c r="G93" s="102"/>
+      <c r="H93" s="103"/>
+    </row>
+    <row r="94" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="101"/>
+      <c r="D94" s="102"/>
+      <c r="E94" s="102"/>
+      <c r="F94" s="102"/>
+      <c r="G94" s="102"/>
+      <c r="H94" s="103"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="21" t="str">
+        <f>A19</f>
+        <v>As a player, when I'm not controlling the survivors, I want them to make basic decisions based on their type</v>
+      </c>
+      <c r="B95" s="21"/>
+      <c r="C95" s="98"/>
+      <c r="D95" s="99"/>
+      <c r="E95" s="99"/>
+      <c r="F95" s="99"/>
+      <c r="G95" s="99"/>
+      <c r="H95" s="100"/>
+    </row>
+    <row r="96" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="101"/>
+      <c r="D96" s="102"/>
+      <c r="E96" s="102"/>
+      <c r="F96" s="102"/>
+      <c r="G96" s="102"/>
+      <c r="H96" s="103"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="21" t="str">
+        <f>A20</f>
+        <v>As a player, I want bosses to use their abilities to make challenging battles</v>
+      </c>
+      <c r="B97" s="21"/>
+      <c r="C97" s="98"/>
+      <c r="D97" s="99"/>
+      <c r="E97" s="99"/>
+      <c r="F97" s="99"/>
+      <c r="G97" s="99"/>
+      <c r="H97" s="100"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="101"/>
+      <c r="D98" s="102"/>
+      <c r="E98" s="102"/>
+      <c r="F98" s="102"/>
+      <c r="G98" s="102"/>
+      <c r="H98" s="103"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="101"/>
+      <c r="D99" s="102"/>
+      <c r="E99" s="102"/>
+      <c r="F99" s="102"/>
+      <c r="G99" s="102"/>
+      <c r="H99" s="103"/>
+    </row>
+    <row r="100" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="101"/>
+      <c r="D100" s="102"/>
+      <c r="E100" s="102"/>
+      <c r="F100" s="102"/>
+      <c r="G100" s="102"/>
+      <c r="H100" s="103"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="21" t="str">
+        <f>A21</f>
+        <v>As a player, I want all units to avoid solid objects in order to reach their destination</v>
+      </c>
+      <c r="B101" s="21"/>
+      <c r="C101" s="98"/>
+      <c r="D101" s="99"/>
+      <c r="E101" s="99"/>
+      <c r="F101" s="99"/>
+      <c r="G101" s="99"/>
+      <c r="H101" s="100"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="101"/>
+      <c r="D102" s="102"/>
+      <c r="E102" s="102"/>
+      <c r="F102" s="102"/>
+      <c r="G102" s="102"/>
+      <c r="H102" s="103"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="101"/>
+      <c r="D103" s="102"/>
+      <c r="E103" s="102"/>
+      <c r="F103" s="102"/>
+      <c r="G103" s="102"/>
+      <c r="H103" s="103"/>
+    </row>
+    <row r="104" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="101"/>
+      <c r="D104" s="102"/>
+      <c r="E104" s="102"/>
+      <c r="F104" s="102"/>
+      <c r="G104" s="102"/>
+      <c r="H104" s="103"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="21" t="str">
+        <f>A22</f>
+        <v>As a player, I want to hear background music and sound effects all throughout the game</v>
+      </c>
+      <c r="B105" s="21"/>
+      <c r="C105" s="98"/>
+      <c r="D105" s="99"/>
+      <c r="E105" s="99"/>
+      <c r="F105" s="99"/>
+      <c r="G105" s="99"/>
+      <c r="H105" s="100"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="101"/>
+      <c r="D106" s="102"/>
+      <c r="E106" s="102"/>
+      <c r="F106" s="102"/>
+      <c r="G106" s="102"/>
+      <c r="H106" s="103"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="101"/>
+      <c r="D107" s="102"/>
+      <c r="E107" s="102"/>
+      <c r="F107" s="102"/>
+      <c r="G107" s="102"/>
+      <c r="H107" s="103"/>
+    </row>
+    <row r="108" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="101"/>
+      <c r="D108" s="102"/>
+      <c r="E108" s="102"/>
+      <c r="F108" s="102"/>
+      <c r="G108" s="102"/>
+      <c r="H108" s="103"/>
+    </row>
+    <row r="109" spans="1:8" ht="25.5">
+      <c r="A109" s="21" t="str">
+        <f>A23</f>
+        <v>As a player, I want to be able to save progress throughout the levels</v>
+      </c>
+      <c r="B109" s="21"/>
+      <c r="C109" s="98"/>
+      <c r="D109" s="99"/>
+      <c r="E109" s="99"/>
+      <c r="F109" s="99"/>
+      <c r="G109" s="99"/>
+      <c r="H109" s="100"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="101"/>
+      <c r="D110" s="102"/>
+      <c r="E110" s="102"/>
+      <c r="F110" s="102"/>
+      <c r="G110" s="102"/>
+      <c r="H110" s="103"/>
+    </row>
+    <row r="111" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="101"/>
+      <c r="D111" s="102"/>
+      <c r="E111" s="102"/>
+      <c r="F111" s="102"/>
+      <c r="G111" s="102"/>
+      <c r="H111" s="103"/>
+    </row>
+    <row r="112" spans="1:8" ht="25.5">
+      <c r="A112" s="21" t="str">
+        <f>A24</f>
+        <v>As a developer, I want to have all of my assets in place</v>
+      </c>
+      <c r="B112" s="21"/>
+      <c r="C112" s="98"/>
+      <c r="D112" s="99"/>
+      <c r="E112" s="99"/>
+      <c r="F112" s="99"/>
+      <c r="G112" s="99"/>
+      <c r="H112" s="100"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="91"/>
+      <c r="B113" s="91"/>
+      <c r="C113" s="104"/>
+      <c r="D113" s="105"/>
+      <c r="E113" s="105"/>
+      <c r="F113" s="105"/>
+      <c r="G113" s="105"/>
+      <c r="H113" s="106"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="91"/>
+      <c r="B114" s="91"/>
+      <c r="C114" s="104"/>
+      <c r="D114" s="105"/>
+      <c r="E114" s="105"/>
+      <c r="F114" s="105"/>
+      <c r="G114" s="105"/>
+      <c r="H114" s="106"/>
+    </row>
+    <row r="115" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A115" s="92"/>
+      <c r="B115" s="92"/>
+      <c r="C115" s="107"/>
+      <c r="D115" s="108"/>
+      <c r="E115" s="108"/>
+      <c r="F115" s="108"/>
+      <c r="G115" s="108"/>
+      <c r="H115" s="109"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="86">
+    <mergeCell ref="C115:H115"/>
+    <mergeCell ref="C110:H110"/>
+    <mergeCell ref="C111:H111"/>
+    <mergeCell ref="C112:H112"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="C105:H105"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="C108:H108"/>
+    <mergeCell ref="C109:H109"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="C104:H104"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="C92:H92"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
     <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
     <mergeCell ref="C77:H77"/>
     <mergeCell ref="C78:H78"/>
     <mergeCell ref="C79:H79"/>
     <mergeCell ref="C80:H80"/>
     <mergeCell ref="C81:H81"/>
     <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C89:H89"/>
   </mergeCells>
-  <conditionalFormatting sqref="A24">
+  <conditionalFormatting sqref="A31">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min" val="0"/>
@@ -7808,10 +8053,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J17 C3:H17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:H24 J3:J24">
       <formula1>value_in_hours</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K24">
       <formula1>student_names</formula1>
     </dataValidation>
   </dataValidations>

--- a/Sprint 1, 2, 3 UserStories.xlsx
+++ b/Sprint 1, 2, 3 UserStories.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="304">
   <si>
     <t>As a team member, I want to design the interface for the game through pictures</t>
   </si>
@@ -800,6 +800,150 @@
   </si>
   <si>
     <t>As a developer, I want to have all of my assets in place</t>
+  </si>
+  <si>
+    <t>Is it easy to navigate?</t>
+  </si>
+  <si>
+    <t>Are all options available?</t>
+  </si>
+  <si>
+    <t>Is it navigable completely by keyboard?</t>
+  </si>
+  <si>
+    <t>Are the following shown:</t>
+  </si>
+  <si>
+    <t>overall score</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>who survived</t>
+  </si>
+  <si>
+    <t>overview of story</t>
+  </si>
+  <si>
+    <t>items acquired</t>
+  </si>
+  <si>
+    <t>name of the next level</t>
+  </si>
+  <si>
+    <t>can I load correctly?</t>
+  </si>
+  <si>
+    <t>can I save correctly?</t>
+  </si>
+  <si>
+    <t>do the profiles show game progress and information?</t>
+  </si>
+  <si>
+    <t>are the profiles discernible by name or otherwise?</t>
+  </si>
+  <si>
+    <t>are tooltips shown?</t>
+  </si>
+  <si>
+    <t>do all buttons work correctly?</t>
+  </si>
+  <si>
+    <t>does the mini map work correctly?</t>
+  </si>
+  <si>
+    <t>are all 3 of each characters abilities able to be used, if unlocked?</t>
+  </si>
+  <si>
+    <t>are all 4 player controllable units able to be controlled properly?</t>
+  </si>
+  <si>
+    <t>are all the powerups functional and in game?</t>
+  </si>
+  <si>
+    <t>can you pick up powerups?</t>
+  </si>
+  <si>
+    <t>if passive, are the abilities in effect?</t>
+  </si>
+  <si>
+    <t>if active, are they able to be toggled?</t>
+  </si>
+  <si>
+    <t>are non system keys able to be mapped by the user?</t>
+  </si>
+  <si>
+    <t>do they save on program exit?</t>
+  </si>
+  <si>
+    <t>do they load on program start?</t>
+  </si>
+  <si>
+    <t>do all of the levels have objectives to complete?</t>
+  </si>
+  <si>
+    <t>"dog" - Activates godmode where player units don't take damage, and can't die</t>
+  </si>
+  <si>
+    <t>"gogo" - Cooldowns are locked to be always ready for player units.</t>
+  </si>
+  <si>
+    <t>"stats" - Adds +10 to all stats of player units.</t>
+  </si>
+  <si>
+    <t>"bored" - Skip the current level.</t>
+  </si>
+  <si>
+    <t>does a death send you to the beginning of the level or to the last checkpoint?</t>
+  </si>
+  <si>
+    <t>does the level actually complete and send to tally screen on completion?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do enemies attack players if in range? </t>
+  </si>
+  <si>
+    <t>do they follow players if they're out of combat range but in sight?</t>
+  </si>
+  <si>
+    <t>do they perform some sort of last measure if they are about to die? (either run or strong attack)</t>
+  </si>
+  <si>
+    <t>do boss abilities work?</t>
+  </si>
+  <si>
+    <t>do bosses attack players in range?</t>
+  </si>
+  <si>
+    <t>do bosses use abilities intelligently to defeat player?</t>
+  </si>
+  <si>
+    <t>do units walk around solid objects?</t>
+  </si>
+  <si>
+    <t>do units take an efficient path to their destination?</t>
+  </si>
+  <si>
+    <t>does the background music play?</t>
+  </si>
+  <si>
+    <t>do sound effects play?</t>
+  </si>
+  <si>
+    <t>do the checkpoints give indication of save?</t>
+  </si>
+  <si>
+    <t>do the checkpoints save the progress correctly?</t>
+  </si>
+  <si>
+    <t>are all assets in the correct folders?</t>
+  </si>
+  <si>
+    <t>are all assets named properly?</t>
+  </si>
+  <si>
+    <t>do all assets load properly? (i.e. images power of 2)</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1315,7 @@
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1331,43 +1475,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1388,13 +1499,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1406,13 +1544,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1423,6 +1561,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2151,8 +2298,8 @@
   </sheetPr>
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2651,14 +2798,14 @@
       <c r="B23" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="95" t="s">
+      <c r="C23" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="97"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="107"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="25" t="s">
@@ -2667,48 +2814,48 @@
       <c r="B24" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="100"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="104"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="101" t="s">
+      <c r="C25" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="103"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="101"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="101" t="s">
+      <c r="C26" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="103"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="101"/>
     </row>
     <row r="27" spans="1:11" ht="13.5" thickBot="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="101" t="s">
+      <c r="C27" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="102"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="103"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="101"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="25" t="s">
@@ -2717,48 +2864,48 @@
       <c r="B28" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="100"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="104"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="101" t="s">
+      <c r="C29" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="103"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="101"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="101" t="s">
+      <c r="C30" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="103"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="101"/>
     </row>
     <row r="31" spans="1:11" ht="13.5" thickBot="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="101" t="s">
+      <c r="C31" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="103"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="101"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="25" t="s">
@@ -2767,36 +2914,36 @@
       <c r="B32" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="98"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="100"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="104"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="101" t="s">
+      <c r="C33" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="103"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="101"/>
     </row>
     <row r="34" spans="1:8" ht="13.5" thickBot="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="103"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="101"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="25" t="s">
@@ -2805,24 +2952,24 @@
       <c r="B35" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="98"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="100"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="104"/>
     </row>
     <row r="36" spans="1:8" ht="13.5" thickBot="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="101" t="s">
+      <c r="C36" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="103"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="101"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="25" t="s">
@@ -2831,48 +2978,48 @@
       <c r="B37" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="98"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="100"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="104"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="101" t="s">
+      <c r="C38" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="102"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="103"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="101"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="101" t="s">
+      <c r="C39" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="102"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="103"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="101"/>
     </row>
     <row r="40" spans="1:8" ht="13.5" thickBot="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="101" t="s">
+      <c r="C40" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="103"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="101"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="21" t="s">
@@ -2881,72 +3028,72 @@
       <c r="B41" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="98"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="100"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="104"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="101" t="s">
+      <c r="C42" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="102"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="103"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="101"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="101" t="s">
+      <c r="C43" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="102"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="103"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="101"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="101" t="s">
+      <c r="C44" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="102"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="103"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="101"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="101" t="s">
+      <c r="C45" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="102"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="103"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="101"/>
     </row>
     <row r="46" spans="1:8" ht="13.5" thickBot="1">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="101" t="s">
+      <c r="C46" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="102"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="103"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="101"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="21" t="s">
@@ -2955,96 +3102,96 @@
       <c r="B47" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="98"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="100"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="104"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="101" t="s">
+      <c r="C48" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="102"/>
-      <c r="E48" s="102"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="103"/>
+      <c r="D48" s="100"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="101"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="101" t="s">
+      <c r="C49" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="102"/>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="103"/>
+      <c r="D49" s="100"/>
+      <c r="E49" s="100"/>
+      <c r="F49" s="100"/>
+      <c r="G49" s="100"/>
+      <c r="H49" s="101"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="101" t="s">
+      <c r="C50" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="103"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="101"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="101" t="s">
+      <c r="C51" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="102"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="103"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="101"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="101" t="s">
+      <c r="C52" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="103"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="101"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="101" t="s">
+      <c r="C53" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
-      <c r="F53" s="102"/>
-      <c r="G53" s="102"/>
-      <c r="H53" s="103"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="101"/>
     </row>
     <row r="54" spans="1:8" ht="13.5" thickBot="1">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="101" t="s">
+      <c r="C54" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="102"/>
-      <c r="E54" s="102"/>
-      <c r="F54" s="102"/>
-      <c r="G54" s="102"/>
-      <c r="H54" s="103"/>
+      <c r="D54" s="100"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="101"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="25" t="s">
@@ -3053,48 +3200,48 @@
       <c r="B55" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="98"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="99"/>
-      <c r="F55" s="99"/>
-      <c r="G55" s="99"/>
-      <c r="H55" s="100"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="103"/>
+      <c r="F55" s="103"/>
+      <c r="G55" s="103"/>
+      <c r="H55" s="104"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="101" t="s">
+      <c r="C56" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="D56" s="102"/>
-      <c r="E56" s="102"/>
-      <c r="F56" s="102"/>
-      <c r="G56" s="102"/>
-      <c r="H56" s="103"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="101"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="101" t="s">
+      <c r="C57" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="102"/>
-      <c r="E57" s="102"/>
-      <c r="F57" s="102"/>
-      <c r="G57" s="102"/>
-      <c r="H57" s="103"/>
+      <c r="D57" s="100"/>
+      <c r="E57" s="100"/>
+      <c r="F57" s="100"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="101"/>
     </row>
     <row r="58" spans="1:8" ht="13.5" thickBot="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="101" t="s">
+      <c r="C58" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102"/>
-      <c r="F58" s="102"/>
-      <c r="G58" s="102"/>
-      <c r="H58" s="103"/>
+      <c r="D58" s="100"/>
+      <c r="E58" s="100"/>
+      <c r="F58" s="100"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="101"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="21" t="s">
@@ -3103,48 +3250,48 @@
       <c r="B59" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="98"/>
-      <c r="D59" s="99"/>
-      <c r="E59" s="99"/>
-      <c r="F59" s="99"/>
-      <c r="G59" s="99"/>
-      <c r="H59" s="100"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="103"/>
+      <c r="E59" s="103"/>
+      <c r="F59" s="103"/>
+      <c r="G59" s="103"/>
+      <c r="H59" s="104"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="101" t="s">
+      <c r="C60" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="102"/>
-      <c r="E60" s="102"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="102"/>
-      <c r="H60" s="103"/>
+      <c r="D60" s="100"/>
+      <c r="E60" s="100"/>
+      <c r="F60" s="100"/>
+      <c r="G60" s="100"/>
+      <c r="H60" s="101"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
-      <c r="C61" s="101" t="s">
+      <c r="C61" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="D61" s="102"/>
-      <c r="E61" s="102"/>
-      <c r="F61" s="102"/>
-      <c r="G61" s="102"/>
-      <c r="H61" s="103"/>
+      <c r="D61" s="100"/>
+      <c r="E61" s="100"/>
+      <c r="F61" s="100"/>
+      <c r="G61" s="100"/>
+      <c r="H61" s="101"/>
     </row>
     <row r="62" spans="1:8" ht="13.5" thickBot="1">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="101" t="s">
+      <c r="C62" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="102"/>
-      <c r="E62" s="102"/>
-      <c r="F62" s="102"/>
-      <c r="G62" s="102"/>
-      <c r="H62" s="103"/>
+      <c r="D62" s="100"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="100"/>
+      <c r="G62" s="100"/>
+      <c r="H62" s="101"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="21" t="s">
@@ -3153,24 +3300,24 @@
       <c r="B63" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="98"/>
-      <c r="D63" s="99"/>
-      <c r="E63" s="99"/>
-      <c r="F63" s="99"/>
-      <c r="G63" s="99"/>
-      <c r="H63" s="100"/>
+      <c r="C63" s="102"/>
+      <c r="D63" s="103"/>
+      <c r="E63" s="103"/>
+      <c r="F63" s="103"/>
+      <c r="G63" s="103"/>
+      <c r="H63" s="104"/>
     </row>
     <row r="64" spans="1:8" ht="13.5" thickBot="1">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="C64" s="101" t="s">
+      <c r="C64" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="102"/>
-      <c r="E64" s="102"/>
-      <c r="F64" s="102"/>
-      <c r="G64" s="102"/>
-      <c r="H64" s="103"/>
+      <c r="D64" s="100"/>
+      <c r="E64" s="100"/>
+      <c r="F64" s="100"/>
+      <c r="G64" s="100"/>
+      <c r="H64" s="101"/>
     </row>
     <row r="65" spans="1:8" ht="25.5" customHeight="1">
       <c r="A65" s="21" t="s">
@@ -3179,48 +3326,48 @@
       <c r="B65" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="98"/>
-      <c r="D65" s="99"/>
-      <c r="E65" s="99"/>
-      <c r="F65" s="99"/>
-      <c r="G65" s="99"/>
-      <c r="H65" s="100"/>
+      <c r="C65" s="102"/>
+      <c r="D65" s="103"/>
+      <c r="E65" s="103"/>
+      <c r="F65" s="103"/>
+      <c r="G65" s="103"/>
+      <c r="H65" s="104"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="101" t="s">
+      <c r="C66" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="102"/>
-      <c r="E66" s="102"/>
-      <c r="F66" s="102"/>
-      <c r="G66" s="102"/>
-      <c r="H66" s="103"/>
+      <c r="D66" s="100"/>
+      <c r="E66" s="100"/>
+      <c r="F66" s="100"/>
+      <c r="G66" s="100"/>
+      <c r="H66" s="101"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="101" t="s">
+      <c r="C67" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="D67" s="102"/>
-      <c r="E67" s="102"/>
-      <c r="F67" s="102"/>
-      <c r="G67" s="102"/>
-      <c r="H67" s="103"/>
+      <c r="D67" s="100"/>
+      <c r="E67" s="100"/>
+      <c r="F67" s="100"/>
+      <c r="G67" s="100"/>
+      <c r="H67" s="101"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" thickBot="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="101" t="s">
+      <c r="C68" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="D68" s="102"/>
-      <c r="E68" s="102"/>
-      <c r="F68" s="102"/>
-      <c r="G68" s="102"/>
-      <c r="H68" s="103"/>
+      <c r="D68" s="100"/>
+      <c r="E68" s="100"/>
+      <c r="F68" s="100"/>
+      <c r="G68" s="100"/>
+      <c r="H68" s="101"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="21" t="s">
@@ -3229,48 +3376,48 @@
       <c r="B69" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="98"/>
-      <c r="D69" s="99"/>
-      <c r="E69" s="99"/>
-      <c r="F69" s="99"/>
-      <c r="G69" s="99"/>
-      <c r="H69" s="100"/>
+      <c r="C69" s="102"/>
+      <c r="D69" s="103"/>
+      <c r="E69" s="103"/>
+      <c r="F69" s="103"/>
+      <c r="G69" s="103"/>
+      <c r="H69" s="104"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="101" t="s">
+      <c r="C70" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="D70" s="102"/>
-      <c r="E70" s="102"/>
-      <c r="F70" s="102"/>
-      <c r="G70" s="102"/>
-      <c r="H70" s="103"/>
+      <c r="D70" s="100"/>
+      <c r="E70" s="100"/>
+      <c r="F70" s="100"/>
+      <c r="G70" s="100"/>
+      <c r="H70" s="101"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="101" t="s">
+      <c r="C71" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="D71" s="102"/>
-      <c r="E71" s="102"/>
-      <c r="F71" s="102"/>
-      <c r="G71" s="102"/>
-      <c r="H71" s="103"/>
+      <c r="D71" s="100"/>
+      <c r="E71" s="100"/>
+      <c r="F71" s="100"/>
+      <c r="G71" s="100"/>
+      <c r="H71" s="101"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" thickBot="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="101" t="s">
+      <c r="C72" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="D72" s="102"/>
-      <c r="E72" s="102"/>
-      <c r="F72" s="102"/>
-      <c r="G72" s="102"/>
-      <c r="H72" s="103"/>
+      <c r="D72" s="100"/>
+      <c r="E72" s="100"/>
+      <c r="F72" s="100"/>
+      <c r="G72" s="100"/>
+      <c r="H72" s="101"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="21" t="s">
@@ -3279,48 +3426,48 @@
       <c r="B73" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="98"/>
-      <c r="D73" s="99"/>
-      <c r="E73" s="99"/>
-      <c r="F73" s="99"/>
-      <c r="G73" s="99"/>
-      <c r="H73" s="100"/>
+      <c r="C73" s="102"/>
+      <c r="D73" s="103"/>
+      <c r="E73" s="103"/>
+      <c r="F73" s="103"/>
+      <c r="G73" s="103"/>
+      <c r="H73" s="104"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="101" t="s">
+      <c r="C74" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="D74" s="102"/>
-      <c r="E74" s="102"/>
-      <c r="F74" s="102"/>
-      <c r="G74" s="102"/>
-      <c r="H74" s="103"/>
+      <c r="D74" s="100"/>
+      <c r="E74" s="100"/>
+      <c r="F74" s="100"/>
+      <c r="G74" s="100"/>
+      <c r="H74" s="101"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="101" t="s">
+      <c r="C75" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="D75" s="102"/>
-      <c r="E75" s="102"/>
-      <c r="F75" s="102"/>
-      <c r="G75" s="102"/>
-      <c r="H75" s="103"/>
+      <c r="D75" s="100"/>
+      <c r="E75" s="100"/>
+      <c r="F75" s="100"/>
+      <c r="G75" s="100"/>
+      <c r="H75" s="101"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" thickBot="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="101" t="s">
+      <c r="C76" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="D76" s="102"/>
-      <c r="E76" s="102"/>
-      <c r="F76" s="102"/>
-      <c r="G76" s="102"/>
-      <c r="H76" s="103"/>
+      <c r="D76" s="100"/>
+      <c r="E76" s="100"/>
+      <c r="F76" s="100"/>
+      <c r="G76" s="100"/>
+      <c r="H76" s="101"/>
     </row>
     <row r="77" spans="1:8" ht="25.5">
       <c r="A77" s="21" t="s">
@@ -3329,36 +3476,36 @@
       <c r="B77" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="98"/>
-      <c r="D77" s="99"/>
-      <c r="E77" s="99"/>
-      <c r="F77" s="99"/>
-      <c r="G77" s="99"/>
-      <c r="H77" s="100"/>
+      <c r="C77" s="102"/>
+      <c r="D77" s="103"/>
+      <c r="E77" s="103"/>
+      <c r="F77" s="103"/>
+      <c r="G77" s="103"/>
+      <c r="H77" s="104"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
-      <c r="C78" s="101" t="s">
+      <c r="C78" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="D78" s="102"/>
-      <c r="E78" s="102"/>
-      <c r="F78" s="102"/>
-      <c r="G78" s="102"/>
-      <c r="H78" s="103"/>
+      <c r="D78" s="100"/>
+      <c r="E78" s="100"/>
+      <c r="F78" s="100"/>
+      <c r="G78" s="100"/>
+      <c r="H78" s="101"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" thickBot="1">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
-      <c r="C79" s="101" t="s">
+      <c r="C79" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="D79" s="102"/>
-      <c r="E79" s="102"/>
-      <c r="F79" s="102"/>
-      <c r="G79" s="102"/>
-      <c r="H79" s="103"/>
+      <c r="D79" s="100"/>
+      <c r="E79" s="100"/>
+      <c r="F79" s="100"/>
+      <c r="G79" s="100"/>
+      <c r="H79" s="101"/>
     </row>
     <row r="80" spans="1:8" ht="25.5">
       <c r="A80" s="21" t="s">
@@ -3367,59 +3514,92 @@
       <c r="B80" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="98"/>
-      <c r="D80" s="99"/>
-      <c r="E80" s="99"/>
-      <c r="F80" s="99"/>
-      <c r="G80" s="99"/>
-      <c r="H80" s="100"/>
+      <c r="C80" s="102"/>
+      <c r="D80" s="103"/>
+      <c r="E80" s="103"/>
+      <c r="F80" s="103"/>
+      <c r="G80" s="103"/>
+      <c r="H80" s="104"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="26"/>
       <c r="B81" s="26"/>
-      <c r="C81" s="104" t="s">
+      <c r="C81" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="D81" s="105"/>
-      <c r="E81" s="105"/>
-      <c r="F81" s="105"/>
-      <c r="G81" s="105"/>
-      <c r="H81" s="106"/>
+      <c r="D81" s="94"/>
+      <c r="E81" s="94"/>
+      <c r="F81" s="94"/>
+      <c r="G81" s="94"/>
+      <c r="H81" s="95"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="26"/>
       <c r="B82" s="26"/>
-      <c r="C82" s="104" t="s">
+      <c r="C82" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="D82" s="105"/>
-      <c r="E82" s="105"/>
-      <c r="F82" s="105"/>
-      <c r="G82" s="105"/>
-      <c r="H82" s="106"/>
+      <c r="D82" s="94"/>
+      <c r="E82" s="94"/>
+      <c r="F82" s="94"/>
+      <c r="G82" s="94"/>
+      <c r="H82" s="95"/>
     </row>
     <row r="83" spans="1:8" ht="13.5" thickBot="1">
       <c r="A83" s="24"/>
       <c r="B83" s="24"/>
-      <c r="C83" s="107" t="s">
+      <c r="C83" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="D83" s="108"/>
-      <c r="E83" s="108"/>
-      <c r="F83" s="108"/>
-      <c r="G83" s="108"/>
-      <c r="H83" s="109"/>
+      <c r="D83" s="97"/>
+      <c r="E83" s="97"/>
+      <c r="F83" s="97"/>
+      <c r="G83" s="97"/>
+      <c r="H83" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
     <mergeCell ref="C75:H75"/>
     <mergeCell ref="C64:H64"/>
     <mergeCell ref="C65:H65"/>
@@ -3432,47 +3612,14 @@
     <mergeCell ref="C72:H72"/>
     <mergeCell ref="C73:H73"/>
     <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A24">
@@ -4324,14 +4471,14 @@
       <c r="B33" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="119" t="s">
+      <c r="C33" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="121"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="119"/>
     </row>
     <row r="34" spans="1:8" s="40" customFormat="1">
       <c r="A34" s="69" t="s">
@@ -4340,134 +4487,134 @@
       <c r="B34" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="110"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="112"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="116"/>
     </row>
     <row r="35" spans="1:8" s="40" customFormat="1">
       <c r="A35" s="68"/>
       <c r="B35" s="68"/>
-      <c r="C35" s="113" t="s">
+      <c r="C35" s="111" t="s">
         <v>231</v>
       </c>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="115"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="113"/>
     </row>
     <row r="36" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1">
       <c r="A36" s="68"/>
       <c r="B36" s="68"/>
-      <c r="C36" s="116" t="s">
+      <c r="C36" s="108" t="s">
         <v>230</v>
       </c>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="118"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="110"/>
     </row>
     <row r="37" spans="1:8" s="40" customFormat="1" ht="25.5">
       <c r="A37" s="70" t="s">
         <v>229</v>
       </c>
       <c r="B37" s="69"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="112"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="116"/>
     </row>
     <row r="38" spans="1:8" s="40" customFormat="1">
       <c r="A38" s="68"/>
       <c r="B38" s="68"/>
-      <c r="C38" s="113" t="s">
+      <c r="C38" s="111" t="s">
         <v>228</v>
       </c>
-      <c r="D38" s="114" t="s">
+      <c r="D38" s="112" t="s">
         <v>228</v>
       </c>
-      <c r="E38" s="114" t="s">
+      <c r="E38" s="112" t="s">
         <v>228</v>
       </c>
-      <c r="F38" s="114" t="s">
+      <c r="F38" s="112" t="s">
         <v>228</v>
       </c>
-      <c r="G38" s="114" t="s">
+      <c r="G38" s="112" t="s">
         <v>228</v>
       </c>
-      <c r="H38" s="115" t="s">
+      <c r="H38" s="113" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A39" s="68"/>
       <c r="B39" s="68"/>
-      <c r="C39" s="113" t="s">
+      <c r="C39" s="111" t="s">
         <v>227</v>
       </c>
-      <c r="D39" s="114" t="s">
+      <c r="D39" s="112" t="s">
         <v>227</v>
       </c>
-      <c r="E39" s="114" t="s">
+      <c r="E39" s="112" t="s">
         <v>227</v>
       </c>
-      <c r="F39" s="114" t="s">
+      <c r="F39" s="112" t="s">
         <v>227</v>
       </c>
-      <c r="G39" s="114" t="s">
+      <c r="G39" s="112" t="s">
         <v>227</v>
       </c>
-      <c r="H39" s="115" t="s">
+      <c r="H39" s="113" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A40" s="68"/>
       <c r="B40" s="68"/>
-      <c r="C40" s="113" t="s">
+      <c r="C40" s="111" t="s">
         <v>226</v>
       </c>
-      <c r="D40" s="114" t="s">
+      <c r="D40" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="E40" s="114" t="s">
+      <c r="E40" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="F40" s="114" t="s">
+      <c r="F40" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="G40" s="114" t="s">
+      <c r="G40" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="H40" s="115" t="s">
+      <c r="H40" s="113" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A41" s="68"/>
       <c r="B41" s="68"/>
-      <c r="C41" s="116" t="s">
+      <c r="C41" s="108" t="s">
         <v>225</v>
       </c>
-      <c r="D41" s="117" t="s">
+      <c r="D41" s="109" t="s">
         <v>225</v>
       </c>
-      <c r="E41" s="117" t="s">
+      <c r="E41" s="109" t="s">
         <v>225</v>
       </c>
-      <c r="F41" s="117" t="s">
+      <c r="F41" s="109" t="s">
         <v>225</v>
       </c>
-      <c r="G41" s="117" t="s">
+      <c r="G41" s="109" t="s">
         <v>225</v>
       </c>
-      <c r="H41" s="118" t="s">
+      <c r="H41" s="110" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4476,120 +4623,120 @@
         <v>224</v>
       </c>
       <c r="B42" s="69"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="112"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="116"/>
     </row>
     <row r="43" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A43" s="68"/>
       <c r="B43" s="68"/>
-      <c r="C43" s="113" t="s">
+      <c r="C43" s="111" t="s">
         <v>223</v>
       </c>
-      <c r="D43" s="114" t="s">
+      <c r="D43" s="112" t="s">
         <v>223</v>
       </c>
-      <c r="E43" s="114" t="s">
+      <c r="E43" s="112" t="s">
         <v>223</v>
       </c>
-      <c r="F43" s="114" t="s">
+      <c r="F43" s="112" t="s">
         <v>223</v>
       </c>
-      <c r="G43" s="114" t="s">
+      <c r="G43" s="112" t="s">
         <v>223</v>
       </c>
-      <c r="H43" s="115" t="s">
+      <c r="H43" s="113" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A44" s="68"/>
       <c r="B44" s="68"/>
-      <c r="C44" s="113" t="s">
+      <c r="C44" s="111" t="s">
         <v>222</v>
       </c>
-      <c r="D44" s="114" t="s">
+      <c r="D44" s="112" t="s">
         <v>222</v>
       </c>
-      <c r="E44" s="114" t="s">
+      <c r="E44" s="112" t="s">
         <v>222</v>
       </c>
-      <c r="F44" s="114" t="s">
+      <c r="F44" s="112" t="s">
         <v>222</v>
       </c>
-      <c r="G44" s="114" t="s">
+      <c r="G44" s="112" t="s">
         <v>222</v>
       </c>
-      <c r="H44" s="115" t="s">
+      <c r="H44" s="113" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A45" s="68"/>
       <c r="B45" s="68"/>
-      <c r="C45" s="113" t="s">
+      <c r="C45" s="111" t="s">
         <v>221</v>
       </c>
-      <c r="D45" s="114" t="s">
+      <c r="D45" s="112" t="s">
         <v>221</v>
       </c>
-      <c r="E45" s="114" t="s">
+      <c r="E45" s="112" t="s">
         <v>221</v>
       </c>
-      <c r="F45" s="114" t="s">
+      <c r="F45" s="112" t="s">
         <v>221</v>
       </c>
-      <c r="G45" s="114" t="s">
+      <c r="G45" s="112" t="s">
         <v>221</v>
       </c>
-      <c r="H45" s="115" t="s">
+      <c r="H45" s="113" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A46" s="68"/>
       <c r="B46" s="68"/>
-      <c r="C46" s="113" t="s">
+      <c r="C46" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="D46" s="114" t="s">
+      <c r="D46" s="112" t="s">
         <v>220</v>
       </c>
-      <c r="E46" s="114" t="s">
+      <c r="E46" s="112" t="s">
         <v>220</v>
       </c>
-      <c r="F46" s="114" t="s">
+      <c r="F46" s="112" t="s">
         <v>220</v>
       </c>
-      <c r="G46" s="114" t="s">
+      <c r="G46" s="112" t="s">
         <v>220</v>
       </c>
-      <c r="H46" s="115" t="s">
+      <c r="H46" s="113" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A47" s="68"/>
       <c r="B47" s="68"/>
-      <c r="C47" s="116" t="s">
+      <c r="C47" s="108" t="s">
         <v>217</v>
       </c>
-      <c r="D47" s="117" t="s">
+      <c r="D47" s="109" t="s">
         <v>217</v>
       </c>
-      <c r="E47" s="117" t="s">
+      <c r="E47" s="109" t="s">
         <v>217</v>
       </c>
-      <c r="F47" s="117" t="s">
+      <c r="F47" s="109" t="s">
         <v>217</v>
       </c>
-      <c r="G47" s="117" t="s">
+      <c r="G47" s="109" t="s">
         <v>217</v>
       </c>
-      <c r="H47" s="118" t="s">
+      <c r="H47" s="110" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4598,32 +4745,32 @@
         <v>219</v>
       </c>
       <c r="B48" s="69"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="111"/>
-      <c r="F48" s="111"/>
-      <c r="G48" s="111"/>
-      <c r="H48" s="112"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="115"/>
+      <c r="H48" s="116"/>
     </row>
     <row r="49" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1">
       <c r="A49" s="68"/>
       <c r="B49" s="68"/>
-      <c r="C49" s="116" t="s">
+      <c r="C49" s="108" t="s">
         <v>218</v>
       </c>
-      <c r="D49" s="117" t="s">
+      <c r="D49" s="109" t="s">
         <v>217</v>
       </c>
-      <c r="E49" s="117" t="s">
+      <c r="E49" s="109" t="s">
         <v>217</v>
       </c>
-      <c r="F49" s="117" t="s">
+      <c r="F49" s="109" t="s">
         <v>217</v>
       </c>
-      <c r="G49" s="117" t="s">
+      <c r="G49" s="109" t="s">
         <v>217</v>
       </c>
-      <c r="H49" s="118" t="s">
+      <c r="H49" s="110" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4632,114 +4779,114 @@
         <v>216</v>
       </c>
       <c r="B50" s="69"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="112"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="116"/>
     </row>
     <row r="51" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A51" s="68"/>
       <c r="B51" s="68"/>
-      <c r="C51" s="113" t="s">
+      <c r="C51" s="111" t="s">
         <v>215</v>
       </c>
-      <c r="D51" s="114"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="114"/>
-      <c r="H51" s="115"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="112"/>
+      <c r="F51" s="112"/>
+      <c r="G51" s="112"/>
+      <c r="H51" s="113"/>
     </row>
     <row r="52" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A52" s="68"/>
       <c r="B52" s="68"/>
-      <c r="C52" s="113" t="s">
+      <c r="C52" s="111" t="s">
         <v>214</v>
       </c>
-      <c r="D52" s="114"/>
-      <c r="E52" s="114"/>
-      <c r="F52" s="114"/>
-      <c r="G52" s="114"/>
-      <c r="H52" s="115"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="112"/>
+      <c r="F52" s="112"/>
+      <c r="G52" s="112"/>
+      <c r="H52" s="113"/>
     </row>
     <row r="53" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A53" s="68"/>
       <c r="B53" s="68"/>
-      <c r="C53" s="113" t="s">
+      <c r="C53" s="111" t="s">
         <v>213</v>
       </c>
-      <c r="D53" s="114"/>
-      <c r="E53" s="114"/>
-      <c r="F53" s="114"/>
-      <c r="G53" s="114"/>
-      <c r="H53" s="115"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="112"/>
+      <c r="F53" s="112"/>
+      <c r="G53" s="112"/>
+      <c r="H53" s="113"/>
     </row>
     <row r="54" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A54" s="68"/>
       <c r="B54" s="68"/>
-      <c r="C54" s="113" t="s">
+      <c r="C54" s="111" t="s">
         <v>212</v>
       </c>
-      <c r="D54" s="114"/>
-      <c r="E54" s="114"/>
-      <c r="F54" s="114"/>
-      <c r="G54" s="114"/>
-      <c r="H54" s="115"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="112"/>
+      <c r="G54" s="112"/>
+      <c r="H54" s="113"/>
     </row>
     <row r="55" spans="1:8" s="40" customFormat="1">
       <c r="A55" s="69" t="s">
         <v>211</v>
       </c>
       <c r="B55" s="69"/>
-      <c r="C55" s="110"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="111"/>
-      <c r="F55" s="111"/>
-      <c r="G55" s="111"/>
-      <c r="H55" s="112"/>
+      <c r="C55" s="114"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="115"/>
+      <c r="G55" s="115"/>
+      <c r="H55" s="116"/>
     </row>
     <row r="56" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A56" s="68"/>
       <c r="B56" s="68"/>
-      <c r="C56" s="113" t="s">
+      <c r="C56" s="111" t="s">
         <v>210</v>
       </c>
-      <c r="D56" s="114" t="s">
+      <c r="D56" s="112" t="s">
         <v>210</v>
       </c>
-      <c r="E56" s="114" t="s">
+      <c r="E56" s="112" t="s">
         <v>210</v>
       </c>
-      <c r="F56" s="114" t="s">
+      <c r="F56" s="112" t="s">
         <v>210</v>
       </c>
-      <c r="G56" s="114" t="s">
+      <c r="G56" s="112" t="s">
         <v>210</v>
       </c>
-      <c r="H56" s="115" t="s">
+      <c r="H56" s="113" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A57" s="68"/>
       <c r="B57" s="68"/>
-      <c r="C57" s="113" t="s">
+      <c r="C57" s="111" t="s">
         <v>209</v>
       </c>
-      <c r="D57" s="114" t="s">
+      <c r="D57" s="112" t="s">
         <v>209</v>
       </c>
-      <c r="E57" s="114" t="s">
+      <c r="E57" s="112" t="s">
         <v>209</v>
       </c>
-      <c r="F57" s="114" t="s">
+      <c r="F57" s="112" t="s">
         <v>209</v>
       </c>
-      <c r="G57" s="114" t="s">
+      <c r="G57" s="112" t="s">
         <v>209</v>
       </c>
-      <c r="H57" s="115" t="s">
+      <c r="H57" s="113" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4748,142 +4895,142 @@
         <v>208</v>
       </c>
       <c r="B58" s="69"/>
-      <c r="C58" s="110"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="111"/>
-      <c r="F58" s="111"/>
-      <c r="G58" s="111"/>
-      <c r="H58" s="112"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="115"/>
+      <c r="E58" s="115"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="116"/>
     </row>
     <row r="59" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A59" s="68"/>
       <c r="B59" s="68"/>
-      <c r="C59" s="113" t="s">
+      <c r="C59" s="111" t="s">
         <v>207</v>
       </c>
-      <c r="D59" s="114" t="s">
+      <c r="D59" s="112" t="s">
         <v>207</v>
       </c>
-      <c r="E59" s="114" t="s">
+      <c r="E59" s="112" t="s">
         <v>207</v>
       </c>
-      <c r="F59" s="114" t="s">
+      <c r="F59" s="112" t="s">
         <v>207</v>
       </c>
-      <c r="G59" s="114" t="s">
+      <c r="G59" s="112" t="s">
         <v>207</v>
       </c>
-      <c r="H59" s="115" t="s">
+      <c r="H59" s="113" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A60" s="68"/>
       <c r="B60" s="68"/>
-      <c r="C60" s="113" t="s">
+      <c r="C60" s="111" t="s">
         <v>206</v>
       </c>
-      <c r="D60" s="114" t="s">
+      <c r="D60" s="112" t="s">
         <v>206</v>
       </c>
-      <c r="E60" s="114" t="s">
+      <c r="E60" s="112" t="s">
         <v>206</v>
       </c>
-      <c r="F60" s="114" t="s">
+      <c r="F60" s="112" t="s">
         <v>206</v>
       </c>
-      <c r="G60" s="114" t="s">
+      <c r="G60" s="112" t="s">
         <v>206</v>
       </c>
-      <c r="H60" s="115" t="s">
+      <c r="H60" s="113" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A61" s="68"/>
       <c r="B61" s="68"/>
-      <c r="C61" s="113" t="s">
+      <c r="C61" s="111" t="s">
         <v>205</v>
       </c>
-      <c r="D61" s="114" t="s">
+      <c r="D61" s="112" t="s">
         <v>205</v>
       </c>
-      <c r="E61" s="114" t="s">
+      <c r="E61" s="112" t="s">
         <v>205</v>
       </c>
-      <c r="F61" s="114" t="s">
+      <c r="F61" s="112" t="s">
         <v>205</v>
       </c>
-      <c r="G61" s="114" t="s">
+      <c r="G61" s="112" t="s">
         <v>205</v>
       </c>
-      <c r="H61" s="115" t="s">
+      <c r="H61" s="113" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A62" s="68"/>
       <c r="B62" s="68"/>
-      <c r="C62" s="113" t="s">
+      <c r="C62" s="111" t="s">
         <v>204</v>
       </c>
-      <c r="D62" s="114" t="s">
+      <c r="D62" s="112" t="s">
         <v>204</v>
       </c>
-      <c r="E62" s="114" t="s">
+      <c r="E62" s="112" t="s">
         <v>204</v>
       </c>
-      <c r="F62" s="114" t="s">
+      <c r="F62" s="112" t="s">
         <v>204</v>
       </c>
-      <c r="G62" s="114" t="s">
+      <c r="G62" s="112" t="s">
         <v>204</v>
       </c>
-      <c r="H62" s="115" t="s">
+      <c r="H62" s="113" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A63" s="68"/>
       <c r="B63" s="68"/>
-      <c r="C63" s="113" t="s">
+      <c r="C63" s="111" t="s">
         <v>203</v>
       </c>
-      <c r="D63" s="114" t="s">
+      <c r="D63" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="E63" s="114" t="s">
+      <c r="E63" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="F63" s="114" t="s">
+      <c r="F63" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="G63" s="114" t="s">
+      <c r="G63" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="H63" s="115" t="s">
+      <c r="H63" s="113" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A64" s="68"/>
       <c r="B64" s="68"/>
-      <c r="C64" s="116" t="s">
+      <c r="C64" s="108" t="s">
         <v>202</v>
       </c>
-      <c r="D64" s="117" t="s">
+      <c r="D64" s="109" t="s">
         <v>202</v>
       </c>
-      <c r="E64" s="117" t="s">
+      <c r="E64" s="109" t="s">
         <v>202</v>
       </c>
-      <c r="F64" s="117" t="s">
+      <c r="F64" s="109" t="s">
         <v>202</v>
       </c>
-      <c r="G64" s="117" t="s">
+      <c r="G64" s="109" t="s">
         <v>202</v>
       </c>
-      <c r="H64" s="118" t="s">
+      <c r="H64" s="110" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4892,76 +5039,76 @@
         <v>201</v>
       </c>
       <c r="B65" s="69"/>
-      <c r="C65" s="110"/>
-      <c r="D65" s="111"/>
-      <c r="E65" s="111"/>
-      <c r="F65" s="111"/>
-      <c r="G65" s="111"/>
-      <c r="H65" s="112"/>
+      <c r="C65" s="114"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="115"/>
+      <c r="G65" s="115"/>
+      <c r="H65" s="116"/>
     </row>
     <row r="66" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A66" s="68"/>
       <c r="B66" s="68"/>
-      <c r="C66" s="113" t="s">
+      <c r="C66" s="111" t="s">
         <v>200</v>
       </c>
-      <c r="D66" s="114" t="s">
+      <c r="D66" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="E66" s="114" t="s">
+      <c r="E66" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="F66" s="114" t="s">
+      <c r="F66" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="G66" s="114" t="s">
+      <c r="G66" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="H66" s="115" t="s">
+      <c r="H66" s="113" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A67" s="68"/>
       <c r="B67" s="68"/>
-      <c r="C67" s="113" t="s">
+      <c r="C67" s="111" t="s">
         <v>199</v>
       </c>
-      <c r="D67" s="114" t="s">
+      <c r="D67" s="112" t="s">
         <v>199</v>
       </c>
-      <c r="E67" s="114" t="s">
+      <c r="E67" s="112" t="s">
         <v>199</v>
       </c>
-      <c r="F67" s="114" t="s">
+      <c r="F67" s="112" t="s">
         <v>199</v>
       </c>
-      <c r="G67" s="114" t="s">
+      <c r="G67" s="112" t="s">
         <v>199</v>
       </c>
-      <c r="H67" s="115" t="s">
+      <c r="H67" s="113" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A68" s="68"/>
       <c r="B68" s="68"/>
-      <c r="C68" s="116" t="s">
+      <c r="C68" s="108" t="s">
         <v>198</v>
       </c>
-      <c r="D68" s="117" t="s">
+      <c r="D68" s="109" t="s">
         <v>198</v>
       </c>
-      <c r="E68" s="117" t="s">
+      <c r="E68" s="109" t="s">
         <v>198</v>
       </c>
-      <c r="F68" s="117" t="s">
+      <c r="F68" s="109" t="s">
         <v>198</v>
       </c>
-      <c r="G68" s="117" t="s">
+      <c r="G68" s="109" t="s">
         <v>198</v>
       </c>
-      <c r="H68" s="118" t="s">
+      <c r="H68" s="110" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4970,132 +5117,132 @@
         <v>197</v>
       </c>
       <c r="B69" s="69"/>
-      <c r="C69" s="110"/>
-      <c r="D69" s="111"/>
-      <c r="E69" s="111"/>
-      <c r="F69" s="111"/>
-      <c r="G69" s="111"/>
-      <c r="H69" s="112"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="115"/>
+      <c r="E69" s="115"/>
+      <c r="F69" s="115"/>
+      <c r="G69" s="115"/>
+      <c r="H69" s="116"/>
     </row>
     <row r="70" spans="1:8" s="40" customFormat="1">
       <c r="A70" s="69" t="s">
         <v>196</v>
       </c>
       <c r="B70" s="69"/>
-      <c r="C70" s="110"/>
-      <c r="D70" s="111"/>
-      <c r="E70" s="111"/>
-      <c r="F70" s="111"/>
-      <c r="G70" s="111"/>
-      <c r="H70" s="112"/>
+      <c r="C70" s="114"/>
+      <c r="D70" s="115"/>
+      <c r="E70" s="115"/>
+      <c r="F70" s="115"/>
+      <c r="G70" s="115"/>
+      <c r="H70" s="116"/>
     </row>
     <row r="71" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A71" s="68"/>
       <c r="B71" s="68"/>
-      <c r="C71" s="113" t="s">
+      <c r="C71" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="D71" s="114" t="s">
+      <c r="D71" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="E71" s="114" t="s">
+      <c r="E71" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="F71" s="114" t="s">
+      <c r="F71" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="G71" s="114" t="s">
+      <c r="G71" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="H71" s="115" t="s">
+      <c r="H71" s="113" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A72" s="68"/>
       <c r="B72" s="68"/>
-      <c r="C72" s="113" t="s">
+      <c r="C72" s="111" t="s">
         <v>194</v>
       </c>
-      <c r="D72" s="114" t="s">
+      <c r="D72" s="112" t="s">
         <v>194</v>
       </c>
-      <c r="E72" s="114" t="s">
+      <c r="E72" s="112" t="s">
         <v>194</v>
       </c>
-      <c r="F72" s="114" t="s">
+      <c r="F72" s="112" t="s">
         <v>194</v>
       </c>
-      <c r="G72" s="114" t="s">
+      <c r="G72" s="112" t="s">
         <v>194</v>
       </c>
-      <c r="H72" s="115" t="s">
+      <c r="H72" s="113" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A73" s="68"/>
       <c r="B73" s="68"/>
-      <c r="C73" s="113" t="s">
+      <c r="C73" s="111" t="s">
         <v>193</v>
       </c>
-      <c r="D73" s="114" t="s">
+      <c r="D73" s="112" t="s">
         <v>193</v>
       </c>
-      <c r="E73" s="114" t="s">
+      <c r="E73" s="112" t="s">
         <v>193</v>
       </c>
-      <c r="F73" s="114" t="s">
+      <c r="F73" s="112" t="s">
         <v>193</v>
       </c>
-      <c r="G73" s="114" t="s">
+      <c r="G73" s="112" t="s">
         <v>193</v>
       </c>
-      <c r="H73" s="115" t="s">
+      <c r="H73" s="113" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A74" s="68"/>
       <c r="B74" s="68"/>
-      <c r="C74" s="113" t="s">
+      <c r="C74" s="111" t="s">
         <v>192</v>
       </c>
-      <c r="D74" s="114" t="s">
+      <c r="D74" s="112" t="s">
         <v>192</v>
       </c>
-      <c r="E74" s="114" t="s">
+      <c r="E74" s="112" t="s">
         <v>192</v>
       </c>
-      <c r="F74" s="114" t="s">
+      <c r="F74" s="112" t="s">
         <v>192</v>
       </c>
-      <c r="G74" s="114" t="s">
+      <c r="G74" s="112" t="s">
         <v>192</v>
       </c>
-      <c r="H74" s="115" t="s">
+      <c r="H74" s="113" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A75" s="68"/>
       <c r="B75" s="68"/>
-      <c r="C75" s="116" t="s">
+      <c r="C75" s="108" t="s">
         <v>191</v>
       </c>
-      <c r="D75" s="117" t="s">
+      <c r="D75" s="109" t="s">
         <v>191</v>
       </c>
-      <c r="E75" s="117" t="s">
+      <c r="E75" s="109" t="s">
         <v>191</v>
       </c>
-      <c r="F75" s="117" t="s">
+      <c r="F75" s="109" t="s">
         <v>191</v>
       </c>
-      <c r="G75" s="117" t="s">
+      <c r="G75" s="109" t="s">
         <v>191</v>
       </c>
-      <c r="H75" s="118" t="s">
+      <c r="H75" s="110" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5104,54 +5251,54 @@
         <v>190</v>
       </c>
       <c r="B76" s="69"/>
-      <c r="C76" s="110"/>
-      <c r="D76" s="111"/>
-      <c r="E76" s="111"/>
-      <c r="F76" s="111"/>
-      <c r="G76" s="111"/>
-      <c r="H76" s="112"/>
+      <c r="C76" s="114"/>
+      <c r="D76" s="115"/>
+      <c r="E76" s="115"/>
+      <c r="F76" s="115"/>
+      <c r="G76" s="115"/>
+      <c r="H76" s="116"/>
     </row>
     <row r="77" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A77" s="68"/>
       <c r="B77" s="68"/>
-      <c r="C77" s="113" t="s">
+      <c r="C77" s="111" t="s">
         <v>189</v>
       </c>
-      <c r="D77" s="114" t="s">
+      <c r="D77" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="E77" s="114" t="s">
+      <c r="E77" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="F77" s="114" t="s">
+      <c r="F77" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="G77" s="114" t="s">
+      <c r="G77" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="H77" s="115" t="s">
+      <c r="H77" s="113" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A78" s="68"/>
       <c r="B78" s="68"/>
-      <c r="C78" s="116" t="s">
+      <c r="C78" s="108" t="s">
         <v>188</v>
       </c>
-      <c r="D78" s="117" t="s">
+      <c r="D78" s="109" t="s">
         <v>188</v>
       </c>
-      <c r="E78" s="117" t="s">
+      <c r="E78" s="109" t="s">
         <v>188</v>
       </c>
-      <c r="F78" s="117" t="s">
+      <c r="F78" s="109" t="s">
         <v>188</v>
       </c>
-      <c r="G78" s="117" t="s">
+      <c r="G78" s="109" t="s">
         <v>188</v>
       </c>
-      <c r="H78" s="118" t="s">
+      <c r="H78" s="110" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5160,120 +5307,120 @@
         <v>187</v>
       </c>
       <c r="B79" s="69"/>
-      <c r="C79" s="110"/>
-      <c r="D79" s="111"/>
-      <c r="E79" s="111"/>
-      <c r="F79" s="111"/>
-      <c r="G79" s="111"/>
-      <c r="H79" s="112"/>
+      <c r="C79" s="114"/>
+      <c r="D79" s="115"/>
+      <c r="E79" s="115"/>
+      <c r="F79" s="115"/>
+      <c r="G79" s="115"/>
+      <c r="H79" s="116"/>
     </row>
     <row r="80" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A80" s="68"/>
       <c r="B80" s="68"/>
-      <c r="C80" s="113" t="s">
+      <c r="C80" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="D80" s="114" t="s">
+      <c r="D80" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="E80" s="114" t="s">
+      <c r="E80" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="F80" s="114" t="s">
+      <c r="F80" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="G80" s="114" t="s">
+      <c r="G80" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="H80" s="115" t="s">
+      <c r="H80" s="113" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A81" s="68"/>
       <c r="B81" s="68"/>
-      <c r="C81" s="113" t="s">
+      <c r="C81" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="D81" s="114" t="s">
+      <c r="D81" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="E81" s="114" t="s">
+      <c r="E81" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="F81" s="114" t="s">
+      <c r="F81" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="G81" s="114" t="s">
+      <c r="G81" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="H81" s="115" t="s">
+      <c r="H81" s="113" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A82" s="68"/>
       <c r="B82" s="68"/>
-      <c r="C82" s="113" t="s">
+      <c r="C82" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="D82" s="114" t="s">
+      <c r="D82" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="E82" s="114" t="s">
+      <c r="E82" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="F82" s="114" t="s">
+      <c r="F82" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="G82" s="114" t="s">
+      <c r="G82" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="H82" s="115" t="s">
+      <c r="H82" s="113" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A83" s="68"/>
       <c r="B83" s="68"/>
-      <c r="C83" s="113" t="s">
+      <c r="C83" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="D83" s="114" t="s">
+      <c r="D83" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="E83" s="114" t="s">
+      <c r="E83" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="F83" s="114" t="s">
+      <c r="F83" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="G83" s="114" t="s">
+      <c r="G83" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="H83" s="115" t="s">
+      <c r="H83" s="113" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A84" s="68"/>
       <c r="B84" s="68"/>
-      <c r="C84" s="116" t="s">
+      <c r="C84" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="D84" s="117" t="s">
+      <c r="D84" s="109" t="s">
         <v>182</v>
       </c>
-      <c r="E84" s="117" t="s">
+      <c r="E84" s="109" t="s">
         <v>182</v>
       </c>
-      <c r="F84" s="117" t="s">
+      <c r="F84" s="109" t="s">
         <v>182</v>
       </c>
-      <c r="G84" s="117" t="s">
+      <c r="G84" s="109" t="s">
         <v>182</v>
       </c>
-      <c r="H84" s="118" t="s">
+      <c r="H84" s="110" t="s">
         <v>182</v>
       </c>
     </row>
@@ -5282,98 +5429,98 @@
         <v>181</v>
       </c>
       <c r="B85" s="69"/>
-      <c r="C85" s="110"/>
-      <c r="D85" s="111"/>
-      <c r="E85" s="111"/>
-      <c r="F85" s="111"/>
-      <c r="G85" s="111"/>
-      <c r="H85" s="112"/>
+      <c r="C85" s="114"/>
+      <c r="D85" s="115"/>
+      <c r="E85" s="115"/>
+      <c r="F85" s="115"/>
+      <c r="G85" s="115"/>
+      <c r="H85" s="116"/>
     </row>
     <row r="86" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A86" s="68"/>
       <c r="B86" s="68"/>
-      <c r="C86" s="113" t="s">
+      <c r="C86" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="D86" s="114" t="s">
+      <c r="D86" s="112" t="s">
         <v>180</v>
       </c>
-      <c r="E86" s="114" t="s">
+      <c r="E86" s="112" t="s">
         <v>180</v>
       </c>
-      <c r="F86" s="114" t="s">
+      <c r="F86" s="112" t="s">
         <v>180</v>
       </c>
-      <c r="G86" s="114" t="s">
+      <c r="G86" s="112" t="s">
         <v>180</v>
       </c>
-      <c r="H86" s="115" t="s">
+      <c r="H86" s="113" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A87" s="68"/>
       <c r="B87" s="68"/>
-      <c r="C87" s="113" t="s">
+      <c r="C87" s="111" t="s">
         <v>179</v>
       </c>
-      <c r="D87" s="114" t="s">
+      <c r="D87" s="112" t="s">
         <v>179</v>
       </c>
-      <c r="E87" s="114" t="s">
+      <c r="E87" s="112" t="s">
         <v>179</v>
       </c>
-      <c r="F87" s="114" t="s">
+      <c r="F87" s="112" t="s">
         <v>179</v>
       </c>
-      <c r="G87" s="114" t="s">
+      <c r="G87" s="112" t="s">
         <v>179</v>
       </c>
-      <c r="H87" s="115" t="s">
+      <c r="H87" s="113" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A88" s="68"/>
       <c r="B88" s="68"/>
-      <c r="C88" s="113" t="s">
+      <c r="C88" s="111" t="s">
         <v>178</v>
       </c>
-      <c r="D88" s="114" t="s">
+      <c r="D88" s="112" t="s">
         <v>178</v>
       </c>
-      <c r="E88" s="114" t="s">
+      <c r="E88" s="112" t="s">
         <v>178</v>
       </c>
-      <c r="F88" s="114" t="s">
+      <c r="F88" s="112" t="s">
         <v>178</v>
       </c>
-      <c r="G88" s="114" t="s">
+      <c r="G88" s="112" t="s">
         <v>178</v>
       </c>
-      <c r="H88" s="115" t="s">
+      <c r="H88" s="113" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A89" s="68"/>
       <c r="B89" s="68"/>
-      <c r="C89" s="116" t="s">
+      <c r="C89" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="D89" s="117" t="s">
+      <c r="D89" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="E89" s="117" t="s">
+      <c r="E89" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="F89" s="117" t="s">
+      <c r="F89" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="G89" s="117" t="s">
+      <c r="G89" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="H89" s="118" t="s">
+      <c r="H89" s="110" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5382,110 +5529,110 @@
         <v>176</v>
       </c>
       <c r="B90" s="69"/>
-      <c r="C90" s="110"/>
-      <c r="D90" s="111"/>
-      <c r="E90" s="111"/>
-      <c r="F90" s="111"/>
-      <c r="G90" s="111"/>
-      <c r="H90" s="112"/>
+      <c r="C90" s="114"/>
+      <c r="D90" s="115"/>
+      <c r="E90" s="115"/>
+      <c r="F90" s="115"/>
+      <c r="G90" s="115"/>
+      <c r="H90" s="116"/>
     </row>
     <row r="91" spans="1:8" s="40" customFormat="1">
       <c r="A91" s="69" t="s">
         <v>175</v>
       </c>
       <c r="B91" s="69"/>
-      <c r="C91" s="110"/>
-      <c r="D91" s="111"/>
-      <c r="E91" s="111"/>
-      <c r="F91" s="111"/>
-      <c r="G91" s="111"/>
-      <c r="H91" s="112"/>
+      <c r="C91" s="114"/>
+      <c r="D91" s="115"/>
+      <c r="E91" s="115"/>
+      <c r="F91" s="115"/>
+      <c r="G91" s="115"/>
+      <c r="H91" s="116"/>
     </row>
     <row r="92" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A92" s="68"/>
       <c r="B92" s="68"/>
-      <c r="C92" s="113" t="s">
+      <c r="C92" s="111" t="s">
         <v>174</v>
       </c>
-      <c r="D92" s="114" t="s">
+      <c r="D92" s="112" t="s">
         <v>174</v>
       </c>
-      <c r="E92" s="114" t="s">
+      <c r="E92" s="112" t="s">
         <v>174</v>
       </c>
-      <c r="F92" s="114" t="s">
+      <c r="F92" s="112" t="s">
         <v>174</v>
       </c>
-      <c r="G92" s="114" t="s">
+      <c r="G92" s="112" t="s">
         <v>174</v>
       </c>
-      <c r="H92" s="115" t="s">
+      <c r="H92" s="113" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A93" s="68"/>
       <c r="B93" s="68"/>
-      <c r="C93" s="113" t="s">
+      <c r="C93" s="111" t="s">
         <v>173</v>
       </c>
-      <c r="D93" s="114" t="s">
+      <c r="D93" s="112" t="s">
         <v>173</v>
       </c>
-      <c r="E93" s="114" t="s">
+      <c r="E93" s="112" t="s">
         <v>173</v>
       </c>
-      <c r="F93" s="114" t="s">
+      <c r="F93" s="112" t="s">
         <v>173</v>
       </c>
-      <c r="G93" s="114" t="s">
+      <c r="G93" s="112" t="s">
         <v>173</v>
       </c>
-      <c r="H93" s="115" t="s">
+      <c r="H93" s="113" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A94" s="68"/>
       <c r="B94" s="68"/>
-      <c r="C94" s="113" t="s">
+      <c r="C94" s="111" t="s">
         <v>172</v>
       </c>
-      <c r="D94" s="114" t="s">
+      <c r="D94" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="E94" s="114" t="s">
+      <c r="E94" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="F94" s="114" t="s">
+      <c r="F94" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="G94" s="114" t="s">
+      <c r="G94" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="H94" s="115" t="s">
+      <c r="H94" s="113" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A95" s="68"/>
       <c r="B95" s="68"/>
-      <c r="C95" s="116" t="s">
+      <c r="C95" s="108" t="s">
         <v>171</v>
       </c>
-      <c r="D95" s="117" t="s">
+      <c r="D95" s="109" t="s">
         <v>171</v>
       </c>
-      <c r="E95" s="117" t="s">
+      <c r="E95" s="109" t="s">
         <v>171</v>
       </c>
-      <c r="F95" s="117" t="s">
+      <c r="F95" s="109" t="s">
         <v>171</v>
       </c>
-      <c r="G95" s="117" t="s">
+      <c r="G95" s="109" t="s">
         <v>171</v>
       </c>
-      <c r="H95" s="118" t="s">
+      <c r="H95" s="110" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5494,142 +5641,142 @@
         <v>170</v>
       </c>
       <c r="B96" s="69"/>
-      <c r="C96" s="110"/>
-      <c r="D96" s="111"/>
-      <c r="E96" s="111"/>
-      <c r="F96" s="111"/>
-      <c r="G96" s="111"/>
-      <c r="H96" s="112"/>
+      <c r="C96" s="114"/>
+      <c r="D96" s="115"/>
+      <c r="E96" s="115"/>
+      <c r="F96" s="115"/>
+      <c r="G96" s="115"/>
+      <c r="H96" s="116"/>
     </row>
     <row r="97" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A97" s="68"/>
       <c r="B97" s="68"/>
-      <c r="C97" s="113" t="s">
+      <c r="C97" s="111" t="s">
         <v>169</v>
       </c>
-      <c r="D97" s="114" t="s">
+      <c r="D97" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="E97" s="114" t="s">
+      <c r="E97" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="F97" s="114" t="s">
+      <c r="F97" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="G97" s="114" t="s">
+      <c r="G97" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="H97" s="115" t="s">
+      <c r="H97" s="113" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A98" s="68"/>
       <c r="B98" s="68"/>
-      <c r="C98" s="113" t="s">
+      <c r="C98" s="111" t="s">
         <v>168</v>
       </c>
-      <c r="D98" s="114" t="s">
+      <c r="D98" s="112" t="s">
         <v>168</v>
       </c>
-      <c r="E98" s="114" t="s">
+      <c r="E98" s="112" t="s">
         <v>168</v>
       </c>
-      <c r="F98" s="114" t="s">
+      <c r="F98" s="112" t="s">
         <v>168</v>
       </c>
-      <c r="G98" s="114" t="s">
+      <c r="G98" s="112" t="s">
         <v>168</v>
       </c>
-      <c r="H98" s="115" t="s">
+      <c r="H98" s="113" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A99" s="68"/>
       <c r="B99" s="68"/>
-      <c r="C99" s="113" t="s">
+      <c r="C99" s="111" t="s">
         <v>167</v>
       </c>
-      <c r="D99" s="114" t="s">
+      <c r="D99" s="112" t="s">
         <v>167</v>
       </c>
-      <c r="E99" s="114" t="s">
+      <c r="E99" s="112" t="s">
         <v>167</v>
       </c>
-      <c r="F99" s="114" t="s">
+      <c r="F99" s="112" t="s">
         <v>167</v>
       </c>
-      <c r="G99" s="114" t="s">
+      <c r="G99" s="112" t="s">
         <v>167</v>
       </c>
-      <c r="H99" s="115" t="s">
+      <c r="H99" s="113" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A100" s="68"/>
       <c r="B100" s="68"/>
-      <c r="C100" s="113" t="s">
+      <c r="C100" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="D100" s="114" t="s">
+      <c r="D100" s="112" t="s">
         <v>166</v>
       </c>
-      <c r="E100" s="114" t="s">
+      <c r="E100" s="112" t="s">
         <v>166</v>
       </c>
-      <c r="F100" s="114" t="s">
+      <c r="F100" s="112" t="s">
         <v>166</v>
       </c>
-      <c r="G100" s="114" t="s">
+      <c r="G100" s="112" t="s">
         <v>166</v>
       </c>
-      <c r="H100" s="115" t="s">
+      <c r="H100" s="113" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A101" s="68"/>
       <c r="B101" s="68"/>
-      <c r="C101" s="113" t="s">
+      <c r="C101" s="111" t="s">
         <v>165</v>
       </c>
-      <c r="D101" s="114" t="s">
+      <c r="D101" s="112" t="s">
         <v>165</v>
       </c>
-      <c r="E101" s="114" t="s">
+      <c r="E101" s="112" t="s">
         <v>165</v>
       </c>
-      <c r="F101" s="114" t="s">
+      <c r="F101" s="112" t="s">
         <v>165</v>
       </c>
-      <c r="G101" s="114" t="s">
+      <c r="G101" s="112" t="s">
         <v>165</v>
       </c>
-      <c r="H101" s="115" t="s">
+      <c r="H101" s="113" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="102" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A102" s="68"/>
       <c r="B102" s="68"/>
-      <c r="C102" s="116" t="s">
+      <c r="C102" s="108" t="s">
         <v>164</v>
       </c>
-      <c r="D102" s="117" t="s">
+      <c r="D102" s="109" t="s">
         <v>164</v>
       </c>
-      <c r="E102" s="117" t="s">
+      <c r="E102" s="109" t="s">
         <v>164</v>
       </c>
-      <c r="F102" s="117" t="s">
+      <c r="F102" s="109" t="s">
         <v>164</v>
       </c>
-      <c r="G102" s="117" t="s">
+      <c r="G102" s="109" t="s">
         <v>164</v>
       </c>
-      <c r="H102" s="118" t="s">
+      <c r="H102" s="110" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5638,76 +5785,76 @@
         <v>163</v>
       </c>
       <c r="B103" s="69"/>
-      <c r="C103" s="110"/>
-      <c r="D103" s="111"/>
-      <c r="E103" s="111"/>
-      <c r="F103" s="111"/>
-      <c r="G103" s="111"/>
-      <c r="H103" s="112"/>
+      <c r="C103" s="114"/>
+      <c r="D103" s="115"/>
+      <c r="E103" s="115"/>
+      <c r="F103" s="115"/>
+      <c r="G103" s="115"/>
+      <c r="H103" s="116"/>
     </row>
     <row r="104" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A104" s="68"/>
       <c r="B104" s="68"/>
-      <c r="C104" s="113" t="s">
+      <c r="C104" s="111" t="s">
         <v>162</v>
       </c>
-      <c r="D104" s="114" t="s">
+      <c r="D104" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="E104" s="114" t="s">
+      <c r="E104" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="F104" s="114" t="s">
+      <c r="F104" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="G104" s="114" t="s">
+      <c r="G104" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="H104" s="115" t="s">
+      <c r="H104" s="113" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="105" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A105" s="68"/>
       <c r="B105" s="68"/>
-      <c r="C105" s="113" t="s">
+      <c r="C105" s="111" t="s">
         <v>161</v>
       </c>
-      <c r="D105" s="114" t="s">
+      <c r="D105" s="112" t="s">
         <v>161</v>
       </c>
-      <c r="E105" s="114" t="s">
+      <c r="E105" s="112" t="s">
         <v>161</v>
       </c>
-      <c r="F105" s="114" t="s">
+      <c r="F105" s="112" t="s">
         <v>161</v>
       </c>
-      <c r="G105" s="114" t="s">
+      <c r="G105" s="112" t="s">
         <v>161</v>
       </c>
-      <c r="H105" s="115" t="s">
+      <c r="H105" s="113" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A106" s="68"/>
       <c r="B106" s="68"/>
-      <c r="C106" s="116" t="s">
+      <c r="C106" s="108" t="s">
         <v>160</v>
       </c>
-      <c r="D106" s="117" t="s">
+      <c r="D106" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="E106" s="117" t="s">
+      <c r="E106" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="F106" s="117" t="s">
+      <c r="F106" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="G106" s="117" t="s">
+      <c r="G106" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="H106" s="118" t="s">
+      <c r="H106" s="110" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5716,98 +5863,98 @@
         <v>159</v>
       </c>
       <c r="B107" s="69"/>
-      <c r="C107" s="110"/>
-      <c r="D107" s="111"/>
-      <c r="E107" s="111"/>
-      <c r="F107" s="111"/>
-      <c r="G107" s="111"/>
-      <c r="H107" s="112"/>
+      <c r="C107" s="114"/>
+      <c r="D107" s="115"/>
+      <c r="E107" s="115"/>
+      <c r="F107" s="115"/>
+      <c r="G107" s="115"/>
+      <c r="H107" s="116"/>
     </row>
     <row r="108" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A108" s="68"/>
       <c r="B108" s="68"/>
-      <c r="C108" s="113" t="s">
+      <c r="C108" s="111" t="s">
         <v>158</v>
       </c>
-      <c r="D108" s="114" t="s">
+      <c r="D108" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="E108" s="114" t="s">
+      <c r="E108" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="F108" s="114" t="s">
+      <c r="F108" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="G108" s="114" t="s">
+      <c r="G108" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="H108" s="115" t="s">
+      <c r="H108" s="113" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A109" s="68"/>
       <c r="B109" s="68"/>
-      <c r="C109" s="113" t="s">
+      <c r="C109" s="111" t="s">
         <v>157</v>
       </c>
-      <c r="D109" s="114" t="s">
+      <c r="D109" s="112" t="s">
         <v>157</v>
       </c>
-      <c r="E109" s="114" t="s">
+      <c r="E109" s="112" t="s">
         <v>157</v>
       </c>
-      <c r="F109" s="114" t="s">
+      <c r="F109" s="112" t="s">
         <v>157</v>
       </c>
-      <c r="G109" s="114" t="s">
+      <c r="G109" s="112" t="s">
         <v>157</v>
       </c>
-      <c r="H109" s="115" t="s">
+      <c r="H109" s="113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="110" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A110" s="68"/>
       <c r="B110" s="68"/>
-      <c r="C110" s="113" t="s">
+      <c r="C110" s="111" t="s">
         <v>156</v>
       </c>
-      <c r="D110" s="114" t="s">
+      <c r="D110" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="E110" s="114" t="s">
+      <c r="E110" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="F110" s="114" t="s">
+      <c r="F110" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="G110" s="114" t="s">
+      <c r="G110" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="H110" s="115" t="s">
+      <c r="H110" s="113" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A111" s="68"/>
       <c r="B111" s="68"/>
-      <c r="C111" s="116" t="s">
+      <c r="C111" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="D111" s="117" t="s">
+      <c r="D111" s="109" t="s">
         <v>155</v>
       </c>
-      <c r="E111" s="117" t="s">
+      <c r="E111" s="109" t="s">
         <v>155</v>
       </c>
-      <c r="F111" s="117" t="s">
+      <c r="F111" s="109" t="s">
         <v>155</v>
       </c>
-      <c r="G111" s="117" t="s">
+      <c r="G111" s="109" t="s">
         <v>155</v>
       </c>
-      <c r="H111" s="118" t="s">
+      <c r="H111" s="110" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5816,120 +5963,120 @@
         <v>154</v>
       </c>
       <c r="B112" s="69"/>
-      <c r="C112" s="110"/>
-      <c r="D112" s="111"/>
-      <c r="E112" s="111"/>
-      <c r="F112" s="111"/>
-      <c r="G112" s="111"/>
-      <c r="H112" s="112"/>
+      <c r="C112" s="114"/>
+      <c r="D112" s="115"/>
+      <c r="E112" s="115"/>
+      <c r="F112" s="115"/>
+      <c r="G112" s="115"/>
+      <c r="H112" s="116"/>
     </row>
     <row r="113" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A113" s="68"/>
       <c r="B113" s="68"/>
-      <c r="C113" s="113" t="s">
+      <c r="C113" s="111" t="s">
         <v>153</v>
       </c>
-      <c r="D113" s="114" t="s">
+      <c r="D113" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="E113" s="114" t="s">
+      <c r="E113" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="F113" s="114" t="s">
+      <c r="F113" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="G113" s="114" t="s">
+      <c r="G113" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="H113" s="115" t="s">
+      <c r="H113" s="113" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A114" s="68"/>
       <c r="B114" s="68"/>
-      <c r="C114" s="113" t="s">
+      <c r="C114" s="111" t="s">
         <v>152</v>
       </c>
-      <c r="D114" s="114" t="s">
+      <c r="D114" s="112" t="s">
         <v>152</v>
       </c>
-      <c r="E114" s="114" t="s">
+      <c r="E114" s="112" t="s">
         <v>152</v>
       </c>
-      <c r="F114" s="114" t="s">
+      <c r="F114" s="112" t="s">
         <v>152</v>
       </c>
-      <c r="G114" s="114" t="s">
+      <c r="G114" s="112" t="s">
         <v>152</v>
       </c>
-      <c r="H114" s="115" t="s">
+      <c r="H114" s="113" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A115" s="68"/>
       <c r="B115" s="68"/>
-      <c r="C115" s="113" t="s">
+      <c r="C115" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="D115" s="114" t="s">
+      <c r="D115" s="112" t="s">
         <v>151</v>
       </c>
-      <c r="E115" s="114" t="s">
+      <c r="E115" s="112" t="s">
         <v>151</v>
       </c>
-      <c r="F115" s="114" t="s">
+      <c r="F115" s="112" t="s">
         <v>151</v>
       </c>
-      <c r="G115" s="114" t="s">
+      <c r="G115" s="112" t="s">
         <v>151</v>
       </c>
-      <c r="H115" s="115" t="s">
+      <c r="H115" s="113" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A116" s="68"/>
       <c r="B116" s="68"/>
-      <c r="C116" s="113" t="s">
+      <c r="C116" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="D116" s="114" t="s">
+      <c r="D116" s="112" t="s">
         <v>150</v>
       </c>
-      <c r="E116" s="114" t="s">
+      <c r="E116" s="112" t="s">
         <v>150</v>
       </c>
-      <c r="F116" s="114" t="s">
+      <c r="F116" s="112" t="s">
         <v>150</v>
       </c>
-      <c r="G116" s="114" t="s">
+      <c r="G116" s="112" t="s">
         <v>150</v>
       </c>
-      <c r="H116" s="115" t="s">
+      <c r="H116" s="113" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A117" s="68"/>
       <c r="B117" s="68"/>
-      <c r="C117" s="116" t="s">
+      <c r="C117" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="D117" s="117" t="s">
+      <c r="D117" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="E117" s="117" t="s">
+      <c r="E117" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="F117" s="117" t="s">
+      <c r="F117" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="G117" s="117" t="s">
+      <c r="G117" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="H117" s="118" t="s">
+      <c r="H117" s="110" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5938,54 +6085,54 @@
         <v>148</v>
       </c>
       <c r="B118" s="69"/>
-      <c r="C118" s="110"/>
-      <c r="D118" s="111"/>
-      <c r="E118" s="111"/>
-      <c r="F118" s="111"/>
-      <c r="G118" s="111"/>
-      <c r="H118" s="112"/>
+      <c r="C118" s="114"/>
+      <c r="D118" s="115"/>
+      <c r="E118" s="115"/>
+      <c r="F118" s="115"/>
+      <c r="G118" s="115"/>
+      <c r="H118" s="116"/>
     </row>
     <row r="119" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A119" s="68"/>
       <c r="B119" s="68"/>
-      <c r="C119" s="113" t="s">
+      <c r="C119" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="D119" s="114" t="s">
+      <c r="D119" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="E119" s="114" t="s">
+      <c r="E119" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="F119" s="114" t="s">
+      <c r="F119" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="G119" s="114" t="s">
+      <c r="G119" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="H119" s="115" t="s">
+      <c r="H119" s="113" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="120" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A120" s="68"/>
       <c r="B120" s="68"/>
-      <c r="C120" s="116" t="s">
+      <c r="C120" s="108" t="s">
         <v>146</v>
       </c>
-      <c r="D120" s="117" t="s">
+      <c r="D120" s="109" t="s">
         <v>146</v>
       </c>
-      <c r="E120" s="117" t="s">
+      <c r="E120" s="109" t="s">
         <v>146</v>
       </c>
-      <c r="F120" s="117" t="s">
+      <c r="F120" s="109" t="s">
         <v>146</v>
       </c>
-      <c r="G120" s="117" t="s">
+      <c r="G120" s="109" t="s">
         <v>146</v>
       </c>
-      <c r="H120" s="118" t="s">
+      <c r="H120" s="110" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5994,32 +6141,32 @@
         <v>145</v>
       </c>
       <c r="B121" s="69"/>
-      <c r="C121" s="110"/>
-      <c r="D121" s="111"/>
-      <c r="E121" s="111"/>
-      <c r="F121" s="111"/>
-      <c r="G121" s="111"/>
-      <c r="H121" s="112"/>
+      <c r="C121" s="114"/>
+      <c r="D121" s="115"/>
+      <c r="E121" s="115"/>
+      <c r="F121" s="115"/>
+      <c r="G121" s="115"/>
+      <c r="H121" s="116"/>
     </row>
     <row r="122" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1">
       <c r="A122" s="68"/>
       <c r="B122" s="68"/>
-      <c r="C122" s="113" t="s">
+      <c r="C122" s="111" t="s">
         <v>142</v>
       </c>
-      <c r="D122" s="114" t="s">
+      <c r="D122" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="E122" s="114" t="s">
+      <c r="E122" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="F122" s="114" t="s">
+      <c r="F122" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="G122" s="114" t="s">
+      <c r="G122" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="H122" s="115" t="s">
+      <c r="H122" s="113" t="s">
         <v>142</v>
       </c>
     </row>
@@ -6028,32 +6175,32 @@
         <v>144</v>
       </c>
       <c r="B123" s="69"/>
-      <c r="C123" s="110"/>
-      <c r="D123" s="111"/>
-      <c r="E123" s="111"/>
-      <c r="F123" s="111"/>
-      <c r="G123" s="111"/>
-      <c r="H123" s="112"/>
+      <c r="C123" s="114"/>
+      <c r="D123" s="115"/>
+      <c r="E123" s="115"/>
+      <c r="F123" s="115"/>
+      <c r="G123" s="115"/>
+      <c r="H123" s="116"/>
     </row>
     <row r="124" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A124" s="68"/>
       <c r="B124" s="68"/>
-      <c r="C124" s="113" t="s">
+      <c r="C124" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="D124" s="114" t="s">
+      <c r="D124" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="E124" s="114" t="s">
+      <c r="E124" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="F124" s="114" t="s">
+      <c r="F124" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="G124" s="114" t="s">
+      <c r="G124" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="H124" s="115" t="s">
+      <c r="H124" s="113" t="s">
         <v>142</v>
       </c>
     </row>
@@ -6062,120 +6209,120 @@
         <v>141</v>
       </c>
       <c r="B125" s="69"/>
-      <c r="C125" s="110"/>
-      <c r="D125" s="111"/>
-      <c r="E125" s="111"/>
-      <c r="F125" s="111"/>
-      <c r="G125" s="111"/>
-      <c r="H125" s="112"/>
+      <c r="C125" s="114"/>
+      <c r="D125" s="115"/>
+      <c r="E125" s="115"/>
+      <c r="F125" s="115"/>
+      <c r="G125" s="115"/>
+      <c r="H125" s="116"/>
     </row>
     <row r="126" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A126" s="68"/>
       <c r="B126" s="68"/>
-      <c r="C126" s="113" t="s">
+      <c r="C126" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="D126" s="114" t="s">
+      <c r="D126" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="E126" s="114" t="s">
+      <c r="E126" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="F126" s="114" t="s">
+      <c r="F126" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="G126" s="114" t="s">
+      <c r="G126" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="H126" s="115" t="s">
+      <c r="H126" s="113" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A127" s="68"/>
       <c r="B127" s="68"/>
-      <c r="C127" s="113" t="s">
+      <c r="C127" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="D127" s="114" t="s">
+      <c r="D127" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="E127" s="114" t="s">
+      <c r="E127" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="F127" s="114" t="s">
+      <c r="F127" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="G127" s="114" t="s">
+      <c r="G127" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="H127" s="115" t="s">
+      <c r="H127" s="113" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A128" s="68"/>
       <c r="B128" s="68"/>
-      <c r="C128" s="113" t="s">
+      <c r="C128" s="111" t="s">
         <v>138</v>
       </c>
-      <c r="D128" s="114" t="s">
+      <c r="D128" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="E128" s="114" t="s">
+      <c r="E128" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="F128" s="114" t="s">
+      <c r="F128" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="G128" s="114" t="s">
+      <c r="G128" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="H128" s="115" t="s">
+      <c r="H128" s="113" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A129" s="68"/>
       <c r="B129" s="68"/>
-      <c r="C129" s="113" t="s">
+      <c r="C129" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="D129" s="114" t="s">
+      <c r="D129" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="E129" s="114" t="s">
+      <c r="E129" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="F129" s="114" t="s">
+      <c r="F129" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="G129" s="114" t="s">
+      <c r="G129" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="H129" s="115" t="s">
+      <c r="H129" s="113" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="130" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A130" s="68"/>
       <c r="B130" s="68"/>
-      <c r="C130" s="116" t="s">
+      <c r="C130" s="108" t="s">
         <v>136</v>
       </c>
-      <c r="D130" s="117" t="s">
+      <c r="D130" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="E130" s="117" t="s">
+      <c r="E130" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="F130" s="117" t="s">
+      <c r="F130" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="G130" s="117" t="s">
+      <c r="G130" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="H130" s="118" t="s">
+      <c r="H130" s="110" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6184,98 +6331,98 @@
         <v>135</v>
       </c>
       <c r="B131" s="69"/>
-      <c r="C131" s="110"/>
-      <c r="D131" s="111"/>
-      <c r="E131" s="111"/>
-      <c r="F131" s="111"/>
-      <c r="G131" s="111"/>
-      <c r="H131" s="112"/>
+      <c r="C131" s="114"/>
+      <c r="D131" s="115"/>
+      <c r="E131" s="115"/>
+      <c r="F131" s="115"/>
+      <c r="G131" s="115"/>
+      <c r="H131" s="116"/>
     </row>
     <row r="132" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A132" s="68"/>
       <c r="B132" s="68"/>
-      <c r="C132" s="113" t="s">
+      <c r="C132" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="D132" s="114" t="s">
+      <c r="D132" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="E132" s="114" t="s">
+      <c r="E132" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="F132" s="114" t="s">
+      <c r="F132" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="G132" s="114" t="s">
+      <c r="G132" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="H132" s="115" t="s">
+      <c r="H132" s="113" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A133" s="68"/>
       <c r="B133" s="68"/>
-      <c r="C133" s="113" t="s">
+      <c r="C133" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="D133" s="114" t="s">
+      <c r="D133" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="E133" s="114" t="s">
+      <c r="E133" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="F133" s="114" t="s">
+      <c r="F133" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="G133" s="114" t="s">
+      <c r="G133" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="H133" s="115" t="s">
+      <c r="H133" s="113" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A134" s="68"/>
       <c r="B134" s="68"/>
-      <c r="C134" s="113" t="s">
+      <c r="C134" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="D134" s="114" t="s">
+      <c r="D134" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="E134" s="114" t="s">
+      <c r="E134" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="F134" s="114" t="s">
+      <c r="F134" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="G134" s="114" t="s">
+      <c r="G134" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="H134" s="115" t="s">
+      <c r="H134" s="113" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A135" s="68"/>
       <c r="B135" s="68"/>
-      <c r="C135" s="116" t="s">
+      <c r="C135" s="108" t="s">
         <v>131</v>
       </c>
-      <c r="D135" s="117" t="s">
+      <c r="D135" s="109" t="s">
         <v>131</v>
       </c>
-      <c r="E135" s="117" t="s">
+      <c r="E135" s="109" t="s">
         <v>131</v>
       </c>
-      <c r="F135" s="117" t="s">
+      <c r="F135" s="109" t="s">
         <v>131</v>
       </c>
-      <c r="G135" s="117" t="s">
+      <c r="G135" s="109" t="s">
         <v>131</v>
       </c>
-      <c r="H135" s="118" t="s">
+      <c r="H135" s="110" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6284,103 +6431,187 @@
         <v>130</v>
       </c>
       <c r="B136" s="69"/>
-      <c r="C136" s="110"/>
-      <c r="D136" s="111"/>
-      <c r="E136" s="111"/>
-      <c r="F136" s="111"/>
-      <c r="G136" s="111"/>
-      <c r="H136" s="112"/>
+      <c r="C136" s="114"/>
+      <c r="D136" s="115"/>
+      <c r="E136" s="115"/>
+      <c r="F136" s="115"/>
+      <c r="G136" s="115"/>
+      <c r="H136" s="116"/>
     </row>
     <row r="137" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A137" s="68"/>
       <c r="B137" s="68"/>
-      <c r="C137" s="113" t="s">
+      <c r="C137" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="D137" s="114" t="s">
+      <c r="D137" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="E137" s="114" t="s">
+      <c r="E137" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="F137" s="114" t="s">
+      <c r="F137" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="G137" s="114" t="s">
+      <c r="G137" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="H137" s="115" t="s">
+      <c r="H137" s="113" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="138" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A138" s="68"/>
       <c r="B138" s="68"/>
-      <c r="C138" s="113" t="s">
+      <c r="C138" s="111" t="s">
         <v>128</v>
       </c>
-      <c r="D138" s="114" t="s">
+      <c r="D138" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="E138" s="114" t="s">
+      <c r="E138" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="F138" s="114" t="s">
+      <c r="F138" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="G138" s="114" t="s">
+      <c r="G138" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="H138" s="115" t="s">
+      <c r="H138" s="113" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="139" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A139" s="68"/>
       <c r="B139" s="68"/>
-      <c r="C139" s="113" t="s">
+      <c r="C139" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="D139" s="114" t="s">
+      <c r="D139" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="E139" s="114" t="s">
+      <c r="E139" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="F139" s="114" t="s">
+      <c r="F139" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="G139" s="114" t="s">
+      <c r="G139" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="H139" s="115" t="s">
+      <c r="H139" s="113" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="140" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A140" s="67"/>
       <c r="B140" s="67"/>
-      <c r="C140" s="116" t="s">
+      <c r="C140" s="108" t="s">
         <v>126</v>
       </c>
-      <c r="D140" s="117" t="s">
+      <c r="D140" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="E140" s="117" t="s">
+      <c r="E140" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="F140" s="117" t="s">
+      <c r="F140" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="G140" s="117" t="s">
+      <c r="G140" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="H140" s="118" t="s">
+      <c r="H140" s="110" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="C125:H125"/>
+    <mergeCell ref="C131:H131"/>
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="C112:H112"/>
+    <mergeCell ref="C118:H118"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C123:H123"/>
+    <mergeCell ref="C119:H119"/>
+    <mergeCell ref="C128:H128"/>
+    <mergeCell ref="C129:H129"/>
+    <mergeCell ref="C130:H130"/>
+    <mergeCell ref="C132:H132"/>
+    <mergeCell ref="C133:H133"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C122:H122"/>
+    <mergeCell ref="C124:H124"/>
+    <mergeCell ref="C126:H126"/>
+    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="C102:H102"/>
+    <mergeCell ref="C104:H104"/>
+    <mergeCell ref="C105:H105"/>
+    <mergeCell ref="C106:H106"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="C92:H92"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C43:H43"/>
     <mergeCell ref="C140:H140"/>
     <mergeCell ref="C134:H134"/>
     <mergeCell ref="C135:H135"/>
@@ -6405,90 +6636,6 @@
     <mergeCell ref="C55:H55"/>
     <mergeCell ref="C58:H58"/>
     <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C103:H103"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="C107:H107"/>
-    <mergeCell ref="C90:H90"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C104:H104"/>
-    <mergeCell ref="C105:H105"/>
-    <mergeCell ref="C106:H106"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="C92:H92"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C125:H125"/>
-    <mergeCell ref="C131:H131"/>
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="C112:H112"/>
-    <mergeCell ref="C118:H118"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C123:H123"/>
-    <mergeCell ref="C119:H119"/>
-    <mergeCell ref="C128:H128"/>
-    <mergeCell ref="C129:H129"/>
-    <mergeCell ref="C130:H130"/>
-    <mergeCell ref="C132:H132"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C122:H122"/>
-    <mergeCell ref="C124:H124"/>
-    <mergeCell ref="C126:H126"/>
-    <mergeCell ref="C127:H127"/>
   </mergeCells>
   <conditionalFormatting sqref="A34">
     <cfRule type="dataBar" priority="4">
@@ -6499,7 +6646,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37 A42 A48 A50 A55 A58 A65 A69:A70 A76 A79 A85 A90:A91 A96 A103 A107 A112 A118 A121 A123 A125 A131 A136">
+  <conditionalFormatting sqref="A42 A37 A48 A50 A55 A58 A65 A69:A70 A76 A79 A85 A90:A91 A96 A103 A107 A112 A118 A121 A123 A125 A131 A136">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min" val="0"/>
@@ -6508,7 +6655,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37 B42 B48 B50 B55 B58 B65 B69:B70 B76 B79 B85 B90:B91 B96 B103 B107 B112 B118 B121 B123 B125 B131 B136">
+  <conditionalFormatting sqref="B42 B37 B48 B50 B55 B58 B65 B69:B70 B76 B79 B85 B90:B91 B96 B103 B107 B112 B118 B121 B123 B125 B131 B136">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min" val="0"/>
@@ -6545,10 +6692,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:H32"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6577,7 +6724,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8"/>
@@ -6617,7 +6764,7 @@
       <c r="A3" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="93"/>
+      <c r="B3" s="91"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -6632,7 +6779,7 @@
       <c r="A4" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B4" s="93"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -6647,7 +6794,7 @@
       <c r="A5" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B5" s="93"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -6662,7 +6809,7 @@
       <c r="A6" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B6" s="93"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -6677,7 +6824,7 @@
       <c r="A7" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B7" s="93"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -7020,14 +7167,14 @@
       <c r="B30" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="95" t="s">
+      <c r="C30" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="97"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="107"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="21" t="str">
@@ -7035,1004 +7182,935 @@
         <v>As a player, I want to have an easy to navigate menu system with all options available</v>
       </c>
       <c r="B31" s="25"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="100"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="104"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="103"/>
+      <c r="C32" s="99" t="s">
+        <v>256</v>
+      </c>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="101"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="103"/>
+      <c r="C33" s="99" t="s">
+        <v>257</v>
+      </c>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="101"/>
     </row>
     <row r="34" spans="1:8" ht="13.5" thickBot="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="103"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="C34" s="99" t="s">
+        <v>258</v>
+      </c>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="101"/>
+    </row>
+    <row r="35" spans="1:8" ht="13.5" thickBot="1">
       <c r="A35" s="21" t="str">
         <f>A4</f>
         <v>As a player, I want a screen that I have to press start to continue</v>
       </c>
       <c r="B35" s="25"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="100"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="104"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="103"/>
+      <c r="A36" s="25" t="str">
+        <f>A5</f>
+        <v>As a player, I want a summary of my accomplishments of the level</v>
+      </c>
+      <c r="B36" s="25"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="104"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="103"/>
-    </row>
-    <row r="38" spans="1:8" ht="13.5" thickBot="1">
+      <c r="C37" s="99" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="101"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="103"/>
+      <c r="C38" s="120" t="s">
+        <v>260</v>
+      </c>
+      <c r="D38" s="121"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="122"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="25" t="str">
-        <f>A5</f>
-        <v>As a player, I want a summary of my accomplishments of the level</v>
-      </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="100"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="120" t="s">
+        <v>261</v>
+      </c>
+      <c r="D39" s="121"/>
+      <c r="E39" s="121"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="122"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="103"/>
-    </row>
-    <row r="41" spans="1:8" ht="13.5" thickBot="1">
+      <c r="C40" s="120" t="s">
+        <v>262</v>
+      </c>
+      <c r="D40" s="121"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="122"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="102"/>
-      <c r="H41" s="103"/>
+      <c r="C41" s="120" t="s">
+        <v>263</v>
+      </c>
+      <c r="D41" s="121"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="121"/>
+      <c r="H41" s="122"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="25" t="str">
-        <f>A6</f>
-        <v>As a player, I want to be able to save my progress in separate profiles so I may load them up later</v>
-      </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="100"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="120" t="s">
+        <v>264</v>
+      </c>
+      <c r="D42" s="121"/>
+      <c r="E42" s="121"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="121"/>
+      <c r="H42" s="122"/>
     </row>
     <row r="43" spans="1:8" ht="13.5" thickBot="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="103"/>
+      <c r="C43" s="120" t="s">
+        <v>265</v>
+      </c>
+      <c r="D43" s="121"/>
+      <c r="E43" s="121"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="121"/>
+      <c r="H43" s="122"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="25" t="str">
-        <f>A7</f>
-        <v xml:space="preserve">As a player, I want to be able to use the in game interface effectively </v>
+        <f>A6</f>
+        <v>As a player, I want to be able to save my progress in separate profiles so I may load them up later</v>
       </c>
       <c r="B44" s="25"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="100"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="104"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="103"/>
+      <c r="C45" s="99" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="101"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="103"/>
-    </row>
-    <row r="47" spans="1:8" ht="13.5" thickBot="1">
+      <c r="C46" s="99" t="s">
+        <v>267</v>
+      </c>
+      <c r="D46" s="100"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="101"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="102"/>
-      <c r="F47" s="102"/>
-      <c r="G47" s="102"/>
-      <c r="H47" s="103"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="21" t="str">
+      <c r="C47" s="99" t="s">
+        <v>269</v>
+      </c>
+      <c r="D47" s="100"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="101"/>
+    </row>
+    <row r="48" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="99" t="s">
+        <v>268</v>
+      </c>
+      <c r="D48" s="100"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="101"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="25" t="str">
+        <f>A7</f>
+        <v xml:space="preserve">As a player, I want to be able to use the in game interface effectively </v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="104"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="99" t="s">
+        <v>270</v>
+      </c>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="101"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="99" t="s">
+        <v>271</v>
+      </c>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="101"/>
+    </row>
+    <row r="52" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="99" t="s">
+        <v>272</v>
+      </c>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="101"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="21" t="str">
         <f>A8</f>
         <v>As a player, I want to be able to use the full range of attacks available to me</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="100"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="103"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="103"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="103"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="101"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="103"/>
-    </row>
-    <row r="53" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="101"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
-      <c r="F53" s="102"/>
-      <c r="G53" s="102"/>
-      <c r="H53" s="103"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="21" t="str">
+      <c r="B53" s="21"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="103"/>
+      <c r="G53" s="103"/>
+      <c r="H53" s="104"/>
+    </row>
+    <row r="54" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="99" t="s">
+        <v>273</v>
+      </c>
+      <c r="D54" s="100"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="101"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="21" t="str">
         <f>A9</f>
         <v>As a player, I want to be able to control all of the types of units available to me</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="98"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99"/>
-      <c r="F54" s="99"/>
-      <c r="G54" s="99"/>
-      <c r="H54" s="100"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="101"/>
-      <c r="D55" s="102"/>
-      <c r="E55" s="102"/>
-      <c r="F55" s="102"/>
-      <c r="G55" s="102"/>
-      <c r="H55" s="103"/>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="B55" s="21"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="103"/>
+      <c r="F55" s="103"/>
+      <c r="G55" s="103"/>
+      <c r="H55" s="104"/>
+    </row>
+    <row r="56" spans="1:8" ht="13.5" thickBot="1">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="101"/>
-      <c r="D56" s="102"/>
-      <c r="E56" s="102"/>
-      <c r="F56" s="102"/>
-      <c r="G56" s="102"/>
-      <c r="H56" s="103"/>
+      <c r="C56" s="99" t="s">
+        <v>274</v>
+      </c>
+      <c r="D56" s="100"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="101"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="101"/>
-      <c r="D57" s="102"/>
-      <c r="E57" s="102"/>
-      <c r="F57" s="102"/>
-      <c r="G57" s="102"/>
-      <c r="H57" s="103"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="101"/>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102"/>
-      <c r="F58" s="102"/>
-      <c r="G58" s="102"/>
-      <c r="H58" s="103"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="101"/>
-      <c r="D59" s="102"/>
-      <c r="E59" s="102"/>
-      <c r="F59" s="102"/>
-      <c r="G59" s="102"/>
-      <c r="H59" s="103"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="101"/>
-      <c r="D60" s="102"/>
-      <c r="E60" s="102"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="102"/>
-      <c r="H60" s="103"/>
-    </row>
-    <row r="61" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="101"/>
-      <c r="D61" s="102"/>
-      <c r="E61" s="102"/>
-      <c r="F61" s="102"/>
-      <c r="G61" s="102"/>
-      <c r="H61" s="103"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="25" t="str">
+      <c r="A57" s="25" t="str">
         <f>A10</f>
         <v>As a player, I want to be able to collect and use all of the powerups available to me</v>
       </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="98"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="99"/>
-      <c r="F62" s="99"/>
-      <c r="G62" s="99"/>
-      <c r="H62" s="100"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="101"/>
-      <c r="D63" s="102"/>
-      <c r="E63" s="102"/>
-      <c r="F63" s="102"/>
-      <c r="G63" s="102"/>
-      <c r="H63" s="103"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="101"/>
-      <c r="D64" s="102"/>
-      <c r="E64" s="102"/>
-      <c r="F64" s="102"/>
-      <c r="G64" s="102"/>
-      <c r="H64" s="103"/>
-    </row>
-    <row r="65" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="101"/>
-      <c r="D65" s="102"/>
-      <c r="E65" s="102"/>
-      <c r="F65" s="102"/>
-      <c r="G65" s="102"/>
-      <c r="H65" s="103"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="21" t="str">
+      <c r="B57" s="25"/>
+      <c r="C57" s="102"/>
+      <c r="D57" s="103"/>
+      <c r="E57" s="103"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="103"/>
+      <c r="H57" s="104"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="99" t="s">
+        <v>275</v>
+      </c>
+      <c r="D58" s="100"/>
+      <c r="E58" s="100"/>
+      <c r="F58" s="100"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="101"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="99" t="s">
+        <v>276</v>
+      </c>
+      <c r="D59" s="100"/>
+      <c r="E59" s="100"/>
+      <c r="F59" s="100"/>
+      <c r="G59" s="100"/>
+      <c r="H59" s="101"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="99" t="s">
+        <v>277</v>
+      </c>
+      <c r="D60" s="100"/>
+      <c r="E60" s="100"/>
+      <c r="F60" s="100"/>
+      <c r="G60" s="100"/>
+      <c r="H60" s="101"/>
+    </row>
+    <row r="61" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="99" t="s">
+        <v>278</v>
+      </c>
+      <c r="D61" s="100"/>
+      <c r="E61" s="100"/>
+      <c r="F61" s="100"/>
+      <c r="G61" s="100"/>
+      <c r="H61" s="101"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="21" t="str">
         <f>A11</f>
         <v xml:space="preserve">As a player, I want to be able to change the full range of hotkeys </v>
       </c>
+      <c r="B62" s="21"/>
+      <c r="C62" s="102"/>
+      <c r="D62" s="103"/>
+      <c r="E62" s="103"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="103"/>
+      <c r="H62" s="104"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="99" t="s">
+        <v>279</v>
+      </c>
+      <c r="D63" s="100"/>
+      <c r="E63" s="100"/>
+      <c r="F63" s="100"/>
+      <c r="G63" s="100"/>
+      <c r="H63" s="101"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="99" t="s">
+        <v>280</v>
+      </c>
+      <c r="D64" s="100"/>
+      <c r="E64" s="100"/>
+      <c r="F64" s="100"/>
+      <c r="G64" s="100"/>
+      <c r="H64" s="101"/>
+    </row>
+    <row r="65" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="99" t="s">
+        <v>281</v>
+      </c>
+      <c r="D65" s="100"/>
+      <c r="E65" s="100"/>
+      <c r="F65" s="100"/>
+      <c r="G65" s="100"/>
+      <c r="H65" s="101"/>
+    </row>
+    <row r="66" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A66" s="21" t="str">
+        <f>A12</f>
+        <v>As a player, I want to be able to use the mouse to select and control the units, pick up items and control the camera</v>
+      </c>
       <c r="B66" s="21"/>
-      <c r="C66" s="98"/>
-      <c r="D66" s="99"/>
-      <c r="E66" s="99"/>
-      <c r="F66" s="99"/>
-      <c r="G66" s="99"/>
-      <c r="H66" s="100"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="101"/>
-      <c r="D67" s="102"/>
-      <c r="E67" s="102"/>
-      <c r="F67" s="102"/>
-      <c r="G67" s="102"/>
-      <c r="H67" s="103"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="101"/>
-      <c r="D68" s="102"/>
-      <c r="E68" s="102"/>
-      <c r="F68" s="102"/>
-      <c r="G68" s="102"/>
-      <c r="H68" s="103"/>
+      <c r="C66" s="102"/>
+      <c r="D66" s="103"/>
+      <c r="E66" s="103"/>
+      <c r="F66" s="103"/>
+      <c r="G66" s="103"/>
+      <c r="H66" s="104"/>
+    </row>
+    <row r="67" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A67" s="21" t="str">
+        <f>A13</f>
+        <v>As a player, I want to be able play all of the levels</v>
+      </c>
+      <c r="B67" s="21"/>
+      <c r="C67" s="102"/>
+      <c r="D67" s="103"/>
+      <c r="E67" s="103"/>
+      <c r="F67" s="103"/>
+      <c r="G67" s="103"/>
+      <c r="H67" s="104"/>
+    </row>
+    <row r="68" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="99" t="s">
+        <v>282</v>
+      </c>
+      <c r="D68" s="100"/>
+      <c r="E68" s="100"/>
+      <c r="F68" s="100"/>
+      <c r="G68" s="100"/>
+      <c r="H68" s="101"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="101"/>
-      <c r="D69" s="102"/>
-      <c r="E69" s="102"/>
-      <c r="F69" s="102"/>
-      <c r="G69" s="102"/>
-      <c r="H69" s="103"/>
+      <c r="A69" s="21" t="str">
+        <f>A14</f>
+        <v>As a programmer, I want to have a system to play dialogue at the right time</v>
+      </c>
+      <c r="B69" s="21"/>
+      <c r="C69" s="102"/>
+      <c r="D69" s="103"/>
+      <c r="E69" s="103"/>
+      <c r="F69" s="103"/>
+      <c r="G69" s="103"/>
+      <c r="H69" s="104"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="21" t="str">
-        <f>A12</f>
-        <v>As a player, I want to be able to use the mouse to select and control the units, pick up items and control the camera</v>
+        <f>A15</f>
+        <v>As a tester, I want to be able to enter a cheat code to further me in the game</v>
       </c>
       <c r="B70" s="21"/>
-      <c r="C70" s="98"/>
-      <c r="D70" s="99"/>
-      <c r="E70" s="99"/>
-      <c r="F70" s="99"/>
-      <c r="G70" s="99"/>
-      <c r="H70" s="100"/>
-    </row>
-    <row r="71" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="101"/>
-      <c r="D71" s="102"/>
-      <c r="E71" s="102"/>
-      <c r="F71" s="102"/>
-      <c r="G71" s="102"/>
-      <c r="H71" s="103"/>
-    </row>
-    <row r="72" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A72" s="21" t="str">
-        <f>A13</f>
-        <v>As a player, I want to be able play all of the levels</v>
-      </c>
-      <c r="B72" s="21"/>
-      <c r="C72" s="98"/>
-      <c r="D72" s="99"/>
-      <c r="E72" s="99"/>
-      <c r="F72" s="99"/>
-      <c r="G72" s="99"/>
-      <c r="H72" s="100"/>
+      <c r="C70" s="102"/>
+      <c r="D70" s="103"/>
+      <c r="E70" s="103"/>
+      <c r="F70" s="103"/>
+      <c r="G70" s="103"/>
+      <c r="H70" s="104"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="99" t="s">
+        <v>283</v>
+      </c>
+      <c r="D71" s="100"/>
+      <c r="E71" s="100"/>
+      <c r="F71" s="100"/>
+      <c r="G71" s="100"/>
+      <c r="H71" s="101"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="99" t="s">
+        <v>284</v>
+      </c>
+      <c r="D72" s="100"/>
+      <c r="E72" s="100"/>
+      <c r="F72" s="100"/>
+      <c r="G72" s="100"/>
+      <c r="H72" s="101"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="101"/>
-      <c r="D73" s="102"/>
-      <c r="E73" s="102"/>
-      <c r="F73" s="102"/>
-      <c r="G73" s="102"/>
-      <c r="H73" s="103"/>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="C73" s="99" t="s">
+        <v>285</v>
+      </c>
+      <c r="D73" s="100"/>
+      <c r="E73" s="100"/>
+      <c r="F73" s="100"/>
+      <c r="G73" s="100"/>
+      <c r="H73" s="101"/>
+    </row>
+    <row r="74" spans="1:8" ht="13.5" thickBot="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="101"/>
-      <c r="D74" s="102"/>
-      <c r="E74" s="102"/>
-      <c r="F74" s="102"/>
-      <c r="G74" s="102"/>
-      <c r="H74" s="103"/>
-    </row>
-    <row r="75" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="101"/>
-      <c r="D75" s="102"/>
-      <c r="E75" s="102"/>
-      <c r="F75" s="102"/>
-      <c r="G75" s="102"/>
-      <c r="H75" s="103"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="21" t="str">
-        <f>A14</f>
-        <v>As a programmer, I want to have a system to play dialogue at the right time</v>
-      </c>
-      <c r="B76" s="21"/>
-      <c r="C76" s="98"/>
-      <c r="D76" s="99"/>
-      <c r="E76" s="99"/>
-      <c r="F76" s="99"/>
-      <c r="G76" s="99"/>
-      <c r="H76" s="100"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="101"/>
-      <c r="D77" s="102"/>
-      <c r="E77" s="102"/>
-      <c r="F77" s="102"/>
-      <c r="G77" s="102"/>
-      <c r="H77" s="103"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="101"/>
-      <c r="D78" s="102"/>
-      <c r="E78" s="102"/>
-      <c r="F78" s="102"/>
-      <c r="G78" s="102"/>
-      <c r="H78" s="103"/>
-    </row>
-    <row r="79" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="101"/>
-      <c r="D79" s="102"/>
-      <c r="E79" s="102"/>
-      <c r="F79" s="102"/>
-      <c r="G79" s="102"/>
-      <c r="H79" s="103"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="21" t="str">
-        <f>A15</f>
-        <v>As a tester, I want to be able to enter a cheat code to further me in the game</v>
-      </c>
-      <c r="B80" s="21"/>
-      <c r="C80" s="98"/>
-      <c r="D80" s="99"/>
-      <c r="E80" s="99"/>
-      <c r="F80" s="99"/>
-      <c r="G80" s="99"/>
-      <c r="H80" s="100"/>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="101"/>
-      <c r="D81" s="102"/>
-      <c r="E81" s="102"/>
-      <c r="F81" s="102"/>
-      <c r="G81" s="102"/>
-      <c r="H81" s="103"/>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="101"/>
-      <c r="D82" s="102"/>
-      <c r="E82" s="102"/>
-      <c r="F82" s="102"/>
-      <c r="G82" s="102"/>
-      <c r="H82" s="103"/>
-    </row>
-    <row r="83" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="101"/>
-      <c r="D83" s="102"/>
-      <c r="E83" s="102"/>
-      <c r="F83" s="102"/>
-      <c r="G83" s="102"/>
-      <c r="H83" s="103"/>
-    </row>
-    <row r="84" spans="1:8" ht="25.5">
-      <c r="A84" s="21" t="str">
+      <c r="C74" s="99" t="s">
+        <v>286</v>
+      </c>
+      <c r="D74" s="100"/>
+      <c r="E74" s="100"/>
+      <c r="F74" s="100"/>
+      <c r="G74" s="100"/>
+      <c r="H74" s="101"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="21" t="str">
         <f>A16</f>
         <v>As a player, I want to be able to complete levels or be able to die and have to start over</v>
       </c>
-      <c r="B84" s="21"/>
-      <c r="C84" s="98"/>
-      <c r="D84" s="99"/>
-      <c r="E84" s="99"/>
-      <c r="F84" s="99"/>
-      <c r="G84" s="99"/>
-      <c r="H84" s="100"/>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="101"/>
-      <c r="D85" s="102"/>
-      <c r="E85" s="102"/>
-      <c r="F85" s="102"/>
-      <c r="G85" s="102"/>
-      <c r="H85" s="103"/>
-    </row>
-    <row r="86" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="101"/>
-      <c r="D86" s="102"/>
-      <c r="E86" s="102"/>
-      <c r="F86" s="102"/>
-      <c r="G86" s="102"/>
-      <c r="H86" s="103"/>
-    </row>
-    <row r="87" spans="1:8" ht="25.5">
-      <c r="A87" s="21" t="str">
+      <c r="B75" s="21"/>
+      <c r="C75" s="102"/>
+      <c r="D75" s="103"/>
+      <c r="E75" s="103"/>
+      <c r="F75" s="103"/>
+      <c r="G75" s="103"/>
+      <c r="H75" s="104"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="99" t="s">
+        <v>287</v>
+      </c>
+      <c r="D76" s="100"/>
+      <c r="E76" s="100"/>
+      <c r="F76" s="100"/>
+      <c r="G76" s="100"/>
+      <c r="H76" s="101"/>
+    </row>
+    <row r="77" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="99" t="s">
+        <v>288</v>
+      </c>
+      <c r="D77" s="100"/>
+      <c r="E77" s="100"/>
+      <c r="F77" s="100"/>
+      <c r="G77" s="100"/>
+      <c r="H77" s="101"/>
+    </row>
+    <row r="78" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A78" s="21" t="str">
         <f>A17</f>
         <v>As a developer, I want characters to behave differently using different states to control them</v>
       </c>
-      <c r="B87" s="21"/>
-      <c r="C87" s="98"/>
-      <c r="D87" s="99"/>
-      <c r="E87" s="99"/>
-      <c r="F87" s="99"/>
-      <c r="G87" s="99"/>
-      <c r="H87" s="100"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="102"/>
+      <c r="D78" s="103"/>
+      <c r="E78" s="103"/>
+      <c r="F78" s="103"/>
+      <c r="G78" s="103"/>
+      <c r="H78" s="104"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="21" t="str">
+        <f>A18</f>
+        <v>As a player, I want enemies to make informed decisions</v>
+      </c>
+      <c r="B79" s="21"/>
+      <c r="C79" s="102"/>
+      <c r="D79" s="103"/>
+      <c r="E79" s="103"/>
+      <c r="F79" s="103"/>
+      <c r="G79" s="103"/>
+      <c r="H79" s="104"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="99" t="s">
+        <v>289</v>
+      </c>
+      <c r="D80" s="100"/>
+      <c r="E80" s="100"/>
+      <c r="F80" s="100"/>
+      <c r="G80" s="100"/>
+      <c r="H80" s="101"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="99" t="s">
+        <v>290</v>
+      </c>
+      <c r="D81" s="100"/>
+      <c r="E81" s="100"/>
+      <c r="F81" s="100"/>
+      <c r="G81" s="100"/>
+      <c r="H81" s="101"/>
+    </row>
+    <row r="82" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="99" t="s">
+        <v>291</v>
+      </c>
+      <c r="D82" s="100"/>
+      <c r="E82" s="100"/>
+      <c r="F82" s="100"/>
+      <c r="G82" s="100"/>
+      <c r="H82" s="101"/>
+    </row>
+    <row r="83" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A83" s="21" t="str">
+        <f>A19</f>
+        <v>As a player, when I'm not controlling the survivors, I want them to make basic decisions based on their type</v>
+      </c>
+      <c r="B83" s="21"/>
+      <c r="C83" s="102"/>
+      <c r="D83" s="103"/>
+      <c r="E83" s="103"/>
+      <c r="F83" s="103"/>
+      <c r="G83" s="103"/>
+      <c r="H83" s="104"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="21" t="str">
+        <f>A20</f>
+        <v>As a player, I want bosses to use their abilities to make challenging battles</v>
+      </c>
+      <c r="B84" s="21"/>
+      <c r="C84" s="102"/>
+      <c r="D84" s="103"/>
+      <c r="E84" s="103"/>
+      <c r="F84" s="103"/>
+      <c r="G84" s="103"/>
+      <c r="H84" s="104"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="99" t="s">
+        <v>292</v>
+      </c>
+      <c r="D85" s="100"/>
+      <c r="E85" s="100"/>
+      <c r="F85" s="100"/>
+      <c r="G85" s="100"/>
+      <c r="H85" s="101"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="99" t="s">
+        <v>293</v>
+      </c>
+      <c r="D86" s="100"/>
+      <c r="E86" s="100"/>
+      <c r="F86" s="100"/>
+      <c r="G86" s="100"/>
+      <c r="H86" s="101"/>
+    </row>
+    <row r="87" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="99" t="s">
+        <v>294</v>
+      </c>
+      <c r="D87" s="100"/>
+      <c r="E87" s="100"/>
+      <c r="F87" s="100"/>
+      <c r="G87" s="100"/>
+      <c r="H87" s="101"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="89"/>
-      <c r="B88" s="89"/>
-      <c r="C88" s="104"/>
-      <c r="D88" s="105"/>
-      <c r="E88" s="105"/>
-      <c r="F88" s="105"/>
-      <c r="G88" s="105"/>
-      <c r="H88" s="106"/>
+      <c r="A88" s="21" t="str">
+        <f>A21</f>
+        <v>As a player, I want all units to avoid solid objects in order to reach their destination</v>
+      </c>
+      <c r="B88" s="21"/>
+      <c r="C88" s="102"/>
+      <c r="D88" s="103"/>
+      <c r="E88" s="103"/>
+      <c r="F88" s="103"/>
+      <c r="G88" s="103"/>
+      <c r="H88" s="104"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="89"/>
-      <c r="B89" s="89"/>
-      <c r="C89" s="104"/>
-      <c r="D89" s="105"/>
-      <c r="E89" s="105"/>
-      <c r="F89" s="105"/>
-      <c r="G89" s="105"/>
-      <c r="H89" s="106"/>
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="99" t="s">
+        <v>295</v>
+      </c>
+      <c r="D89" s="100"/>
+      <c r="E89" s="100"/>
+      <c r="F89" s="100"/>
+      <c r="G89" s="100"/>
+      <c r="H89" s="101"/>
     </row>
     <row r="90" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A90" s="90"/>
-      <c r="B90" s="90"/>
-      <c r="C90" s="107"/>
-      <c r="D90" s="108"/>
-      <c r="E90" s="108"/>
-      <c r="F90" s="108"/>
-      <c r="G90" s="108"/>
-      <c r="H90" s="109"/>
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="99" t="s">
+        <v>296</v>
+      </c>
+      <c r="D90" s="100"/>
+      <c r="E90" s="100"/>
+      <c r="F90" s="100"/>
+      <c r="G90" s="100"/>
+      <c r="H90" s="101"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="21" t="str">
-        <f>A18</f>
-        <v>As a player, I want enemies to make informed decisions</v>
+        <f>A22</f>
+        <v>As a player, I want to hear background music and sound effects all throughout the game</v>
       </c>
       <c r="B91" s="21"/>
-      <c r="C91" s="98"/>
-      <c r="D91" s="99"/>
-      <c r="E91" s="99"/>
-      <c r="F91" s="99"/>
-      <c r="G91" s="99"/>
-      <c r="H91" s="100"/>
+      <c r="C91" s="102"/>
+      <c r="D91" s="103"/>
+      <c r="E91" s="103"/>
+      <c r="F91" s="103"/>
+      <c r="G91" s="103"/>
+      <c r="H91" s="104"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="101"/>
-      <c r="D92" s="102"/>
-      <c r="E92" s="102"/>
-      <c r="F92" s="102"/>
-      <c r="G92" s="102"/>
-      <c r="H92" s="103"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="101"/>
-      <c r="D93" s="102"/>
-      <c r="E93" s="102"/>
-      <c r="F93" s="102"/>
-      <c r="G93" s="102"/>
-      <c r="H93" s="103"/>
-    </row>
-    <row r="94" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="101"/>
-      <c r="D94" s="102"/>
-      <c r="E94" s="102"/>
-      <c r="F94" s="102"/>
-      <c r="G94" s="102"/>
-      <c r="H94" s="103"/>
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="99" t="s">
+        <v>297</v>
+      </c>
+      <c r="D92" s="100"/>
+      <c r="E92" s="100"/>
+      <c r="F92" s="100"/>
+      <c r="G92" s="100"/>
+      <c r="H92" s="101"/>
+    </row>
+    <row r="93" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="99" t="s">
+        <v>298</v>
+      </c>
+      <c r="D93" s="100"/>
+      <c r="E93" s="100"/>
+      <c r="F93" s="100"/>
+      <c r="G93" s="100"/>
+      <c r="H93" s="101"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="21" t="str">
+        <f>A23</f>
+        <v>As a player, I want to be able to save progress throughout the levels</v>
+      </c>
+      <c r="B94" s="21"/>
+      <c r="C94" s="102"/>
+      <c r="D94" s="103"/>
+      <c r="E94" s="103"/>
+      <c r="F94" s="103"/>
+      <c r="G94" s="103"/>
+      <c r="H94" s="104"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="21" t="str">
-        <f>A19</f>
-        <v>As a player, when I'm not controlling the survivors, I want them to make basic decisions based on their type</v>
-      </c>
-      <c r="B95" s="21"/>
-      <c r="C95" s="98"/>
-      <c r="D95" s="99"/>
-      <c r="E95" s="99"/>
-      <c r="F95" s="99"/>
-      <c r="G95" s="99"/>
-      <c r="H95" s="100"/>
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="99" t="s">
+        <v>299</v>
+      </c>
+      <c r="D95" s="100"/>
+      <c r="E95" s="100"/>
+      <c r="F95" s="100"/>
+      <c r="G95" s="100"/>
+      <c r="H95" s="101"/>
     </row>
     <row r="96" spans="1:8" ht="13.5" thickBot="1">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
-      <c r="C96" s="101"/>
-      <c r="D96" s="102"/>
-      <c r="E96" s="102"/>
-      <c r="F96" s="102"/>
-      <c r="G96" s="102"/>
-      <c r="H96" s="103"/>
+      <c r="C96" s="99" t="s">
+        <v>300</v>
+      </c>
+      <c r="D96" s="100"/>
+      <c r="E96" s="100"/>
+      <c r="F96" s="100"/>
+      <c r="G96" s="100"/>
+      <c r="H96" s="101"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="21" t="str">
-        <f>A20</f>
-        <v>As a player, I want bosses to use their abilities to make challenging battles</v>
-      </c>
-      <c r="B97" s="21"/>
-      <c r="C97" s="98"/>
-      <c r="D97" s="99"/>
-      <c r="E97" s="99"/>
-      <c r="F97" s="99"/>
-      <c r="G97" s="99"/>
-      <c r="H97" s="100"/>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="101"/>
-      <c r="D98" s="102"/>
-      <c r="E98" s="102"/>
-      <c r="F98" s="102"/>
-      <c r="G98" s="102"/>
-      <c r="H98" s="103"/>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="101"/>
-      <c r="D99" s="102"/>
-      <c r="E99" s="102"/>
-      <c r="F99" s="102"/>
-      <c r="G99" s="102"/>
-      <c r="H99" s="103"/>
-    </row>
-    <row r="100" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="101"/>
-      <c r="D100" s="102"/>
-      <c r="E100" s="102"/>
-      <c r="F100" s="102"/>
-      <c r="G100" s="102"/>
-      <c r="H100" s="103"/>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="21" t="str">
-        <f>A21</f>
-        <v>As a player, I want all units to avoid solid objects in order to reach their destination</v>
-      </c>
-      <c r="B101" s="21"/>
-      <c r="C101" s="98"/>
-      <c r="D101" s="99"/>
-      <c r="E101" s="99"/>
-      <c r="F101" s="99"/>
-      <c r="G101" s="99"/>
-      <c r="H101" s="100"/>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="101"/>
-      <c r="D102" s="102"/>
-      <c r="E102" s="102"/>
-      <c r="F102" s="102"/>
-      <c r="G102" s="102"/>
-      <c r="H102" s="103"/>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="101"/>
-      <c r="D103" s="102"/>
-      <c r="E103" s="102"/>
-      <c r="F103" s="102"/>
-      <c r="G103" s="102"/>
-      <c r="H103" s="103"/>
-    </row>
-    <row r="104" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="101"/>
-      <c r="D104" s="102"/>
-      <c r="E104" s="102"/>
-      <c r="F104" s="102"/>
-      <c r="G104" s="102"/>
-      <c r="H104" s="103"/>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="21" t="str">
-        <f>A22</f>
-        <v>As a player, I want to hear background music and sound effects all throughout the game</v>
-      </c>
-      <c r="B105" s="21"/>
-      <c r="C105" s="98"/>
-      <c r="D105" s="99"/>
-      <c r="E105" s="99"/>
-      <c r="F105" s="99"/>
-      <c r="G105" s="99"/>
-      <c r="H105" s="100"/>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="101"/>
-      <c r="D106" s="102"/>
-      <c r="E106" s="102"/>
-      <c r="F106" s="102"/>
-      <c r="G106" s="102"/>
-      <c r="H106" s="103"/>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="101"/>
-      <c r="D107" s="102"/>
-      <c r="E107" s="102"/>
-      <c r="F107" s="102"/>
-      <c r="G107" s="102"/>
-      <c r="H107" s="103"/>
-    </row>
-    <row r="108" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="101"/>
-      <c r="D108" s="102"/>
-      <c r="E108" s="102"/>
-      <c r="F108" s="102"/>
-      <c r="G108" s="102"/>
-      <c r="H108" s="103"/>
-    </row>
-    <row r="109" spans="1:8" ht="25.5">
-      <c r="A109" s="21" t="str">
-        <f>A23</f>
-        <v>As a player, I want to be able to save progress throughout the levels</v>
-      </c>
-      <c r="B109" s="21"/>
-      <c r="C109" s="98"/>
-      <c r="D109" s="99"/>
-      <c r="E109" s="99"/>
-      <c r="F109" s="99"/>
-      <c r="G109" s="99"/>
-      <c r="H109" s="100"/>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="101"/>
-      <c r="D110" s="102"/>
-      <c r="E110" s="102"/>
-      <c r="F110" s="102"/>
-      <c r="G110" s="102"/>
-      <c r="H110" s="103"/>
-    </row>
-    <row r="111" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="101"/>
-      <c r="D111" s="102"/>
-      <c r="E111" s="102"/>
-      <c r="F111" s="102"/>
-      <c r="G111" s="102"/>
-      <c r="H111" s="103"/>
-    </row>
-    <row r="112" spans="1:8" ht="25.5">
-      <c r="A112" s="21" t="str">
         <f>A24</f>
         <v>As a developer, I want to have all of my assets in place</v>
       </c>
-      <c r="B112" s="21"/>
-      <c r="C112" s="98"/>
-      <c r="D112" s="99"/>
-      <c r="E112" s="99"/>
-      <c r="F112" s="99"/>
-      <c r="G112" s="99"/>
-      <c r="H112" s="100"/>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="91"/>
-      <c r="B113" s="91"/>
-      <c r="C113" s="104"/>
-      <c r="D113" s="105"/>
-      <c r="E113" s="105"/>
-      <c r="F113" s="105"/>
-      <c r="G113" s="105"/>
-      <c r="H113" s="106"/>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="91"/>
-      <c r="B114" s="91"/>
-      <c r="C114" s="104"/>
-      <c r="D114" s="105"/>
-      <c r="E114" s="105"/>
-      <c r="F114" s="105"/>
-      <c r="G114" s="105"/>
-      <c r="H114" s="106"/>
-    </row>
-    <row r="115" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A115" s="92"/>
-      <c r="B115" s="92"/>
-      <c r="C115" s="107"/>
-      <c r="D115" s="108"/>
-      <c r="E115" s="108"/>
-      <c r="F115" s="108"/>
-      <c r="G115" s="108"/>
-      <c r="H115" s="109"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="102"/>
+      <c r="D97" s="103"/>
+      <c r="E97" s="103"/>
+      <c r="F97" s="103"/>
+      <c r="G97" s="103"/>
+      <c r="H97" s="104"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="89"/>
+      <c r="B98" s="89"/>
+      <c r="C98" s="93" t="s">
+        <v>301</v>
+      </c>
+      <c r="D98" s="94"/>
+      <c r="E98" s="94"/>
+      <c r="F98" s="94"/>
+      <c r="G98" s="94"/>
+      <c r="H98" s="95"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="89"/>
+      <c r="B99" s="89"/>
+      <c r="C99" s="93" t="s">
+        <v>302</v>
+      </c>
+      <c r="D99" s="94"/>
+      <c r="E99" s="94"/>
+      <c r="F99" s="94"/>
+      <c r="G99" s="94"/>
+      <c r="H99" s="95"/>
+    </row>
+    <row r="100" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A100" s="90"/>
+      <c r="B100" s="90"/>
+      <c r="C100" s="96" t="s">
+        <v>303</v>
+      </c>
+      <c r="D100" s="97"/>
+      <c r="E100" s="97"/>
+      <c r="F100" s="97"/>
+      <c r="G100" s="97"/>
+      <c r="H100" s="98"/>
     </row>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="C115:H115"/>
-    <mergeCell ref="C110:H110"/>
-    <mergeCell ref="C111:H111"/>
-    <mergeCell ref="C112:H112"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="C114:H114"/>
-    <mergeCell ref="C105:H105"/>
-    <mergeCell ref="C106:H106"/>
-    <mergeCell ref="C107:H107"/>
-    <mergeCell ref="C108:H108"/>
-    <mergeCell ref="C109:H109"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="C102:H102"/>
-    <mergeCell ref="C103:H103"/>
-    <mergeCell ref="C104:H104"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="C92:H92"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
+  <mergeCells count="71">
+    <mergeCell ref="C46:H46"/>
     <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C73:H73"/>
     <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C41:H41"/>
     <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
     <mergeCell ref="C42:H42"/>
     <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
     <mergeCell ref="C57:H57"/>
     <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C59:H59"/>
     <mergeCell ref="C61:H61"/>
     <mergeCell ref="C62:H62"/>
     <mergeCell ref="C63:H63"/>
     <mergeCell ref="C64:H64"/>
     <mergeCell ref="C65:H65"/>
     <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
     <mergeCell ref="C79:H79"/>
     <mergeCell ref="C80:H80"/>
     <mergeCell ref="C81:H81"/>
     <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C83:H83"/>
     <mergeCell ref="C84:H84"/>
     <mergeCell ref="C85:H85"/>
     <mergeCell ref="C86:H86"/>
     <mergeCell ref="C87:H87"/>
     <mergeCell ref="C88:H88"/>
     <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="C92:H92"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
   </mergeCells>
   <conditionalFormatting sqref="A31">
     <cfRule type="dataBar" priority="2">

--- a/Sprint 1, 2, 3 UserStories.xlsx
+++ b/Sprint 1, 2, 3 UserStories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="11355" windowHeight="9210" tabRatio="648" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="11355" windowHeight="9210" tabRatio="648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Directions" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="302">
   <si>
     <t>As a team member, I want to design the interface for the game through pictures</t>
   </si>
@@ -398,12 +398,6 @@
   </si>
   <si>
     <t>dpmakin@gmail.com</t>
-  </si>
-  <si>
-    <t>407-923-1876</t>
-  </si>
-  <si>
-    <t>darth.kerpal@gmail.com</t>
   </si>
   <si>
     <t>tabu34@gmail.com</t>
@@ -1481,6 +1475,33 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1499,40 +1520,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1544,13 +1538,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2164,7 +2158,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2224,25 +2218,19 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="57" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>124</v>
-      </c>
+      <c r="A8" s="44"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="58"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="47"/>
@@ -2284,8 +2272,6 @@
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1"/>
     <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2298,7 +2284,7 @@
   </sheetPr>
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
       <selection activeCell="C25" sqref="C25:H27"/>
     </sheetView>
   </sheetViews>
@@ -2342,11 +2328,11 @@
       </c>
       <c r="E2" s="15" t="str">
         <f>'Team info'!A7</f>
-        <v>Manuel Diaz</v>
-      </c>
-      <c r="F2" s="15" t="str">
+        <v>Nick Kemner</v>
+      </c>
+      <c r="F2" s="15">
         <f>'Team info'!A8</f>
-        <v>Nick Kemner</v>
+        <v>0</v>
       </c>
       <c r="G2" s="15">
         <f>'Team info'!A9</f>
@@ -2742,11 +2728,11 @@
       </c>
       <c r="E20" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>Manuel Diaz</v>
-      </c>
-      <c r="F20" s="15" t="str">
+        <v>Nick Kemner</v>
+      </c>
+      <c r="F20" s="15">
         <f t="shared" si="0"/>
-        <v>Nick Kemner</v>
+        <v>0</v>
       </c>
       <c r="G20" s="15">
         <f t="shared" si="0"/>
@@ -2775,7 +2761,7 @@
       </c>
       <c r="F21" s="9">
         <f>SUMIF(K3:K17,F20,J3:J17)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G21" s="9">
         <f>SUMIF(K3:K17,G20,J3:J17)</f>
@@ -2798,14 +2784,14 @@
       <c r="B23" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="105" t="s">
+      <c r="C23" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="107"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="95"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="25" t="s">
@@ -2814,12 +2800,12 @@
       <c r="B24" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="104"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="98"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="4"/>
@@ -2864,12 +2850,12 @@
       <c r="B28" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="104"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="98"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="4"/>
@@ -2914,12 +2900,12 @@
       <c r="B32" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="102"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="104"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="98"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="4"/>
@@ -2952,12 +2938,12 @@
       <c r="B35" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="102"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="104"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="98"/>
     </row>
     <row r="36" spans="1:8" ht="13.5" thickBot="1">
       <c r="A36" s="4"/>
@@ -2978,12 +2964,12 @@
       <c r="B37" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="102"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="104"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="98"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="4"/>
@@ -3028,12 +3014,12 @@
       <c r="B41" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="102"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="104"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="98"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="6"/>
@@ -3102,12 +3088,12 @@
       <c r="B47" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="102"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="103"/>
-      <c r="H47" s="104"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="98"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="6"/>
@@ -3200,12 +3186,12 @@
       <c r="B55" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="102"/>
-      <c r="D55" s="103"/>
-      <c r="E55" s="103"/>
-      <c r="F55" s="103"/>
-      <c r="G55" s="103"/>
-      <c r="H55" s="104"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="97"/>
+      <c r="F55" s="97"/>
+      <c r="G55" s="97"/>
+      <c r="H55" s="98"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="4"/>
@@ -3250,12 +3236,12 @@
       <c r="B59" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="102"/>
-      <c r="D59" s="103"/>
-      <c r="E59" s="103"/>
-      <c r="F59" s="103"/>
-      <c r="G59" s="103"/>
-      <c r="H59" s="104"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="97"/>
+      <c r="E59" s="97"/>
+      <c r="F59" s="97"/>
+      <c r="G59" s="97"/>
+      <c r="H59" s="98"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="6"/>
@@ -3300,12 +3286,12 @@
       <c r="B63" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="102"/>
-      <c r="D63" s="103"/>
-      <c r="E63" s="103"/>
-      <c r="F63" s="103"/>
-      <c r="G63" s="103"/>
-      <c r="H63" s="104"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="97"/>
+      <c r="F63" s="97"/>
+      <c r="G63" s="97"/>
+      <c r="H63" s="98"/>
     </row>
     <row r="64" spans="1:8" ht="13.5" thickBot="1">
       <c r="A64" s="6"/>
@@ -3326,12 +3312,12 @@
       <c r="B65" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="102"/>
-      <c r="D65" s="103"/>
-      <c r="E65" s="103"/>
-      <c r="F65" s="103"/>
-      <c r="G65" s="103"/>
-      <c r="H65" s="104"/>
+      <c r="C65" s="96"/>
+      <c r="D65" s="97"/>
+      <c r="E65" s="97"/>
+      <c r="F65" s="97"/>
+      <c r="G65" s="97"/>
+      <c r="H65" s="98"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4"/>
@@ -3376,12 +3362,12 @@
       <c r="B69" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="102"/>
-      <c r="D69" s="103"/>
-      <c r="E69" s="103"/>
-      <c r="F69" s="103"/>
-      <c r="G69" s="103"/>
-      <c r="H69" s="104"/>
+      <c r="C69" s="96"/>
+      <c r="D69" s="97"/>
+      <c r="E69" s="97"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="97"/>
+      <c r="H69" s="98"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="4"/>
@@ -3426,12 +3412,12 @@
       <c r="B73" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="102"/>
-      <c r="D73" s="103"/>
-      <c r="E73" s="103"/>
-      <c r="F73" s="103"/>
-      <c r="G73" s="103"/>
-      <c r="H73" s="104"/>
+      <c r="C73" s="96"/>
+      <c r="D73" s="97"/>
+      <c r="E73" s="97"/>
+      <c r="F73" s="97"/>
+      <c r="G73" s="97"/>
+      <c r="H73" s="98"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="4"/>
@@ -3476,12 +3462,12 @@
       <c r="B77" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="102"/>
-      <c r="D77" s="103"/>
-      <c r="E77" s="103"/>
-      <c r="F77" s="103"/>
-      <c r="G77" s="103"/>
-      <c r="H77" s="104"/>
+      <c r="C77" s="96"/>
+      <c r="D77" s="97"/>
+      <c r="E77" s="97"/>
+      <c r="F77" s="97"/>
+      <c r="G77" s="97"/>
+      <c r="H77" s="98"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="6"/>
@@ -3514,56 +3500,95 @@
       <c r="B80" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="102"/>
-      <c r="D80" s="103"/>
-      <c r="E80" s="103"/>
-      <c r="F80" s="103"/>
-      <c r="G80" s="103"/>
-      <c r="H80" s="104"/>
+      <c r="C80" s="96"/>
+      <c r="D80" s="97"/>
+      <c r="E80" s="97"/>
+      <c r="F80" s="97"/>
+      <c r="G80" s="97"/>
+      <c r="H80" s="98"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="26"/>
       <c r="B81" s="26"/>
-      <c r="C81" s="93" t="s">
+      <c r="C81" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D81" s="94"/>
-      <c r="E81" s="94"/>
-      <c r="F81" s="94"/>
-      <c r="G81" s="94"/>
-      <c r="H81" s="95"/>
+      <c r="D81" s="103"/>
+      <c r="E81" s="103"/>
+      <c r="F81" s="103"/>
+      <c r="G81" s="103"/>
+      <c r="H81" s="104"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="26"/>
       <c r="B82" s="26"/>
-      <c r="C82" s="93" t="s">
+      <c r="C82" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="D82" s="94"/>
-      <c r="E82" s="94"/>
-      <c r="F82" s="94"/>
-      <c r="G82" s="94"/>
-      <c r="H82" s="95"/>
+      <c r="D82" s="103"/>
+      <c r="E82" s="103"/>
+      <c r="F82" s="103"/>
+      <c r="G82" s="103"/>
+      <c r="H82" s="104"/>
     </row>
     <row r="83" spans="1:8" ht="13.5" thickBot="1">
       <c r="A83" s="24"/>
       <c r="B83" s="24"/>
-      <c r="C83" s="96" t="s">
+      <c r="C83" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="D83" s="97"/>
-      <c r="E83" s="97"/>
-      <c r="F83" s="97"/>
-      <c r="G83" s="97"/>
-      <c r="H83" s="98"/>
+      <c r="D83" s="106"/>
+      <c r="E83" s="106"/>
+      <c r="F83" s="106"/>
+      <c r="G83" s="106"/>
+      <c r="H83" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
     <mergeCell ref="C39:H39"/>
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="C29:H29"/>
@@ -3576,50 +3601,11 @@
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C37:H37"/>
     <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A24">
@@ -3652,7 +3638,7 @@
   </sheetPr>
   <dimension ref="A1:K140"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
       <selection activeCell="C36" sqref="C36:H36"/>
     </sheetView>
   </sheetViews>
@@ -3673,7 +3659,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" thickBot="1">
       <c r="A1" s="87" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C1" s="86" t="s">
         <v>13</v>
@@ -3697,11 +3683,11 @@
       </c>
       <c r="E2" s="15" t="str">
         <f>'Team info'!A7</f>
-        <v>Manuel Diaz</v>
-      </c>
-      <c r="F2" s="15" t="str">
+        <v>Nick Kemner</v>
+      </c>
+      <c r="F2" s="15">
         <f>'Team info'!A8</f>
-        <v>Nick Kemner</v>
+        <v>0</v>
       </c>
       <c r="G2" s="15">
         <f>'Team info'!A9</f>
@@ -3721,7 +3707,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="81" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B3" s="68"/>
       <c r="C3" s="3">
@@ -3748,7 +3734,7 @@
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="80" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B4" s="68"/>
       <c r="C4" s="5">
@@ -3775,7 +3761,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="80" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B5" s="68"/>
       <c r="C5" s="5">
@@ -3802,7 +3788,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="80" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="5">
@@ -3829,7 +3815,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="80" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B7" s="68"/>
       <c r="C7" s="5">
@@ -3856,7 +3842,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="79" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B8" s="68"/>
       <c r="C8" s="5">
@@ -3883,7 +3869,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="77" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B9" s="68"/>
       <c r="C9" s="5">
@@ -3910,7 +3896,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="77" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B10" s="68"/>
       <c r="C10" s="5">
@@ -3937,7 +3923,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="77" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B11" s="77"/>
       <c r="C11" s="5">
@@ -3964,7 +3950,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="77" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B12" s="77"/>
       <c r="C12" s="5">
@@ -3991,7 +3977,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="68" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B13" s="68"/>
       <c r="C13" s="5">
@@ -4018,7 +4004,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="68" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B14" s="68"/>
       <c r="C14" s="5">
@@ -4045,7 +4031,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="68" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B15" s="68"/>
       <c r="C15" s="5">
@@ -4072,7 +4058,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="77" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B16" s="77"/>
       <c r="C16" s="5">
@@ -4099,7 +4085,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="77" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B17" s="77"/>
       <c r="C17" s="5">
@@ -4126,7 +4112,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="77" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B18" s="77"/>
       <c r="C18" s="5">
@@ -4153,7 +4139,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="77" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B19" s="77"/>
       <c r="C19" s="5">
@@ -4180,7 +4166,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="77" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B20" s="77"/>
       <c r="C20" s="5">
@@ -4207,7 +4193,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B21" s="77"/>
       <c r="C21" s="5">
@@ -4234,7 +4220,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B22" s="77"/>
       <c r="C22" s="5">
@@ -4261,7 +4247,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="77" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B23" s="77"/>
       <c r="C23" s="5">
@@ -4288,7 +4274,7 @@
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1">
       <c r="A24" s="77" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B24" s="77"/>
       <c r="C24" s="5">
@@ -4315,7 +4301,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="77" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" s="77"/>
       <c r="C25" s="5">
@@ -4342,7 +4328,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="77" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B26" s="77"/>
       <c r="C26" s="5">
@@ -4369,7 +4355,7 @@
     </row>
     <row r="27" spans="1:11" ht="13.5" thickBot="1">
       <c r="A27" s="78" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B27" s="77"/>
       <c r="C27" s="2">
@@ -4415,11 +4401,11 @@
       </c>
       <c r="E30" s="75" t="str">
         <f t="shared" si="0"/>
-        <v>Manuel Diaz</v>
-      </c>
-      <c r="F30" s="75" t="str">
+        <v>Nick Kemner</v>
+      </c>
+      <c r="F30" s="75">
         <f t="shared" si="0"/>
-        <v>Nick Kemner</v>
+        <v>0</v>
       </c>
       <c r="G30" s="75">
         <f t="shared" si="0"/>
@@ -4444,11 +4430,11 @@
       </c>
       <c r="E31" s="73">
         <f>SUMIF(K3:K27,E30,J3:J27)</f>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F31" s="73">
         <f>SUMIF(K3:K27,F30,J3:J27)</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G31" s="73">
         <f>SUMIF(K3:K27,G30,J3:J27)</f>
@@ -4482,23 +4468,23 @@
     </row>
     <row r="34" spans="1:8" s="40" customFormat="1">
       <c r="A34" s="69" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B34" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="114"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="116"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="110"/>
     </row>
     <row r="35" spans="1:8" s="40" customFormat="1">
       <c r="A35" s="68"/>
       <c r="B35" s="68"/>
       <c r="C35" s="111" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D35" s="112"/>
       <c r="E35" s="112"/>
@@ -4509,288 +4495,288 @@
     <row r="36" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1">
       <c r="A36" s="68"/>
       <c r="B36" s="68"/>
-      <c r="C36" s="108" t="s">
-        <v>230</v>
-      </c>
-      <c r="D36" s="109"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="109"/>
-      <c r="H36" s="110"/>
+      <c r="C36" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="116"/>
     </row>
     <row r="37" spans="1:8" s="40" customFormat="1" ht="25.5">
       <c r="A37" s="70" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B37" s="69"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="116"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="110"/>
     </row>
     <row r="38" spans="1:8" s="40" customFormat="1">
       <c r="A38" s="68"/>
       <c r="B38" s="68"/>
       <c r="C38" s="111" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D38" s="112" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E38" s="112" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F38" s="112" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G38" s="112" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H38" s="113" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A39" s="68"/>
       <c r="B39" s="68"/>
       <c r="C39" s="111" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D39" s="112" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E39" s="112" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F39" s="112" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G39" s="112" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H39" s="113" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A40" s="68"/>
       <c r="B40" s="68"/>
       <c r="C40" s="111" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D40" s="112" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E40" s="112" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F40" s="112" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G40" s="112" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H40" s="113" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A41" s="68"/>
       <c r="B41" s="68"/>
-      <c r="C41" s="108" t="s">
-        <v>225</v>
-      </c>
-      <c r="D41" s="109" t="s">
-        <v>225</v>
-      </c>
-      <c r="E41" s="109" t="s">
-        <v>225</v>
-      </c>
-      <c r="F41" s="109" t="s">
-        <v>225</v>
-      </c>
-      <c r="G41" s="109" t="s">
-        <v>225</v>
-      </c>
-      <c r="H41" s="110" t="s">
-        <v>225</v>
+      <c r="C41" s="114" t="s">
+        <v>223</v>
+      </c>
+      <c r="D41" s="115" t="s">
+        <v>223</v>
+      </c>
+      <c r="E41" s="115" t="s">
+        <v>223</v>
+      </c>
+      <c r="F41" s="115" t="s">
+        <v>223</v>
+      </c>
+      <c r="G41" s="115" t="s">
+        <v>223</v>
+      </c>
+      <c r="H41" s="116" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="40" customFormat="1">
       <c r="A42" s="69" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B42" s="69"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="116"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="109"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="110"/>
     </row>
     <row r="43" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A43" s="68"/>
       <c r="B43" s="68"/>
       <c r="C43" s="111" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D43" s="112" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E43" s="112" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F43" s="112" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G43" s="112" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H43" s="113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A44" s="68"/>
       <c r="B44" s="68"/>
       <c r="C44" s="111" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D44" s="112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E44" s="112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F44" s="112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G44" s="112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H44" s="113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A45" s="68"/>
       <c r="B45" s="68"/>
       <c r="C45" s="111" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D45" s="112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E45" s="112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F45" s="112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G45" s="112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H45" s="113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A46" s="68"/>
       <c r="B46" s="68"/>
       <c r="C46" s="111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D46" s="112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E46" s="112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F46" s="112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G46" s="112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H46" s="113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A47" s="68"/>
       <c r="B47" s="68"/>
-      <c r="C47" s="108" t="s">
-        <v>217</v>
-      </c>
-      <c r="D47" s="109" t="s">
-        <v>217</v>
-      </c>
-      <c r="E47" s="109" t="s">
-        <v>217</v>
-      </c>
-      <c r="F47" s="109" t="s">
-        <v>217</v>
-      </c>
-      <c r="G47" s="109" t="s">
-        <v>217</v>
-      </c>
-      <c r="H47" s="110" t="s">
-        <v>217</v>
+      <c r="C47" s="114" t="s">
+        <v>215</v>
+      </c>
+      <c r="D47" s="115" t="s">
+        <v>215</v>
+      </c>
+      <c r="E47" s="115" t="s">
+        <v>215</v>
+      </c>
+      <c r="F47" s="115" t="s">
+        <v>215</v>
+      </c>
+      <c r="G47" s="115" t="s">
+        <v>215</v>
+      </c>
+      <c r="H47" s="116" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="40" customFormat="1">
       <c r="A48" s="70" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B48" s="69"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
-      <c r="G48" s="115"/>
-      <c r="H48" s="116"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="109"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="109"/>
+      <c r="H48" s="110"/>
     </row>
     <row r="49" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1">
       <c r="A49" s="68"/>
       <c r="B49" s="68"/>
-      <c r="C49" s="108" t="s">
-        <v>218</v>
-      </c>
-      <c r="D49" s="109" t="s">
-        <v>217</v>
-      </c>
-      <c r="E49" s="109" t="s">
-        <v>217</v>
-      </c>
-      <c r="F49" s="109" t="s">
-        <v>217</v>
-      </c>
-      <c r="G49" s="109" t="s">
-        <v>217</v>
-      </c>
-      <c r="H49" s="110" t="s">
-        <v>217</v>
+      <c r="C49" s="114" t="s">
+        <v>216</v>
+      </c>
+      <c r="D49" s="115" t="s">
+        <v>215</v>
+      </c>
+      <c r="E49" s="115" t="s">
+        <v>215</v>
+      </c>
+      <c r="F49" s="115" t="s">
+        <v>215</v>
+      </c>
+      <c r="G49" s="115" t="s">
+        <v>215</v>
+      </c>
+      <c r="H49" s="116" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="40" customFormat="1">
       <c r="A50" s="69" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B50" s="69"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="115"/>
-      <c r="H50" s="116"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="110"/>
     </row>
     <row r="51" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A51" s="68"/>
       <c r="B51" s="68"/>
       <c r="C51" s="111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D51" s="112"/>
       <c r="E51" s="112"/>
@@ -4802,7 +4788,7 @@
       <c r="A52" s="68"/>
       <c r="B52" s="68"/>
       <c r="C52" s="111" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D52" s="112"/>
       <c r="E52" s="112"/>
@@ -4814,7 +4800,7 @@
       <c r="A53" s="68"/>
       <c r="B53" s="68"/>
       <c r="C53" s="111" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D53" s="112"/>
       <c r="E53" s="112"/>
@@ -4826,7 +4812,7 @@
       <c r="A54" s="68"/>
       <c r="B54" s="68"/>
       <c r="C54" s="111" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D54" s="112"/>
       <c r="E54" s="112"/>
@@ -4836,1716 +4822,1764 @@
     </row>
     <row r="55" spans="1:8" s="40" customFormat="1">
       <c r="A55" s="69" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B55" s="69"/>
-      <c r="C55" s="114"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="115"/>
-      <c r="G55" s="115"/>
-      <c r="H55" s="116"/>
+      <c r="C55" s="108"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="109"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="109"/>
+      <c r="H55" s="110"/>
     </row>
     <row r="56" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A56" s="68"/>
       <c r="B56" s="68"/>
       <c r="C56" s="111" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D56" s="112" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E56" s="112" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F56" s="112" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G56" s="112" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H56" s="113" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A57" s="68"/>
       <c r="B57" s="68"/>
       <c r="C57" s="111" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D57" s="112" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E57" s="112" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F57" s="112" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G57" s="112" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H57" s="113" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="40" customFormat="1">
       <c r="A58" s="69" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B58" s="69"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="115"/>
-      <c r="E58" s="115"/>
-      <c r="F58" s="115"/>
-      <c r="G58" s="115"/>
-      <c r="H58" s="116"/>
+      <c r="C58" s="108"/>
+      <c r="D58" s="109"/>
+      <c r="E58" s="109"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="109"/>
+      <c r="H58" s="110"/>
     </row>
     <row r="59" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A59" s="68"/>
       <c r="B59" s="68"/>
       <c r="C59" s="111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D59" s="112" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E59" s="112" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F59" s="112" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G59" s="112" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H59" s="113" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A60" s="68"/>
       <c r="B60" s="68"/>
       <c r="C60" s="111" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D60" s="112" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E60" s="112" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F60" s="112" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G60" s="112" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H60" s="113" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A61" s="68"/>
       <c r="B61" s="68"/>
       <c r="C61" s="111" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D61" s="112" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E61" s="112" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F61" s="112" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G61" s="112" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H61" s="113" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A62" s="68"/>
       <c r="B62" s="68"/>
       <c r="C62" s="111" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D62" s="112" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E62" s="112" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F62" s="112" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G62" s="112" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H62" s="113" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A63" s="68"/>
       <c r="B63" s="68"/>
       <c r="C63" s="111" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D63" s="112" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E63" s="112" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F63" s="112" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G63" s="112" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H63" s="113" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A64" s="68"/>
       <c r="B64" s="68"/>
-      <c r="C64" s="108" t="s">
-        <v>202</v>
-      </c>
-      <c r="D64" s="109" t="s">
-        <v>202</v>
-      </c>
-      <c r="E64" s="109" t="s">
-        <v>202</v>
-      </c>
-      <c r="F64" s="109" t="s">
-        <v>202</v>
-      </c>
-      <c r="G64" s="109" t="s">
-        <v>202</v>
-      </c>
-      <c r="H64" s="110" t="s">
-        <v>202</v>
+      <c r="C64" s="114" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="E64" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="F64" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="G64" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="H64" s="116" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="40" customFormat="1">
       <c r="A65" s="69" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B65" s="69"/>
-      <c r="C65" s="114"/>
-      <c r="D65" s="115"/>
-      <c r="E65" s="115"/>
-      <c r="F65" s="115"/>
-      <c r="G65" s="115"/>
-      <c r="H65" s="116"/>
+      <c r="C65" s="108"/>
+      <c r="D65" s="109"/>
+      <c r="E65" s="109"/>
+      <c r="F65" s="109"/>
+      <c r="G65" s="109"/>
+      <c r="H65" s="110"/>
     </row>
     <row r="66" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A66" s="68"/>
       <c r="B66" s="68"/>
       <c r="C66" s="111" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D66" s="112" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E66" s="112" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F66" s="112" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G66" s="112" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H66" s="113" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A67" s="68"/>
       <c r="B67" s="68"/>
       <c r="C67" s="111" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D67" s="112" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E67" s="112" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F67" s="112" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G67" s="112" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H67" s="113" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A68" s="68"/>
       <c r="B68" s="68"/>
-      <c r="C68" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="D68" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="E68" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="F68" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="G68" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="H68" s="110" t="s">
-        <v>198</v>
+      <c r="C68" s="114" t="s">
+        <v>196</v>
+      </c>
+      <c r="D68" s="115" t="s">
+        <v>196</v>
+      </c>
+      <c r="E68" s="115" t="s">
+        <v>196</v>
+      </c>
+      <c r="F68" s="115" t="s">
+        <v>196</v>
+      </c>
+      <c r="G68" s="115" t="s">
+        <v>196</v>
+      </c>
+      <c r="H68" s="116" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1">
       <c r="A69" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B69" s="69"/>
-      <c r="C69" s="114"/>
-      <c r="D69" s="115"/>
-      <c r="E69" s="115"/>
-      <c r="F69" s="115"/>
-      <c r="G69" s="115"/>
-      <c r="H69" s="116"/>
+      <c r="C69" s="108"/>
+      <c r="D69" s="109"/>
+      <c r="E69" s="109"/>
+      <c r="F69" s="109"/>
+      <c r="G69" s="109"/>
+      <c r="H69" s="110"/>
     </row>
     <row r="70" spans="1:8" s="40" customFormat="1">
       <c r="A70" s="69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B70" s="69"/>
-      <c r="C70" s="114"/>
-      <c r="D70" s="115"/>
-      <c r="E70" s="115"/>
-      <c r="F70" s="115"/>
-      <c r="G70" s="115"/>
-      <c r="H70" s="116"/>
+      <c r="C70" s="108"/>
+      <c r="D70" s="109"/>
+      <c r="E70" s="109"/>
+      <c r="F70" s="109"/>
+      <c r="G70" s="109"/>
+      <c r="H70" s="110"/>
     </row>
     <row r="71" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A71" s="68"/>
       <c r="B71" s="68"/>
       <c r="C71" s="111" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D71" s="112" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E71" s="112" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F71" s="112" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G71" s="112" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H71" s="113" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A72" s="68"/>
       <c r="B72" s="68"/>
       <c r="C72" s="111" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D72" s="112" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E72" s="112" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F72" s="112" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G72" s="112" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H72" s="113" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A73" s="68"/>
       <c r="B73" s="68"/>
       <c r="C73" s="111" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D73" s="112" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E73" s="112" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F73" s="112" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G73" s="112" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H73" s="113" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A74" s="68"/>
       <c r="B74" s="68"/>
       <c r="C74" s="111" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D74" s="112" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E74" s="112" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F74" s="112" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G74" s="112" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H74" s="113" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A75" s="68"/>
       <c r="B75" s="68"/>
-      <c r="C75" s="108" t="s">
-        <v>191</v>
-      </c>
-      <c r="D75" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="E75" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="F75" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="G75" s="109" t="s">
-        <v>191</v>
-      </c>
-      <c r="H75" s="110" t="s">
-        <v>191</v>
+      <c r="C75" s="114" t="s">
+        <v>189</v>
+      </c>
+      <c r="D75" s="115" t="s">
+        <v>189</v>
+      </c>
+      <c r="E75" s="115" t="s">
+        <v>189</v>
+      </c>
+      <c r="F75" s="115" t="s">
+        <v>189</v>
+      </c>
+      <c r="G75" s="115" t="s">
+        <v>189</v>
+      </c>
+      <c r="H75" s="116" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="40" customFormat="1">
       <c r="A76" s="69" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B76" s="69"/>
-      <c r="C76" s="114"/>
-      <c r="D76" s="115"/>
-      <c r="E76" s="115"/>
-      <c r="F76" s="115"/>
-      <c r="G76" s="115"/>
-      <c r="H76" s="116"/>
+      <c r="C76" s="108"/>
+      <c r="D76" s="109"/>
+      <c r="E76" s="109"/>
+      <c r="F76" s="109"/>
+      <c r="G76" s="109"/>
+      <c r="H76" s="110"/>
     </row>
     <row r="77" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A77" s="68"/>
       <c r="B77" s="68"/>
       <c r="C77" s="111" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D77" s="112" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E77" s="112" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F77" s="112" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G77" s="112" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H77" s="113" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A78" s="68"/>
       <c r="B78" s="68"/>
-      <c r="C78" s="108" t="s">
-        <v>188</v>
-      </c>
-      <c r="D78" s="109" t="s">
-        <v>188</v>
-      </c>
-      <c r="E78" s="109" t="s">
-        <v>188</v>
-      </c>
-      <c r="F78" s="109" t="s">
-        <v>188</v>
-      </c>
-      <c r="G78" s="109" t="s">
-        <v>188</v>
-      </c>
-      <c r="H78" s="110" t="s">
-        <v>188</v>
+      <c r="C78" s="114" t="s">
+        <v>186</v>
+      </c>
+      <c r="D78" s="115" t="s">
+        <v>186</v>
+      </c>
+      <c r="E78" s="115" t="s">
+        <v>186</v>
+      </c>
+      <c r="F78" s="115" t="s">
+        <v>186</v>
+      </c>
+      <c r="G78" s="115" t="s">
+        <v>186</v>
+      </c>
+      <c r="H78" s="116" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="40" customFormat="1">
       <c r="A79" s="69" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B79" s="69"/>
-      <c r="C79" s="114"/>
-      <c r="D79" s="115"/>
-      <c r="E79" s="115"/>
-      <c r="F79" s="115"/>
-      <c r="G79" s="115"/>
-      <c r="H79" s="116"/>
+      <c r="C79" s="108"/>
+      <c r="D79" s="109"/>
+      <c r="E79" s="109"/>
+      <c r="F79" s="109"/>
+      <c r="G79" s="109"/>
+      <c r="H79" s="110"/>
     </row>
     <row r="80" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A80" s="68"/>
       <c r="B80" s="68"/>
       <c r="C80" s="111" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D80" s="112" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E80" s="112" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F80" s="112" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G80" s="112" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H80" s="113" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A81" s="68"/>
       <c r="B81" s="68"/>
       <c r="C81" s="111" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D81" s="112" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E81" s="112" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F81" s="112" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G81" s="112" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H81" s="113" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A82" s="68"/>
       <c r="B82" s="68"/>
       <c r="C82" s="111" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D82" s="112" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E82" s="112" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F82" s="112" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G82" s="112" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H82" s="113" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A83" s="68"/>
       <c r="B83" s="68"/>
       <c r="C83" s="111" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D83" s="112" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E83" s="112" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F83" s="112" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G83" s="112" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H83" s="113" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A84" s="68"/>
       <c r="B84" s="68"/>
-      <c r="C84" s="108" t="s">
-        <v>182</v>
-      </c>
-      <c r="D84" s="109" t="s">
-        <v>182</v>
-      </c>
-      <c r="E84" s="109" t="s">
-        <v>182</v>
-      </c>
-      <c r="F84" s="109" t="s">
-        <v>182</v>
-      </c>
-      <c r="G84" s="109" t="s">
-        <v>182</v>
-      </c>
-      <c r="H84" s="110" t="s">
-        <v>182</v>
+      <c r="C84" s="114" t="s">
+        <v>180</v>
+      </c>
+      <c r="D84" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="E84" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="F84" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="G84" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="H84" s="116" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="40" customFormat="1">
       <c r="A85" s="69" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B85" s="69"/>
-      <c r="C85" s="114"/>
-      <c r="D85" s="115"/>
-      <c r="E85" s="115"/>
-      <c r="F85" s="115"/>
-      <c r="G85" s="115"/>
-      <c r="H85" s="116"/>
+      <c r="C85" s="108"/>
+      <c r="D85" s="109"/>
+      <c r="E85" s="109"/>
+      <c r="F85" s="109"/>
+      <c r="G85" s="109"/>
+      <c r="H85" s="110"/>
     </row>
     <row r="86" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A86" s="68"/>
       <c r="B86" s="68"/>
       <c r="C86" s="111" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D86" s="112" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E86" s="112" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F86" s="112" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G86" s="112" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H86" s="113" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A87" s="68"/>
       <c r="B87" s="68"/>
       <c r="C87" s="111" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D87" s="112" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E87" s="112" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F87" s="112" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G87" s="112" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H87" s="113" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A88" s="68"/>
       <c r="B88" s="68"/>
       <c r="C88" s="111" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D88" s="112" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E88" s="112" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F88" s="112" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G88" s="112" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H88" s="113" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A89" s="68"/>
       <c r="B89" s="68"/>
-      <c r="C89" s="108" t="s">
-        <v>177</v>
-      </c>
-      <c r="D89" s="109" t="s">
-        <v>177</v>
-      </c>
-      <c r="E89" s="109" t="s">
-        <v>177</v>
-      </c>
-      <c r="F89" s="109" t="s">
-        <v>177</v>
-      </c>
-      <c r="G89" s="109" t="s">
-        <v>177</v>
-      </c>
-      <c r="H89" s="110" t="s">
-        <v>177</v>
+      <c r="C89" s="114" t="s">
+        <v>175</v>
+      </c>
+      <c r="D89" s="115" t="s">
+        <v>175</v>
+      </c>
+      <c r="E89" s="115" t="s">
+        <v>175</v>
+      </c>
+      <c r="F89" s="115" t="s">
+        <v>175</v>
+      </c>
+      <c r="G89" s="115" t="s">
+        <v>175</v>
+      </c>
+      <c r="H89" s="116" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1">
       <c r="A90" s="69" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B90" s="69"/>
-      <c r="C90" s="114"/>
-      <c r="D90" s="115"/>
-      <c r="E90" s="115"/>
-      <c r="F90" s="115"/>
-      <c r="G90" s="115"/>
-      <c r="H90" s="116"/>
+      <c r="C90" s="108"/>
+      <c r="D90" s="109"/>
+      <c r="E90" s="109"/>
+      <c r="F90" s="109"/>
+      <c r="G90" s="109"/>
+      <c r="H90" s="110"/>
     </row>
     <row r="91" spans="1:8" s="40" customFormat="1">
       <c r="A91" s="69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B91" s="69"/>
-      <c r="C91" s="114"/>
-      <c r="D91" s="115"/>
-      <c r="E91" s="115"/>
-      <c r="F91" s="115"/>
-      <c r="G91" s="115"/>
-      <c r="H91" s="116"/>
+      <c r="C91" s="108"/>
+      <c r="D91" s="109"/>
+      <c r="E91" s="109"/>
+      <c r="F91" s="109"/>
+      <c r="G91" s="109"/>
+      <c r="H91" s="110"/>
     </row>
     <row r="92" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A92" s="68"/>
       <c r="B92" s="68"/>
       <c r="C92" s="111" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D92" s="112" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E92" s="112" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F92" s="112" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G92" s="112" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H92" s="113" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A93" s="68"/>
       <c r="B93" s="68"/>
       <c r="C93" s="111" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D93" s="112" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E93" s="112" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F93" s="112" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G93" s="112" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H93" s="113" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A94" s="68"/>
       <c r="B94" s="68"/>
       <c r="C94" s="111" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D94" s="112" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E94" s="112" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F94" s="112" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G94" s="112" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H94" s="113" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A95" s="68"/>
       <c r="B95" s="68"/>
-      <c r="C95" s="108" t="s">
-        <v>171</v>
-      </c>
-      <c r="D95" s="109" t="s">
-        <v>171</v>
-      </c>
-      <c r="E95" s="109" t="s">
-        <v>171</v>
-      </c>
-      <c r="F95" s="109" t="s">
-        <v>171</v>
-      </c>
-      <c r="G95" s="109" t="s">
-        <v>171</v>
-      </c>
-      <c r="H95" s="110" t="s">
-        <v>171</v>
+      <c r="C95" s="114" t="s">
+        <v>169</v>
+      </c>
+      <c r="D95" s="115" t="s">
+        <v>169</v>
+      </c>
+      <c r="E95" s="115" t="s">
+        <v>169</v>
+      </c>
+      <c r="F95" s="115" t="s">
+        <v>169</v>
+      </c>
+      <c r="G95" s="115" t="s">
+        <v>169</v>
+      </c>
+      <c r="H95" s="116" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="40" customFormat="1">
       <c r="A96" s="69" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B96" s="69"/>
-      <c r="C96" s="114"/>
-      <c r="D96" s="115"/>
-      <c r="E96" s="115"/>
-      <c r="F96" s="115"/>
-      <c r="G96" s="115"/>
-      <c r="H96" s="116"/>
+      <c r="C96" s="108"/>
+      <c r="D96" s="109"/>
+      <c r="E96" s="109"/>
+      <c r="F96" s="109"/>
+      <c r="G96" s="109"/>
+      <c r="H96" s="110"/>
     </row>
     <row r="97" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A97" s="68"/>
       <c r="B97" s="68"/>
       <c r="C97" s="111" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D97" s="112" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E97" s="112" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F97" s="112" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G97" s="112" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H97" s="113" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A98" s="68"/>
       <c r="B98" s="68"/>
       <c r="C98" s="111" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D98" s="112" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E98" s="112" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F98" s="112" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G98" s="112" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H98" s="113" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A99" s="68"/>
       <c r="B99" s="68"/>
       <c r="C99" s="111" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D99" s="112" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E99" s="112" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F99" s="112" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G99" s="112" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H99" s="113" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A100" s="68"/>
       <c r="B100" s="68"/>
       <c r="C100" s="111" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D100" s="112" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E100" s="112" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F100" s="112" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G100" s="112" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H100" s="113" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="101" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A101" s="68"/>
       <c r="B101" s="68"/>
       <c r="C101" s="111" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D101" s="112" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E101" s="112" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F101" s="112" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G101" s="112" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H101" s="113" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A102" s="68"/>
       <c r="B102" s="68"/>
-      <c r="C102" s="108" t="s">
-        <v>164</v>
-      </c>
-      <c r="D102" s="109" t="s">
-        <v>164</v>
-      </c>
-      <c r="E102" s="109" t="s">
-        <v>164</v>
-      </c>
-      <c r="F102" s="109" t="s">
-        <v>164</v>
-      </c>
-      <c r="G102" s="109" t="s">
-        <v>164</v>
-      </c>
-      <c r="H102" s="110" t="s">
-        <v>164</v>
+      <c r="C102" s="114" t="s">
+        <v>162</v>
+      </c>
+      <c r="D102" s="115" t="s">
+        <v>162</v>
+      </c>
+      <c r="E102" s="115" t="s">
+        <v>162</v>
+      </c>
+      <c r="F102" s="115" t="s">
+        <v>162</v>
+      </c>
+      <c r="G102" s="115" t="s">
+        <v>162</v>
+      </c>
+      <c r="H102" s="116" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="103" spans="1:8" s="40" customFormat="1">
       <c r="A103" s="69" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B103" s="69"/>
-      <c r="C103" s="114"/>
-      <c r="D103" s="115"/>
-      <c r="E103" s="115"/>
-      <c r="F103" s="115"/>
-      <c r="G103" s="115"/>
-      <c r="H103" s="116"/>
+      <c r="C103" s="108"/>
+      <c r="D103" s="109"/>
+      <c r="E103" s="109"/>
+      <c r="F103" s="109"/>
+      <c r="G103" s="109"/>
+      <c r="H103" s="110"/>
     </row>
     <row r="104" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A104" s="68"/>
       <c r="B104" s="68"/>
       <c r="C104" s="111" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D104" s="112" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E104" s="112" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F104" s="112" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G104" s="112" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H104" s="113" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A105" s="68"/>
       <c r="B105" s="68"/>
       <c r="C105" s="111" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D105" s="112" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E105" s="112" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F105" s="112" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G105" s="112" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H105" s="113" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A106" s="68"/>
       <c r="B106" s="68"/>
-      <c r="C106" s="108" t="s">
-        <v>160</v>
-      </c>
-      <c r="D106" s="109" t="s">
-        <v>160</v>
-      </c>
-      <c r="E106" s="109" t="s">
-        <v>160</v>
-      </c>
-      <c r="F106" s="109" t="s">
-        <v>160</v>
-      </c>
-      <c r="G106" s="109" t="s">
-        <v>160</v>
-      </c>
-      <c r="H106" s="110" t="s">
-        <v>160</v>
+      <c r="C106" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="D106" s="115" t="s">
+        <v>158</v>
+      </c>
+      <c r="E106" s="115" t="s">
+        <v>158</v>
+      </c>
+      <c r="F106" s="115" t="s">
+        <v>158</v>
+      </c>
+      <c r="G106" s="115" t="s">
+        <v>158</v>
+      </c>
+      <c r="H106" s="116" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="107" spans="1:8" s="40" customFormat="1">
       <c r="A107" s="69" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B107" s="69"/>
-      <c r="C107" s="114"/>
-      <c r="D107" s="115"/>
-      <c r="E107" s="115"/>
-      <c r="F107" s="115"/>
-      <c r="G107" s="115"/>
-      <c r="H107" s="116"/>
+      <c r="C107" s="108"/>
+      <c r="D107" s="109"/>
+      <c r="E107" s="109"/>
+      <c r="F107" s="109"/>
+      <c r="G107" s="109"/>
+      <c r="H107" s="110"/>
     </row>
     <row r="108" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A108" s="68"/>
       <c r="B108" s="68"/>
       <c r="C108" s="111" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D108" s="112" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E108" s="112" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F108" s="112" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G108" s="112" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H108" s="113" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A109" s="68"/>
       <c r="B109" s="68"/>
       <c r="C109" s="111" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D109" s="112" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E109" s="112" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F109" s="112" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G109" s="112" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H109" s="113" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A110" s="68"/>
       <c r="B110" s="68"/>
       <c r="C110" s="111" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D110" s="112" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E110" s="112" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F110" s="112" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G110" s="112" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H110" s="113" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A111" s="68"/>
       <c r="B111" s="68"/>
-      <c r="C111" s="108" t="s">
-        <v>155</v>
-      </c>
-      <c r="D111" s="109" t="s">
-        <v>155</v>
-      </c>
-      <c r="E111" s="109" t="s">
-        <v>155</v>
-      </c>
-      <c r="F111" s="109" t="s">
-        <v>155</v>
-      </c>
-      <c r="G111" s="109" t="s">
-        <v>155</v>
-      </c>
-      <c r="H111" s="110" t="s">
-        <v>155</v>
+      <c r="C111" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="D111" s="115" t="s">
+        <v>153</v>
+      </c>
+      <c r="E111" s="115" t="s">
+        <v>153</v>
+      </c>
+      <c r="F111" s="115" t="s">
+        <v>153</v>
+      </c>
+      <c r="G111" s="115" t="s">
+        <v>153</v>
+      </c>
+      <c r="H111" s="116" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="112" spans="1:8" s="40" customFormat="1">
       <c r="A112" s="69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B112" s="69"/>
-      <c r="C112" s="114"/>
-      <c r="D112" s="115"/>
-      <c r="E112" s="115"/>
-      <c r="F112" s="115"/>
-      <c r="G112" s="115"/>
-      <c r="H112" s="116"/>
+      <c r="C112" s="108"/>
+      <c r="D112" s="109"/>
+      <c r="E112" s="109"/>
+      <c r="F112" s="109"/>
+      <c r="G112" s="109"/>
+      <c r="H112" s="110"/>
     </row>
     <row r="113" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A113" s="68"/>
       <c r="B113" s="68"/>
       <c r="C113" s="111" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D113" s="112" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E113" s="112" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F113" s="112" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G113" s="112" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H113" s="113" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A114" s="68"/>
       <c r="B114" s="68"/>
       <c r="C114" s="111" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D114" s="112" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E114" s="112" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F114" s="112" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G114" s="112" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H114" s="113" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A115" s="68"/>
       <c r="B115" s="68"/>
       <c r="C115" s="111" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D115" s="112" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E115" s="112" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F115" s="112" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G115" s="112" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H115" s="113" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A116" s="68"/>
       <c r="B116" s="68"/>
       <c r="C116" s="111" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D116" s="112" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E116" s="112" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F116" s="112" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G116" s="112" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H116" s="113" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A117" s="68"/>
       <c r="B117" s="68"/>
-      <c r="C117" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="D117" s="109" t="s">
-        <v>149</v>
-      </c>
-      <c r="E117" s="109" t="s">
-        <v>149</v>
-      </c>
-      <c r="F117" s="109" t="s">
-        <v>149</v>
-      </c>
-      <c r="G117" s="109" t="s">
-        <v>149</v>
-      </c>
-      <c r="H117" s="110" t="s">
-        <v>149</v>
+      <c r="C117" s="114" t="s">
+        <v>147</v>
+      </c>
+      <c r="D117" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="E117" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="F117" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="G117" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="H117" s="116" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="118" spans="1:8" s="40" customFormat="1">
       <c r="A118" s="69" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B118" s="69"/>
-      <c r="C118" s="114"/>
-      <c r="D118" s="115"/>
-      <c r="E118" s="115"/>
-      <c r="F118" s="115"/>
-      <c r="G118" s="115"/>
-      <c r="H118" s="116"/>
+      <c r="C118" s="108"/>
+      <c r="D118" s="109"/>
+      <c r="E118" s="109"/>
+      <c r="F118" s="109"/>
+      <c r="G118" s="109"/>
+      <c r="H118" s="110"/>
     </row>
     <row r="119" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A119" s="68"/>
       <c r="B119" s="68"/>
       <c r="C119" s="111" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D119" s="112" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E119" s="112" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F119" s="112" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G119" s="112" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H119" s="113" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A120" s="68"/>
       <c r="B120" s="68"/>
-      <c r="C120" s="108" t="s">
-        <v>146</v>
-      </c>
-      <c r="D120" s="109" t="s">
-        <v>146</v>
-      </c>
-      <c r="E120" s="109" t="s">
-        <v>146</v>
-      </c>
-      <c r="F120" s="109" t="s">
-        <v>146</v>
-      </c>
-      <c r="G120" s="109" t="s">
-        <v>146</v>
-      </c>
-      <c r="H120" s="110" t="s">
-        <v>146</v>
+      <c r="C120" s="114" t="s">
+        <v>144</v>
+      </c>
+      <c r="D120" s="115" t="s">
+        <v>144</v>
+      </c>
+      <c r="E120" s="115" t="s">
+        <v>144</v>
+      </c>
+      <c r="F120" s="115" t="s">
+        <v>144</v>
+      </c>
+      <c r="G120" s="115" t="s">
+        <v>144</v>
+      </c>
+      <c r="H120" s="116" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:8" s="40" customFormat="1">
       <c r="A121" s="69" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B121" s="69"/>
-      <c r="C121" s="114"/>
-      <c r="D121" s="115"/>
-      <c r="E121" s="115"/>
-      <c r="F121" s="115"/>
-      <c r="G121" s="115"/>
-      <c r="H121" s="116"/>
+      <c r="C121" s="108"/>
+      <c r="D121" s="109"/>
+      <c r="E121" s="109"/>
+      <c r="F121" s="109"/>
+      <c r="G121" s="109"/>
+      <c r="H121" s="110"/>
     </row>
     <row r="122" spans="1:8" s="40" customFormat="1" ht="13.5" thickBot="1">
       <c r="A122" s="68"/>
       <c r="B122" s="68"/>
       <c r="C122" s="111" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D122" s="112" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E122" s="112" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F122" s="112" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G122" s="112" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H122" s="113" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1">
       <c r="A123" s="69" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B123" s="69"/>
-      <c r="C123" s="114"/>
-      <c r="D123" s="115"/>
-      <c r="E123" s="115"/>
-      <c r="F123" s="115"/>
-      <c r="G123" s="115"/>
-      <c r="H123" s="116"/>
+      <c r="C123" s="108"/>
+      <c r="D123" s="109"/>
+      <c r="E123" s="109"/>
+      <c r="F123" s="109"/>
+      <c r="G123" s="109"/>
+      <c r="H123" s="110"/>
     </row>
     <row r="124" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A124" s="68"/>
       <c r="B124" s="68"/>
       <c r="C124" s="111" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D124" s="112" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E124" s="112" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F124" s="112" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G124" s="112" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H124" s="113" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8" s="40" customFormat="1">
       <c r="A125" s="69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B125" s="69"/>
-      <c r="C125" s="114"/>
-      <c r="D125" s="115"/>
-      <c r="E125" s="115"/>
-      <c r="F125" s="115"/>
-      <c r="G125" s="115"/>
-      <c r="H125" s="116"/>
+      <c r="C125" s="108"/>
+      <c r="D125" s="109"/>
+      <c r="E125" s="109"/>
+      <c r="F125" s="109"/>
+      <c r="G125" s="109"/>
+      <c r="H125" s="110"/>
     </row>
     <row r="126" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A126" s="68"/>
       <c r="B126" s="68"/>
       <c r="C126" s="111" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D126" s="112" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E126" s="112" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F126" s="112" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G126" s="112" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H126" s="113" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A127" s="68"/>
       <c r="B127" s="68"/>
       <c r="C127" s="111" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D127" s="112" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E127" s="112" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F127" s="112" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G127" s="112" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H127" s="113" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A128" s="68"/>
       <c r="B128" s="68"/>
       <c r="C128" s="111" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D128" s="112" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E128" s="112" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F128" s="112" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G128" s="112" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H128" s="113" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A129" s="68"/>
       <c r="B129" s="68"/>
       <c r="C129" s="111" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D129" s="112" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E129" s="112" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F129" s="112" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G129" s="112" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H129" s="113" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A130" s="68"/>
       <c r="B130" s="68"/>
-      <c r="C130" s="108" t="s">
-        <v>136</v>
-      </c>
-      <c r="D130" s="109" t="s">
-        <v>136</v>
-      </c>
-      <c r="E130" s="109" t="s">
-        <v>136</v>
-      </c>
-      <c r="F130" s="109" t="s">
-        <v>136</v>
-      </c>
-      <c r="G130" s="109" t="s">
-        <v>136</v>
-      </c>
-      <c r="H130" s="110" t="s">
-        <v>136</v>
+      <c r="C130" s="114" t="s">
+        <v>134</v>
+      </c>
+      <c r="D130" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="E130" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="F130" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="G130" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="H130" s="116" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="131" spans="1:8" s="40" customFormat="1">
       <c r="A131" s="69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B131" s="69"/>
-      <c r="C131" s="114"/>
-      <c r="D131" s="115"/>
-      <c r="E131" s="115"/>
-      <c r="F131" s="115"/>
-      <c r="G131" s="115"/>
-      <c r="H131" s="116"/>
+      <c r="C131" s="108"/>
+      <c r="D131" s="109"/>
+      <c r="E131" s="109"/>
+      <c r="F131" s="109"/>
+      <c r="G131" s="109"/>
+      <c r="H131" s="110"/>
     </row>
     <row r="132" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A132" s="68"/>
       <c r="B132" s="68"/>
       <c r="C132" s="111" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D132" s="112" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E132" s="112" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F132" s="112" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G132" s="112" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H132" s="113" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A133" s="68"/>
       <c r="B133" s="68"/>
       <c r="C133" s="111" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D133" s="112" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E133" s="112" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F133" s="112" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G133" s="112" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H133" s="113" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A134" s="68"/>
       <c r="B134" s="68"/>
       <c r="C134" s="111" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D134" s="112" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E134" s="112" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F134" s="112" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G134" s="112" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H134" s="113" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A135" s="68"/>
       <c r="B135" s="68"/>
-      <c r="C135" s="108" t="s">
-        <v>131</v>
-      </c>
-      <c r="D135" s="109" t="s">
-        <v>131</v>
-      </c>
-      <c r="E135" s="109" t="s">
-        <v>131</v>
-      </c>
-      <c r="F135" s="109" t="s">
-        <v>131</v>
-      </c>
-      <c r="G135" s="109" t="s">
-        <v>131</v>
-      </c>
-      <c r="H135" s="110" t="s">
-        <v>131</v>
+      <c r="C135" s="114" t="s">
+        <v>129</v>
+      </c>
+      <c r="D135" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="E135" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="F135" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="G135" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="H135" s="116" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="136" spans="1:8" s="40" customFormat="1">
       <c r="A136" s="69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B136" s="69"/>
-      <c r="C136" s="114"/>
-      <c r="D136" s="115"/>
-      <c r="E136" s="115"/>
-      <c r="F136" s="115"/>
-      <c r="G136" s="115"/>
-      <c r="H136" s="116"/>
+      <c r="C136" s="108"/>
+      <c r="D136" s="109"/>
+      <c r="E136" s="109"/>
+      <c r="F136" s="109"/>
+      <c r="G136" s="109"/>
+      <c r="H136" s="110"/>
     </row>
     <row r="137" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A137" s="68"/>
       <c r="B137" s="68"/>
       <c r="C137" s="111" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D137" s="112" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E137" s="112" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F137" s="112" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G137" s="112" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H137" s="113" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="138" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A138" s="68"/>
       <c r="B138" s="68"/>
       <c r="C138" s="111" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D138" s="112" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E138" s="112" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F138" s="112" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G138" s="112" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H138" s="113" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139" spans="1:8" s="40" customFormat="1" ht="12.75" customHeight="1">
       <c r="A139" s="68"/>
       <c r="B139" s="68"/>
       <c r="C139" s="111" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D139" s="112" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E139" s="112" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F139" s="112" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G139" s="112" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H139" s="113" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="140" spans="1:8" s="40" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A140" s="67"/>
       <c r="B140" s="67"/>
-      <c r="C140" s="108" t="s">
-        <v>126</v>
-      </c>
-      <c r="D140" s="109" t="s">
-        <v>126</v>
-      </c>
-      <c r="E140" s="109" t="s">
-        <v>126</v>
-      </c>
-      <c r="F140" s="109" t="s">
-        <v>126</v>
-      </c>
-      <c r="G140" s="109" t="s">
-        <v>126</v>
-      </c>
-      <c r="H140" s="110" t="s">
-        <v>126</v>
+      <c r="C140" s="114" t="s">
+        <v>124</v>
+      </c>
+      <c r="D140" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="E140" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="F140" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="G140" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="H140" s="116" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="C125:H125"/>
-    <mergeCell ref="C131:H131"/>
-    <mergeCell ref="C136:H136"/>
-    <mergeCell ref="C112:H112"/>
-    <mergeCell ref="C118:H118"/>
-    <mergeCell ref="C121:H121"/>
-    <mergeCell ref="C123:H123"/>
-    <mergeCell ref="C119:H119"/>
-    <mergeCell ref="C128:H128"/>
-    <mergeCell ref="C129:H129"/>
-    <mergeCell ref="C130:H130"/>
-    <mergeCell ref="C132:H132"/>
-    <mergeCell ref="C133:H133"/>
-    <mergeCell ref="C120:H120"/>
-    <mergeCell ref="C122:H122"/>
-    <mergeCell ref="C124:H124"/>
-    <mergeCell ref="C126:H126"/>
-    <mergeCell ref="C127:H127"/>
+    <mergeCell ref="C140:H140"/>
+    <mergeCell ref="C134:H134"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="C137:H137"/>
+    <mergeCell ref="C138:H138"/>
+    <mergeCell ref="C139:H139"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="C115:H115"/>
+    <mergeCell ref="C116:H116"/>
+    <mergeCell ref="C117:H117"/>
+    <mergeCell ref="C108:H108"/>
+    <mergeCell ref="C109:H109"/>
+    <mergeCell ref="C110:H110"/>
+    <mergeCell ref="C111:H111"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C85:H85"/>
     <mergeCell ref="C107:H107"/>
     <mergeCell ref="C90:H90"/>
     <mergeCell ref="C91:H91"/>
@@ -6570,72 +6604,24 @@
     <mergeCell ref="C89:H89"/>
     <mergeCell ref="C75:H75"/>
     <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C103:H103"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C140:H140"/>
-    <mergeCell ref="C134:H134"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="C137:H137"/>
-    <mergeCell ref="C138:H138"/>
-    <mergeCell ref="C139:H139"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C114:H114"/>
-    <mergeCell ref="C115:H115"/>
-    <mergeCell ref="C116:H116"/>
-    <mergeCell ref="C117:H117"/>
-    <mergeCell ref="C108:H108"/>
-    <mergeCell ref="C109:H109"/>
-    <mergeCell ref="C110:H110"/>
-    <mergeCell ref="C111:H111"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C125:H125"/>
+    <mergeCell ref="C131:H131"/>
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="C112:H112"/>
+    <mergeCell ref="C118:H118"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C123:H123"/>
+    <mergeCell ref="C119:H119"/>
+    <mergeCell ref="C128:H128"/>
+    <mergeCell ref="C129:H129"/>
+    <mergeCell ref="C130:H130"/>
+    <mergeCell ref="C132:H132"/>
+    <mergeCell ref="C133:H133"/>
+    <mergeCell ref="C120:H120"/>
+    <mergeCell ref="C122:H122"/>
+    <mergeCell ref="C124:H124"/>
+    <mergeCell ref="C126:H126"/>
+    <mergeCell ref="C127:H127"/>
   </mergeCells>
   <conditionalFormatting sqref="A34">
     <cfRule type="dataBar" priority="4">
@@ -6646,7 +6632,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42 A37 A48 A50 A55 A58 A65 A69:A70 A76 A79 A85 A90:A91 A96 A103 A107 A112 A118 A121 A123 A125 A131 A136">
+  <conditionalFormatting sqref="A37 A42 A48 A50 A55 A58 A65 A69:A70 A76 A79 A85 A90:A91 A96 A103 A107 A112 A118 A121 A123 A125 A131 A136">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min" val="0"/>
@@ -6655,7 +6641,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42 B37 B48 B50 B55 B58 B65 B69:B70 B76 B79 B85 B90:B91 B96 B103 B107 B112 B118 B121 B123 B125 B131 B136">
+  <conditionalFormatting sqref="B37 B42 B48 B50 B55 B58 B65 B69:B70 B76 B79 B85 B90:B91 B96 B103 B107 B112 B118 B121 B123 B125 B131 B136">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min" val="0"/>
@@ -6694,7 +6680,7 @@
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
       <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
@@ -6738,11 +6724,11 @@
       </c>
       <c r="E2" s="15" t="str">
         <f>'Team info'!A7</f>
-        <v>Manuel Diaz</v>
-      </c>
-      <c r="F2" s="15" t="str">
+        <v>Nick Kemner</v>
+      </c>
+      <c r="F2" s="15">
         <f>'Team info'!A8</f>
-        <v>Nick Kemner</v>
+        <v>0</v>
       </c>
       <c r="G2" s="15">
         <f>'Team info'!A9</f>
@@ -6762,7 +6748,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B3" s="91"/>
       <c r="C3" s="3"/>
@@ -6777,7 +6763,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B4" s="91"/>
       <c r="C4" s="5"/>
@@ -6792,7 +6778,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B5" s="91"/>
       <c r="C5" s="5"/>
@@ -6807,7 +6793,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B6" s="91"/>
       <c r="C6" s="5"/>
@@ -6822,7 +6808,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B7" s="91"/>
       <c r="C7" s="5"/>
@@ -6837,7 +6823,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="63" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -6852,7 +6838,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -6867,7 +6853,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -6882,7 +6868,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="5"/>
@@ -6897,7 +6883,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="5"/>
@@ -6912,7 +6898,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -6927,7 +6913,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -6942,7 +6928,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -6957,7 +6943,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="5"/>
@@ -6972,7 +6958,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -6987,7 +6973,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="5"/>
@@ -7002,7 +6988,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="5"/>
@@ -7017,7 +7003,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
@@ -7032,7 +7018,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
@@ -7047,7 +7033,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="5"/>
@@ -7062,7 +7048,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="5"/>
@@ -7077,7 +7063,7 @@
     </row>
     <row r="24" spans="1:11" ht="13.5" thickBot="1">
       <c r="A24" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="2"/>
@@ -7111,11 +7097,11 @@
       </c>
       <c r="E27" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>Manuel Diaz</v>
-      </c>
-      <c r="F27" s="15" t="str">
+        <v>Nick Kemner</v>
+      </c>
+      <c r="F27" s="15">
         <f t="shared" si="0"/>
-        <v>Nick Kemner</v>
+        <v>0</v>
       </c>
       <c r="G27" s="15">
         <f t="shared" si="0"/>
@@ -7167,14 +7153,14 @@
       <c r="B30" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="105" t="s">
+      <c r="C30" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="107"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="95"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="21" t="str">
@@ -7182,18 +7168,18 @@
         <v>As a player, I want to have an easy to navigate menu system with all options available</v>
       </c>
       <c r="B31" s="25"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="104"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="98"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="99" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D32" s="100"/>
       <c r="E32" s="100"/>
@@ -7205,7 +7191,7 @@
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="99" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D33" s="100"/>
       <c r="E33" s="100"/>
@@ -7217,7 +7203,7 @@
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="99" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D34" s="100"/>
       <c r="E34" s="100"/>
@@ -7231,12 +7217,12 @@
         <v>As a player, I want a screen that I have to press start to continue</v>
       </c>
       <c r="B35" s="25"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="104"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="98"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="25" t="str">
@@ -7244,18 +7230,18 @@
         <v>As a player, I want a summary of my accomplishments of the level</v>
       </c>
       <c r="B36" s="25"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="104"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="98"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="99" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D37" s="100"/>
       <c r="E37" s="100"/>
@@ -7267,7 +7253,7 @@
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="120" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D38" s="121"/>
       <c r="E38" s="121"/>
@@ -7279,7 +7265,7 @@
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="120" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D39" s="121"/>
       <c r="E39" s="121"/>
@@ -7291,7 +7277,7 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="120" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D40" s="121"/>
       <c r="E40" s="121"/>
@@ -7303,7 +7289,7 @@
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="120" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D41" s="121"/>
       <c r="E41" s="121"/>
@@ -7315,7 +7301,7 @@
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="120" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D42" s="121"/>
       <c r="E42" s="121"/>
@@ -7327,7 +7313,7 @@
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="120" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D43" s="121"/>
       <c r="E43" s="121"/>
@@ -7341,18 +7327,18 @@
         <v>As a player, I want to be able to save my progress in separate profiles so I may load them up later</v>
       </c>
       <c r="B44" s="25"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="104"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="98"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="99" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D45" s="100"/>
       <c r="E45" s="100"/>
@@ -7364,7 +7350,7 @@
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="99" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D46" s="100"/>
       <c r="E46" s="100"/>
@@ -7376,7 +7362,7 @@
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="99" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D47" s="100"/>
       <c r="E47" s="100"/>
@@ -7388,7 +7374,7 @@
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="99" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D48" s="100"/>
       <c r="E48" s="100"/>
@@ -7402,18 +7388,18 @@
         <v xml:space="preserve">As a player, I want to be able to use the in game interface effectively </v>
       </c>
       <c r="B49" s="25"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="104"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="98"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="99" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D50" s="100"/>
       <c r="E50" s="100"/>
@@ -7425,7 +7411,7 @@
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="99" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D51" s="100"/>
       <c r="E51" s="100"/>
@@ -7437,7 +7423,7 @@
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="99" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D52" s="100"/>
       <c r="E52" s="100"/>
@@ -7451,18 +7437,18 @@
         <v>As a player, I want to be able to use the full range of attacks available to me</v>
       </c>
       <c r="B53" s="21"/>
-      <c r="C53" s="102"/>
-      <c r="D53" s="103"/>
-      <c r="E53" s="103"/>
-      <c r="F53" s="103"/>
-      <c r="G53" s="103"/>
-      <c r="H53" s="104"/>
+      <c r="C53" s="96"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="97"/>
+      <c r="G53" s="97"/>
+      <c r="H53" s="98"/>
     </row>
     <row r="54" spans="1:8" ht="13.5" thickBot="1">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="99" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D54" s="100"/>
       <c r="E54" s="100"/>
@@ -7476,18 +7462,18 @@
         <v>As a player, I want to be able to control all of the types of units available to me</v>
       </c>
       <c r="B55" s="21"/>
-      <c r="C55" s="102"/>
-      <c r="D55" s="103"/>
-      <c r="E55" s="103"/>
-      <c r="F55" s="103"/>
-      <c r="G55" s="103"/>
-      <c r="H55" s="104"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="97"/>
+      <c r="F55" s="97"/>
+      <c r="G55" s="97"/>
+      <c r="H55" s="98"/>
     </row>
     <row r="56" spans="1:8" ht="13.5" thickBot="1">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="99" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D56" s="100"/>
       <c r="E56" s="100"/>
@@ -7501,18 +7487,18 @@
         <v>As a player, I want to be able to collect and use all of the powerups available to me</v>
       </c>
       <c r="B57" s="25"/>
-      <c r="C57" s="102"/>
-      <c r="D57" s="103"/>
-      <c r="E57" s="103"/>
-      <c r="F57" s="103"/>
-      <c r="G57" s="103"/>
-      <c r="H57" s="104"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="97"/>
+      <c r="F57" s="97"/>
+      <c r="G57" s="97"/>
+      <c r="H57" s="98"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="99" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D58" s="100"/>
       <c r="E58" s="100"/>
@@ -7524,7 +7510,7 @@
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="99" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D59" s="100"/>
       <c r="E59" s="100"/>
@@ -7536,7 +7522,7 @@
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="99" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D60" s="100"/>
       <c r="E60" s="100"/>
@@ -7548,7 +7534,7 @@
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="99" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D61" s="100"/>
       <c r="E61" s="100"/>
@@ -7562,18 +7548,18 @@
         <v xml:space="preserve">As a player, I want to be able to change the full range of hotkeys </v>
       </c>
       <c r="B62" s="21"/>
-      <c r="C62" s="102"/>
-      <c r="D62" s="103"/>
-      <c r="E62" s="103"/>
-      <c r="F62" s="103"/>
-      <c r="G62" s="103"/>
-      <c r="H62" s="104"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="97"/>
+      <c r="G62" s="97"/>
+      <c r="H62" s="98"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D63" s="100"/>
       <c r="E63" s="100"/>
@@ -7585,7 +7571,7 @@
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="99" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D64" s="100"/>
       <c r="E64" s="100"/>
@@ -7597,7 +7583,7 @@
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="99" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D65" s="100"/>
       <c r="E65" s="100"/>
@@ -7611,12 +7597,12 @@
         <v>As a player, I want to be able to use the mouse to select and control the units, pick up items and control the camera</v>
       </c>
       <c r="B66" s="21"/>
-      <c r="C66" s="102"/>
-      <c r="D66" s="103"/>
-      <c r="E66" s="103"/>
-      <c r="F66" s="103"/>
-      <c r="G66" s="103"/>
-      <c r="H66" s="104"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="97"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="98"/>
     </row>
     <row r="67" spans="1:8" ht="12.75" customHeight="1">
       <c r="A67" s="21" t="str">
@@ -7624,18 +7610,18 @@
         <v>As a player, I want to be able play all of the levels</v>
       </c>
       <c r="B67" s="21"/>
-      <c r="C67" s="102"/>
-      <c r="D67" s="103"/>
-      <c r="E67" s="103"/>
-      <c r="F67" s="103"/>
-      <c r="G67" s="103"/>
-      <c r="H67" s="104"/>
+      <c r="C67" s="96"/>
+      <c r="D67" s="97"/>
+      <c r="E67" s="97"/>
+      <c r="F67" s="97"/>
+      <c r="G67" s="97"/>
+      <c r="H67" s="98"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" thickBot="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="99" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D68" s="100"/>
       <c r="E68" s="100"/>
@@ -7649,12 +7635,12 @@
         <v>As a programmer, I want to have a system to play dialogue at the right time</v>
       </c>
       <c r="B69" s="21"/>
-      <c r="C69" s="102"/>
-      <c r="D69" s="103"/>
-      <c r="E69" s="103"/>
-      <c r="F69" s="103"/>
-      <c r="G69" s="103"/>
-      <c r="H69" s="104"/>
+      <c r="C69" s="96"/>
+      <c r="D69" s="97"/>
+      <c r="E69" s="97"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="97"/>
+      <c r="H69" s="98"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="21" t="str">
@@ -7662,18 +7648,18 @@
         <v>As a tester, I want to be able to enter a cheat code to further me in the game</v>
       </c>
       <c r="B70" s="21"/>
-      <c r="C70" s="102"/>
-      <c r="D70" s="103"/>
-      <c r="E70" s="103"/>
-      <c r="F70" s="103"/>
-      <c r="G70" s="103"/>
-      <c r="H70" s="104"/>
+      <c r="C70" s="96"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="97"/>
+      <c r="F70" s="97"/>
+      <c r="G70" s="97"/>
+      <c r="H70" s="98"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="99" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D71" s="100"/>
       <c r="E71" s="100"/>
@@ -7685,7 +7671,7 @@
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="99" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D72" s="100"/>
       <c r="E72" s="100"/>
@@ -7697,7 +7683,7 @@
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="99" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D73" s="100"/>
       <c r="E73" s="100"/>
@@ -7709,7 +7695,7 @@
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="99" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D74" s="100"/>
       <c r="E74" s="100"/>
@@ -7723,18 +7709,18 @@
         <v>As a player, I want to be able to complete levels or be able to die and have to start over</v>
       </c>
       <c r="B75" s="21"/>
-      <c r="C75" s="102"/>
-      <c r="D75" s="103"/>
-      <c r="E75" s="103"/>
-      <c r="F75" s="103"/>
-      <c r="G75" s="103"/>
-      <c r="H75" s="104"/>
+      <c r="C75" s="96"/>
+      <c r="D75" s="97"/>
+      <c r="E75" s="97"/>
+      <c r="F75" s="97"/>
+      <c r="G75" s="97"/>
+      <c r="H75" s="98"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="99" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D76" s="100"/>
       <c r="E76" s="100"/>
@@ -7746,7 +7732,7 @@
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="99" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D77" s="100"/>
       <c r="E77" s="100"/>
@@ -7760,12 +7746,12 @@
         <v>As a developer, I want characters to behave differently using different states to control them</v>
       </c>
       <c r="B78" s="21"/>
-      <c r="C78" s="102"/>
-      <c r="D78" s="103"/>
-      <c r="E78" s="103"/>
-      <c r="F78" s="103"/>
-      <c r="G78" s="103"/>
-      <c r="H78" s="104"/>
+      <c r="C78" s="96"/>
+      <c r="D78" s="97"/>
+      <c r="E78" s="97"/>
+      <c r="F78" s="97"/>
+      <c r="G78" s="97"/>
+      <c r="H78" s="98"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="21" t="str">
@@ -7773,18 +7759,18 @@
         <v>As a player, I want enemies to make informed decisions</v>
       </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="102"/>
-      <c r="D79" s="103"/>
-      <c r="E79" s="103"/>
-      <c r="F79" s="103"/>
-      <c r="G79" s="103"/>
-      <c r="H79" s="104"/>
+      <c r="C79" s="96"/>
+      <c r="D79" s="97"/>
+      <c r="E79" s="97"/>
+      <c r="F79" s="97"/>
+      <c r="G79" s="97"/>
+      <c r="H79" s="98"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="99" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D80" s="100"/>
       <c r="E80" s="100"/>
@@ -7796,7 +7782,7 @@
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="99" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D81" s="100"/>
       <c r="E81" s="100"/>
@@ -7808,7 +7794,7 @@
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="99" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D82" s="100"/>
       <c r="E82" s="100"/>
@@ -7822,12 +7808,12 @@
         <v>As a player, when I'm not controlling the survivors, I want them to make basic decisions based on their type</v>
       </c>
       <c r="B83" s="21"/>
-      <c r="C83" s="102"/>
-      <c r="D83" s="103"/>
-      <c r="E83" s="103"/>
-      <c r="F83" s="103"/>
-      <c r="G83" s="103"/>
-      <c r="H83" s="104"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="97"/>
+      <c r="E83" s="97"/>
+      <c r="F83" s="97"/>
+      <c r="G83" s="97"/>
+      <c r="H83" s="98"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="21" t="str">
@@ -7835,18 +7821,18 @@
         <v>As a player, I want bosses to use their abilities to make challenging battles</v>
       </c>
       <c r="B84" s="21"/>
-      <c r="C84" s="102"/>
-      <c r="D84" s="103"/>
-      <c r="E84" s="103"/>
-      <c r="F84" s="103"/>
-      <c r="G84" s="103"/>
-      <c r="H84" s="104"/>
+      <c r="C84" s="96"/>
+      <c r="D84" s="97"/>
+      <c r="E84" s="97"/>
+      <c r="F84" s="97"/>
+      <c r="G84" s="97"/>
+      <c r="H84" s="98"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="99" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D85" s="100"/>
       <c r="E85" s="100"/>
@@ -7858,7 +7844,7 @@
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="99" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D86" s="100"/>
       <c r="E86" s="100"/>
@@ -7870,7 +7856,7 @@
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="99" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D87" s="100"/>
       <c r="E87" s="100"/>
@@ -7884,18 +7870,18 @@
         <v>As a player, I want all units to avoid solid objects in order to reach their destination</v>
       </c>
       <c r="B88" s="21"/>
-      <c r="C88" s="102"/>
-      <c r="D88" s="103"/>
-      <c r="E88" s="103"/>
-      <c r="F88" s="103"/>
-      <c r="G88" s="103"/>
-      <c r="H88" s="104"/>
+      <c r="C88" s="96"/>
+      <c r="D88" s="97"/>
+      <c r="E88" s="97"/>
+      <c r="F88" s="97"/>
+      <c r="G88" s="97"/>
+      <c r="H88" s="98"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="99" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D89" s="100"/>
       <c r="E89" s="100"/>
@@ -7907,7 +7893,7 @@
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="99" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D90" s="100"/>
       <c r="E90" s="100"/>
@@ -7921,18 +7907,18 @@
         <v>As a player, I want to hear background music and sound effects all throughout the game</v>
       </c>
       <c r="B91" s="21"/>
-      <c r="C91" s="102"/>
-      <c r="D91" s="103"/>
-      <c r="E91" s="103"/>
-      <c r="F91" s="103"/>
-      <c r="G91" s="103"/>
-      <c r="H91" s="104"/>
+      <c r="C91" s="96"/>
+      <c r="D91" s="97"/>
+      <c r="E91" s="97"/>
+      <c r="F91" s="97"/>
+      <c r="G91" s="97"/>
+      <c r="H91" s="98"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="99" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D92" s="100"/>
       <c r="E92" s="100"/>
@@ -7944,7 +7930,7 @@
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="99" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D93" s="100"/>
       <c r="E93" s="100"/>
@@ -7958,18 +7944,18 @@
         <v>As a player, I want to be able to save progress throughout the levels</v>
       </c>
       <c r="B94" s="21"/>
-      <c r="C94" s="102"/>
-      <c r="D94" s="103"/>
-      <c r="E94" s="103"/>
-      <c r="F94" s="103"/>
-      <c r="G94" s="103"/>
-      <c r="H94" s="104"/>
+      <c r="C94" s="96"/>
+      <c r="D94" s="97"/>
+      <c r="E94" s="97"/>
+      <c r="F94" s="97"/>
+      <c r="G94" s="97"/>
+      <c r="H94" s="98"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="99" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D95" s="100"/>
       <c r="E95" s="100"/>
@@ -7981,7 +7967,7 @@
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="99" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D96" s="100"/>
       <c r="E96" s="100"/>
@@ -7995,90 +7981,69 @@
         <v>As a developer, I want to have all of my assets in place</v>
       </c>
       <c r="B97" s="21"/>
-      <c r="C97" s="102"/>
-      <c r="D97" s="103"/>
-      <c r="E97" s="103"/>
-      <c r="F97" s="103"/>
-      <c r="G97" s="103"/>
-      <c r="H97" s="104"/>
+      <c r="C97" s="96"/>
+      <c r="D97" s="97"/>
+      <c r="E97" s="97"/>
+      <c r="F97" s="97"/>
+      <c r="G97" s="97"/>
+      <c r="H97" s="98"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="89"/>
       <c r="B98" s="89"/>
-      <c r="C98" s="93" t="s">
-        <v>301</v>
-      </c>
-      <c r="D98" s="94"/>
-      <c r="E98" s="94"/>
-      <c r="F98" s="94"/>
-      <c r="G98" s="94"/>
-      <c r="H98" s="95"/>
+      <c r="C98" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="D98" s="103"/>
+      <c r="E98" s="103"/>
+      <c r="F98" s="103"/>
+      <c r="G98" s="103"/>
+      <c r="H98" s="104"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="89"/>
       <c r="B99" s="89"/>
-      <c r="C99" s="93" t="s">
-        <v>302</v>
-      </c>
-      <c r="D99" s="94"/>
-      <c r="E99" s="94"/>
-      <c r="F99" s="94"/>
-      <c r="G99" s="94"/>
-      <c r="H99" s="95"/>
+      <c r="C99" s="102" t="s">
+        <v>300</v>
+      </c>
+      <c r="D99" s="103"/>
+      <c r="E99" s="103"/>
+      <c r="F99" s="103"/>
+      <c r="G99" s="103"/>
+      <c r="H99" s="104"/>
     </row>
     <row r="100" spans="1:8" ht="13.5" thickBot="1">
       <c r="A100" s="90"/>
       <c r="B100" s="90"/>
-      <c r="C100" s="96" t="s">
-        <v>303</v>
-      </c>
-      <c r="D100" s="97"/>
-      <c r="E100" s="97"/>
-      <c r="F100" s="97"/>
-      <c r="G100" s="97"/>
-      <c r="H100" s="98"/>
+      <c r="C100" s="105" t="s">
+        <v>301</v>
+      </c>
+      <c r="D100" s="106"/>
+      <c r="E100" s="106"/>
+      <c r="F100" s="106"/>
+      <c r="G100" s="106"/>
+      <c r="H100" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C95:H95"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C97:H97"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="C92:H92"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="C87:H87"/>
     <mergeCell ref="C35:H35"/>
     <mergeCell ref="C79:H79"/>
     <mergeCell ref="C80:H80"/>
@@ -8093,24 +8058,45 @@
     <mergeCell ref="C45:H45"/>
     <mergeCell ref="C49:H49"/>
     <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="C90:H90"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="C92:H92"/>
-    <mergeCell ref="C93:H93"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C95:H95"/>
-    <mergeCell ref="C96:H96"/>
-    <mergeCell ref="C97:H97"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C57:H57"/>
   </mergeCells>
   <conditionalFormatting sqref="A31">
     <cfRule type="dataBar" priority="2">

--- a/Sprint 1, 2, 3 UserStories.xlsx
+++ b/Sprint 1, 2, 3 UserStories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="11355" windowHeight="9210" tabRatio="648" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="11355" windowHeight="9210" tabRatio="648" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Directions" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="303">
   <si>
     <t>As a team member, I want to design the interface for the game through pictures</t>
   </si>
@@ -938,6 +938,9 @@
   </si>
   <si>
     <t>do all assets load properly? (i.e. images power of 2)</t>
+  </si>
+  <si>
+    <t>Ben Bair</t>
   </si>
 </sst>
 </file>
@@ -3638,7 +3641,7 @@
   </sheetPr>
   <dimension ref="A1:K140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
       <selection activeCell="C36" sqref="C36:H36"/>
     </sheetView>
   </sheetViews>
@@ -6680,8 +6683,8 @@
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6714,9 +6717,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="15" t="str">
-        <f>'Team info'!A5</f>
-        <v>Charles Stoll</v>
+      <c r="C2" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>'Team info'!A6</f>
@@ -6751,330 +6753,550 @@
         <v>232</v>
       </c>
       <c r="B3" s="91"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="3">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="18"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="27"/>
+      <c r="J3" s="3">
+        <v>8</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
         <v>233</v>
       </c>
       <c r="B4" s="91"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="18"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="28"/>
+      <c r="J4" s="5">
+        <v>2</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="6" t="s">
         <v>234</v>
       </c>
       <c r="B5" s="91"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="28"/>
+      <c r="J5" s="5">
+        <v>2</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="6" t="s">
         <v>235</v>
       </c>
       <c r="B6" s="91"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="18"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="28"/>
+      <c r="J6" s="5">
+        <v>4</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="6" t="s">
         <v>236</v>
       </c>
       <c r="B7" s="91"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="28"/>
+      <c r="J7" s="5">
+        <v>4</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="63" t="s">
         <v>237</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="5">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>12</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="61"/>
+      <c r="J8" s="5">
+        <v>12</v>
+      </c>
+      <c r="K8" s="61" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="6" t="s">
         <v>238</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="C9" s="5">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="61"/>
+      <c r="J9" s="5">
+        <v>4</v>
+      </c>
+      <c r="K9" s="61" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="6" t="s">
         <v>239</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="C10" s="5">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5">
+        <v>8</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="61"/>
+      <c r="J10" s="5">
+        <v>8</v>
+      </c>
+      <c r="K10" s="61" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="6" t="s">
         <v>240</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="C11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="28"/>
+      <c r="J11" s="5">
+        <v>4</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="6" t="s">
         <v>241</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="C12" s="5">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="28"/>
+      <c r="J12" s="5">
+        <v>4</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
         <v>242</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="C13" s="5">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>12</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="18"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="61"/>
+      <c r="J13" s="5">
+        <v>12</v>
+      </c>
+      <c r="K13" s="61" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
         <v>243</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="C14" s="5">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5">
+        <v>8</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="18"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="61"/>
+      <c r="J14" s="5">
+        <v>8</v>
+      </c>
+      <c r="K14" s="61" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
         <v>244</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="28"/>
+      <c r="J15" s="5">
+        <v>2</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="6" t="s">
         <v>245</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="C16" s="5">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="18"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="61"/>
+      <c r="J16" s="5">
+        <v>2</v>
+      </c>
+      <c r="K16" s="61" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="6" t="s">
         <v>246</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="C17" s="5">
+        <v>4</v>
+      </c>
+      <c r="D17" s="5">
+        <v>4</v>
+      </c>
+      <c r="E17" s="5">
+        <v>4</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="18"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="61"/>
+      <c r="J17" s="5">
+        <v>4</v>
+      </c>
+      <c r="K17" s="61" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="6" t="s">
         <v>247</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="C18" s="5">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5">
+        <v>12</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="61"/>
+      <c r="J18" s="5">
+        <v>12</v>
+      </c>
+      <c r="K18" s="61" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="6" t="s">
         <v>248</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="C19" s="5">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5">
+        <v>8</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="61"/>
+      <c r="J19" s="5">
+        <v>8</v>
+      </c>
+      <c r="K19" s="61" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="6" t="s">
         <v>249</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="C20" s="5">
+        <v>8</v>
+      </c>
+      <c r="D20" s="5">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5">
+        <v>8</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="18"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="61"/>
+      <c r="J20" s="5">
+        <v>8</v>
+      </c>
+      <c r="K20" s="61" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="6" t="s">
         <v>250</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="C21" s="5">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5">
+        <v>12</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="61"/>
+      <c r="J21" s="5">
+        <v>12</v>
+      </c>
+      <c r="K21" s="61" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="6" t="s">
         <v>251</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="C22" s="5">
+        <v>4</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="18"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="61"/>
+      <c r="J22" s="5">
+        <v>4</v>
+      </c>
+      <c r="K22" s="61" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="6" t="s">
         <v>252</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="C23" s="5">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="18"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="61"/>
+      <c r="J23" s="5">
+        <v>2</v>
+      </c>
+      <c r="K23" s="61" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="13.5" thickBot="1">
       <c r="A24" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="18"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="62"/>
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+      <c r="K24" s="62" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1">
       <c r="A25" s="55" t="s">
@@ -7089,7 +7311,7 @@
     <row r="27" spans="1:11" ht="18.75" thickBot="1">
       <c r="C27" s="15" t="str">
         <f t="shared" ref="C27:H27" si="0">C2</f>
-        <v>Charles Stoll</v>
+        <v>Ben Bair</v>
       </c>
       <c r="D27" s="15" t="str">
         <f t="shared" si="0"/>
@@ -7118,15 +7340,15 @@
     <row r="28" spans="1:11" ht="13.5" thickBot="1">
       <c r="C28" s="9">
         <f>SUMIF(K3:K24,C27,J3:J24)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D28" s="9">
         <f>SUMIF(K3:K24,D27,J3:J24)</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E28" s="9">
         <f>SUMIF(K3:K24,E27,J3:J24)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F28" s="9">
         <f>SUMIF(K3:K24,F27,J3:J24)</f>
@@ -7142,7 +7364,7 @@
       </c>
       <c r="J28" s="1">
         <f>SUM(J3:J24)</f>
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="13.5" thickBot="1"/>
